--- a/REGULAR/LANTING, AILEEN.xlsx
+++ b/REGULAR/LANTING, AILEEN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\CHARACTER\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4515CA0E-A50A-4E33-A86A-A4CAD95A2898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="442">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1358,12 +1357,15 @@
   </si>
   <si>
     <t>2/21-23/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                  </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -2248,7 +2250,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2291,7 +2293,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2355,7 +2357,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2415,7 +2417,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2481,7 +2483,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2544,7 +2546,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2642,7 +2644,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2701,7 +2703,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2766,7 +2768,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2809,7 +2811,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2884,7 +2886,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3070,7 +3072,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3136,7 +3138,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3194,7 +3196,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3260,7 +3262,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3316,7 +3318,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3391,7 +3393,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3434,7 +3436,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3500,7 +3502,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3556,7 +3558,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3654,7 +3656,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3717,7 +3719,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3783,25 +3785,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K762" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K762" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3813,13 +3815,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" name="DAYS"/>
+    <tableColumn id="2" name="HOURS"/>
+    <tableColumn id="3" name="MINUTES"/>
+    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3828,14 +3830,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4139,7 +4141,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -4149,7 +4151,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4157,34 +4159,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K762"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1884" topLeftCell="A642" activePane="bottomLeft"/>
+      <pane ySplit="1890" topLeftCell="A630" activePane="bottomLeft"/>
       <selection activeCell="C5" sqref="C5"/>
-      <selection pane="bottomLeft" activeCell="B648" sqref="B648"/>
+      <selection pane="bottomLeft" activeCell="C652" sqref="C652"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.77734375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -4205,7 +4207,7 @@
       <c r="J2" s="58"/>
       <c r="K2" s="59"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -4223,7 +4225,7 @@
       <c r="J3" s="60"/>
       <c r="K3" s="61"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -4241,7 +4243,7 @@
       <c r="J4" s="62"/>
       <c r="K4" s="63"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -4249,7 +4251,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -4262,7 +4264,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="56" t="s">
@@ -4279,7 +4281,7 @@
       <c r="J7" s="56"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -4314,7 +4316,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -4323,7 +4325,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>115.18700000000007</v>
+        <v>117.68700000000007</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4333,12 +4335,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>115.75</v>
+        <v>117.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>43</v>
       </c>
@@ -4360,7 +4362,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>36069</v>
       </c>
@@ -4380,7 +4382,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <f>EDATE(A11,1)</f>
         <v>36100</v>
@@ -4401,7 +4403,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <f>EDATE(A12,1)</f>
         <v>36130</v>
@@ -4422,7 +4424,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="48" t="s">
         <v>44</v>
       </c>
@@ -4440,7 +4442,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>35431</v>
       </c>
@@ -4460,7 +4462,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="41">
         <f>EDATE(A15,1)</f>
         <v>35462</v>
@@ -4481,7 +4483,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="41">
         <f t="shared" ref="A17:A22" si="0">EDATE(A16,1)</f>
         <v>35490</v>
@@ -4506,7 +4508,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40"/>
       <c r="B18" s="20"/>
       <c r="C18" s="13">
@@ -4524,7 +4526,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="41">
         <f>EDATE(A17,1)</f>
         <v>35521</v>
@@ -4545,7 +4547,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="41">
         <f t="shared" si="0"/>
         <v>35551</v>
@@ -4566,7 +4568,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="41">
         <f t="shared" si="0"/>
         <v>35582</v>
@@ -4587,7 +4589,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="41">
         <f t="shared" si="0"/>
         <v>35612</v>
@@ -4612,7 +4614,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40"/>
       <c r="B23" s="20"/>
       <c r="C23" s="13">
@@ -4630,7 +4632,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="41">
         <f>EDATE(A22,1)</f>
         <v>35643</v>
@@ -4655,7 +4657,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40"/>
       <c r="B25" s="20"/>
       <c r="C25" s="13">
@@ -4673,7 +4675,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="41">
         <f>EDATE(A24,1)</f>
         <v>35674</v>
@@ -4698,7 +4700,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40"/>
       <c r="B27" s="20" t="s">
         <v>51</v>
@@ -4720,7 +4722,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40"/>
       <c r="B28" s="20"/>
       <c r="C28" s="13">
@@ -4738,7 +4740,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="41">
         <f>EDATE(A26,1)</f>
         <v>35704</v>
@@ -4761,7 +4763,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40"/>
       <c r="B30" s="20" t="s">
         <v>48</v>
@@ -4783,7 +4785,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40"/>
       <c r="B31" s="20"/>
       <c r="C31" s="13">
@@ -4801,7 +4803,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="41">
         <f>EDATE(A29,1)</f>
         <v>35735</v>
@@ -4824,7 +4826,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40"/>
       <c r="B33" s="20" t="s">
         <v>48</v>
@@ -4846,7 +4848,7 @@
         <v>35622</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40"/>
       <c r="B34" s="20"/>
       <c r="C34" s="13">
@@ -4864,7 +4866,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="41">
         <f>EDATE(A32,1)</f>
         <v>35765</v>
@@ -4889,7 +4891,7 @@
         <v>35654</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40"/>
       <c r="B36" s="20" t="s">
         <v>58</v>
@@ -4911,7 +4913,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="48" t="s">
         <v>59</v>
       </c>
@@ -4929,7 +4931,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>35796</v>
       </c>
@@ -4953,7 +4955,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40"/>
       <c r="B39" s="20" t="s">
         <v>61</v>
@@ -4975,7 +4977,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <f>EDATE(A38,1)</f>
         <v>35827</v>
@@ -5000,7 +5002,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40"/>
       <c r="B41" s="20" t="s">
         <v>65</v>
@@ -5022,7 +5024,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <f>EDATE(A40,1)</f>
         <v>35855</v>
@@ -5047,7 +5049,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40"/>
       <c r="B43" s="20" t="s">
         <v>57</v>
@@ -5069,7 +5071,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40"/>
       <c r="B44" s="20"/>
       <c r="C44" s="13">
@@ -5087,7 +5089,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <f>EDATE(A42,1)</f>
         <v>35886</v>
@@ -5112,7 +5114,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40"/>
       <c r="B46" s="20" t="s">
         <v>57</v>
@@ -5134,7 +5136,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40"/>
       <c r="B47" s="20" t="s">
         <v>71</v>
@@ -5156,7 +5158,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <f>EDATE(A45,1)</f>
         <v>35916</v>
@@ -5181,7 +5183,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
         <f t="shared" ref="A49:A59" si="1">EDATE(A48,1)</f>
         <v>35947</v>
@@ -5202,7 +5204,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <f t="shared" si="1"/>
         <v>35977</v>
@@ -5229,7 +5231,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40"/>
       <c r="B51" s="20" t="s">
         <v>74</v>
@@ -5249,7 +5251,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <f>EDATE(A50,1)</f>
         <v>36008</v>
@@ -5274,7 +5276,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40"/>
       <c r="B53" s="20" t="s">
         <v>76</v>
@@ -5296,7 +5298,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <f>EDATE(A52,1)</f>
         <v>36039</v>
@@ -5317,7 +5319,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <f t="shared" si="1"/>
         <v>36069</v>
@@ -5342,7 +5344,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40"/>
       <c r="B56" s="20" t="s">
         <v>53</v>
@@ -5362,7 +5364,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40"/>
       <c r="B57" s="20" t="s">
         <v>79</v>
@@ -5384,7 +5386,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <f>EDATE(A55,1)</f>
         <v>36100</v>
@@ -5409,7 +5411,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <f t="shared" si="1"/>
         <v>36130</v>
@@ -5434,7 +5436,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40"/>
       <c r="B60" s="20" t="s">
         <v>83</v>
@@ -5456,7 +5458,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="48" t="s">
         <v>84</v>
       </c>
@@ -5474,7 +5476,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
         <v>36161</v>
       </c>
@@ -5498,7 +5500,7 @@
         <v>36373</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40"/>
       <c r="B63" s="20" t="s">
         <v>85</v>
@@ -5520,7 +5522,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <f>EDATE(A62,1)</f>
         <v>36192</v>
@@ -5545,7 +5547,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <f t="shared" ref="A65:A84" si="2">EDATE(A64,1)</f>
         <v>36220</v>
@@ -5570,7 +5572,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <f t="shared" si="2"/>
         <v>36251</v>
@@ -5595,7 +5597,7 @@
         <v>36498</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40"/>
       <c r="B67" s="20" t="s">
         <v>88</v>
@@ -5617,7 +5619,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <f>EDATE(A66,1)</f>
         <v>36281</v>
@@ -5642,7 +5644,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40"/>
       <c r="B69" s="20" t="s">
         <v>90</v>
@@ -5664,7 +5666,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <f>EDATE(A68,1)</f>
         <v>36312</v>
@@ -5689,7 +5691,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40"/>
       <c r="B71" s="20" t="s">
         <v>57</v>
@@ -5711,7 +5713,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40"/>
       <c r="B72" s="20" t="s">
         <v>53</v>
@@ -5731,7 +5733,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40"/>
       <c r="B73" s="20" t="s">
         <v>61</v>
@@ -5753,7 +5755,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <f>EDATE(A70,1)</f>
         <v>36342</v>
@@ -5778,7 +5780,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
         <f t="shared" si="2"/>
         <v>36373</v>
@@ -5803,7 +5805,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40"/>
       <c r="B76" s="20" t="s">
         <v>95</v>
@@ -5825,7 +5827,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <f>EDATE(A75,1)</f>
         <v>36404</v>
@@ -5850,7 +5852,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40"/>
       <c r="B78" s="20" t="s">
         <v>97</v>
@@ -5872,7 +5874,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <f>EDATE(A77,1)</f>
         <v>36434</v>
@@ -5897,7 +5899,7 @@
         <v>36260</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40"/>
       <c r="B80" s="20" t="s">
         <v>53</v>
@@ -5917,7 +5919,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40"/>
       <c r="B81" s="20" t="s">
         <v>48</v>
@@ -5939,7 +5941,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40"/>
       <c r="B82" s="20"/>
       <c r="C82" s="13">
@@ -5957,7 +5959,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <f>EDATE(A79,1)</f>
         <v>36465</v>
@@ -5982,7 +5984,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <f t="shared" si="2"/>
         <v>36495</v>
@@ -6007,7 +6009,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40"/>
       <c r="B85" s="20" t="s">
         <v>77</v>
@@ -6029,7 +6031,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40"/>
       <c r="B86" s="20" t="s">
         <v>103</v>
@@ -6051,7 +6053,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="48" t="s">
         <v>104</v>
       </c>
@@ -6069,7 +6071,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <v>36526</v>
       </c>
@@ -6093,7 +6095,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
         <f>EDATE(A88,1)</f>
         <v>36557</v>
@@ -6118,7 +6120,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <f t="shared" ref="A90:A103" si="3">EDATE(A89,1)</f>
         <v>36586</v>
@@ -6143,7 +6145,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40"/>
       <c r="B91" s="20" t="s">
         <v>107</v>
@@ -6165,7 +6167,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
         <f>EDATE(A90,1)</f>
         <v>36617</v>
@@ -6190,7 +6192,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40"/>
       <c r="B93" s="20" t="s">
         <v>107</v>
@@ -6212,7 +6214,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
         <f>EDATE(A92,1)</f>
         <v>36647</v>
@@ -6237,7 +6239,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
         <f t="shared" si="3"/>
         <v>36678</v>
@@ -6262,7 +6264,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
         <f t="shared" si="3"/>
         <v>36708</v>
@@ -6287,7 +6289,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
         <f t="shared" si="3"/>
         <v>36739</v>
@@ -6308,7 +6310,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
         <f>EDATE(A97,1)</f>
         <v>36770</v>
@@ -6331,7 +6333,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13">
@@ -6349,7 +6351,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
         <f>EDATE(A98,1)</f>
         <v>36800</v>
@@ -6372,7 +6374,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13">
@@ -6390,7 +6392,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
         <f>EDATE(A100,1)</f>
         <v>36831</v>
@@ -6411,7 +6413,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
         <f t="shared" si="3"/>
         <v>36861</v>
@@ -6436,7 +6438,7 @@
         <v>36842</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40"/>
       <c r="B104" s="20" t="s">
         <v>115</v>
@@ -6458,7 +6460,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40"/>
       <c r="B105" s="20" t="s">
         <v>51</v>
@@ -6480,7 +6482,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13">
@@ -6498,7 +6500,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="48" t="s">
         <v>118</v>
       </c>
@@ -6516,7 +6518,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
         <v>36892</v>
       </c>
@@ -6540,7 +6542,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13">
@@ -6558,7 +6560,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
         <f>EDATE(A108,1)</f>
         <v>36923</v>
@@ -6579,7 +6581,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
         <f t="shared" ref="A111:A125" si="4">EDATE(A110,1)</f>
         <v>36951</v>
@@ -6604,7 +6606,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13">
@@ -6622,7 +6624,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
         <f>EDATE(A111,1)</f>
         <v>36982</v>
@@ -6647,7 +6649,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13">
@@ -6665,7 +6667,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
         <f>EDATE(A113,1)</f>
         <v>37012</v>
@@ -6686,7 +6688,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
         <f t="shared" si="4"/>
         <v>37043</v>
@@ -6707,7 +6709,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
         <f t="shared" si="4"/>
         <v>37073</v>
@@ -6732,7 +6734,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13">
@@ -6750,7 +6752,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
         <f>EDATE(A117,1)</f>
         <v>37104</v>
@@ -6775,7 +6777,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13">
@@ -6793,7 +6795,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
         <f>EDATE(A119,1)</f>
         <v>37135</v>
@@ -6818,7 +6820,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40"/>
       <c r="B122" s="20" t="s">
         <v>125</v>
@@ -6838,7 +6840,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13">
@@ -6856,7 +6858,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
         <f>EDATE(A121,1)</f>
         <v>37165</v>
@@ -6877,7 +6879,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
         <f t="shared" si="4"/>
         <v>37196</v>
@@ -6902,7 +6904,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40"/>
       <c r="B126" s="20" t="s">
         <v>45</v>
@@ -6924,7 +6926,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40"/>
       <c r="B127" s="20" t="s">
         <v>77</v>
@@ -6946,7 +6948,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13">
@@ -6964,7 +6966,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40">
         <f>EDATE(A125,1)</f>
         <v>37226</v>
@@ -6989,7 +6991,7 @@
         <v>37207</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13">
@@ -7007,7 +7009,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="48" t="s">
         <v>130</v>
       </c>
@@ -7025,7 +7027,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40">
         <v>37257</v>
       </c>
@@ -7049,7 +7051,7 @@
         <v>37288</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40"/>
       <c r="B133" s="20" t="s">
         <v>48</v>
@@ -7071,7 +7073,7 @@
         <v>37500</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40"/>
       <c r="B134" s="20" t="s">
         <v>48</v>
@@ -7093,7 +7095,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40"/>
       <c r="B135" s="20"/>
       <c r="C135" s="13">
@@ -7111,7 +7113,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40">
         <f>EDATE(A132,1)</f>
         <v>37288</v>
@@ -7132,7 +7134,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40">
         <f t="shared" ref="A137:A155" si="5">EDATE(A136,1)</f>
         <v>37316</v>
@@ -7157,7 +7159,7 @@
         <v>37440</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40"/>
       <c r="B138" s="20" t="s">
         <v>48</v>
@@ -7179,7 +7181,7 @@
         <v>37563</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40"/>
       <c r="B139" s="20" t="s">
         <v>57</v>
@@ -7201,7 +7203,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40"/>
       <c r="B140" s="20" t="s">
         <v>125</v>
@@ -7221,7 +7223,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40"/>
       <c r="B141" s="20"/>
       <c r="C141" s="13">
@@ -7239,7 +7241,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40">
         <f>EDATE(A137,1)</f>
         <v>37347</v>
@@ -7260,7 +7262,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40">
         <f t="shared" si="5"/>
         <v>37377</v>
@@ -7281,7 +7283,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40">
         <f t="shared" si="5"/>
         <v>37408</v>
@@ -7302,7 +7304,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40">
         <f t="shared" si="5"/>
         <v>37438</v>
@@ -7323,7 +7325,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40">
         <f t="shared" si="5"/>
         <v>37469</v>
@@ -7348,7 +7350,7 @@
         <v>37598</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="40"/>
       <c r="B147" s="20"/>
       <c r="C147" s="13">
@@ -7366,7 +7368,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="40">
         <f>EDATE(A146,1)</f>
         <v>37500</v>
@@ -7391,7 +7393,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="40"/>
       <c r="B149" s="20" t="s">
         <v>48</v>
@@ -7413,7 +7415,7 @@
         <v>37416</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="40"/>
       <c r="B150" s="20" t="s">
         <v>57</v>
@@ -7433,7 +7435,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="40"/>
       <c r="B151" s="20"/>
       <c r="C151" s="13">
@@ -7451,7 +7453,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="40">
         <f>EDATE(A148,1)</f>
         <v>37530</v>
@@ -7476,7 +7478,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="40"/>
       <c r="B153" s="20"/>
       <c r="C153" s="13">
@@ -7494,7 +7496,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="40">
         <f>EDATE(A152,1)</f>
         <v>37561</v>
@@ -7515,7 +7517,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="40">
         <f t="shared" si="5"/>
         <v>37591</v>
@@ -7540,7 +7542,7 @@
         <v>37511</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="40"/>
       <c r="B156" s="20"/>
       <c r="C156" s="13">
@@ -7558,7 +7560,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="48" t="s">
         <v>137</v>
       </c>
@@ -7576,7 +7578,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="40">
         <v>37622</v>
       </c>
@@ -7600,7 +7602,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="40"/>
       <c r="B159" s="20"/>
       <c r="C159" s="13">
@@ -7618,7 +7620,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="40">
         <f>EDATE(A158,1)</f>
         <v>37653</v>
@@ -7639,7 +7641,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="40">
         <f t="shared" ref="A161:A174" si="6">EDATE(A160,1)</f>
         <v>37681</v>
@@ -7660,7 +7662,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="40">
         <f t="shared" si="6"/>
         <v>37712</v>
@@ -7681,7 +7683,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="40">
         <f t="shared" si="6"/>
         <v>37742</v>
@@ -7706,7 +7708,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="40"/>
       <c r="B164" s="20" t="s">
         <v>112</v>
@@ -7726,7 +7728,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="40"/>
       <c r="B165" s="20"/>
       <c r="C165" s="13">
@@ -7744,7 +7746,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="40">
         <f>EDATE(A163,1)</f>
         <v>37773</v>
@@ -7769,7 +7771,7 @@
         <v>37778</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="40"/>
       <c r="B167" s="20"/>
       <c r="C167" s="13">
@@ -7787,7 +7789,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="40">
         <f>EDATE(A166,1)</f>
         <v>37803</v>
@@ -7808,7 +7810,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="40">
         <f t="shared" si="6"/>
         <v>37834</v>
@@ -7831,7 +7833,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="40"/>
       <c r="B170" s="20"/>
       <c r="C170" s="13">
@@ -7849,7 +7851,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="40">
         <f>EDATE(A169,1)</f>
         <v>37865</v>
@@ -7870,7 +7872,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="40">
         <f t="shared" si="6"/>
         <v>37895</v>
@@ -7891,7 +7893,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="40">
         <f t="shared" si="6"/>
         <v>37926</v>
@@ -7912,7 +7914,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="40">
         <f t="shared" si="6"/>
         <v>37956</v>
@@ -7933,7 +7935,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="48" t="s">
         <v>143</v>
       </c>
@@ -7951,7 +7953,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="40">
         <v>37987</v>
       </c>
@@ -7975,7 +7977,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="40">
         <f>EDATE(A176,1)</f>
         <v>38018</v>
@@ -8000,7 +8002,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="40">
         <f t="shared" ref="A178:A185" si="7">EDATE(A177,1)</f>
         <v>38047</v>
@@ -8025,7 +8027,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="40"/>
       <c r="B179" s="20" t="s">
         <v>147</v>
@@ -8047,7 +8049,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="40">
         <f>EDATE(A178,1)</f>
         <v>38078</v>
@@ -8072,7 +8074,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="40">
         <f t="shared" si="7"/>
         <v>38108</v>
@@ -8097,7 +8099,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="40">
         <f t="shared" si="7"/>
         <v>38139</v>
@@ -8122,7 +8124,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="40">
         <f t="shared" si="7"/>
         <v>38169</v>
@@ -8147,7 +8149,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="40">
         <f t="shared" si="7"/>
         <v>38200</v>
@@ -8172,7 +8174,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="40">
         <f t="shared" si="7"/>
         <v>38231</v>
@@ -8195,7 +8197,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="40"/>
       <c r="B186" s="20" t="s">
         <v>152</v>
@@ -8217,7 +8219,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="40">
         <f>EDATE(A185,1)</f>
         <v>38261</v>
@@ -8242,7 +8244,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="40"/>
       <c r="B188" s="20" t="s">
         <v>155</v>
@@ -8264,7 +8266,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="40"/>
       <c r="B189" s="20" t="s">
         <v>157</v>
@@ -8286,7 +8288,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="40">
         <f>EDATE(A187,1)</f>
         <v>38292</v>
@@ -8309,7 +8311,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="40"/>
       <c r="B191" s="20" t="s">
         <v>159</v>
@@ -8331,7 +8333,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="40">
         <f>EDATE(A190,1)</f>
         <v>38322</v>
@@ -8356,7 +8358,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="40"/>
       <c r="B193" s="20"/>
       <c r="C193" s="13">
@@ -8374,7 +8376,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="48" t="s">
         <v>161</v>
       </c>
@@ -8392,7 +8394,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="40">
         <v>38353</v>
       </c>
@@ -8414,7 +8416,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="40"/>
       <c r="B196" s="20" t="s">
         <v>163</v>
@@ -8436,7 +8438,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="41">
         <f>EDATE(A195,1)</f>
         <v>38384</v>
@@ -8461,7 +8463,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="40"/>
       <c r="B198" s="20" t="s">
         <v>165</v>
@@ -8483,7 +8485,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="41">
         <f>EDATE(A197,1)</f>
         <v>38412</v>
@@ -8508,7 +8510,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="41">
         <f t="shared" ref="A200:A213" si="8">EDATE(A199,1)</f>
         <v>38443</v>
@@ -8533,7 +8535,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="41">
         <f t="shared" si="8"/>
         <v>38473</v>
@@ -8558,7 +8560,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="41">
         <f t="shared" si="8"/>
         <v>38504</v>
@@ -8583,7 +8585,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="41">
         <f t="shared" si="8"/>
         <v>38534</v>
@@ -8608,7 +8610,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="40"/>
       <c r="B204" s="20" t="s">
         <v>45</v>
@@ -8630,7 +8632,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="40"/>
       <c r="B205" s="20" t="s">
         <v>169</v>
@@ -8652,7 +8654,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="41">
         <f>EDATE(A203,1)</f>
         <v>38565</v>
@@ -8677,7 +8679,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="41">
         <f t="shared" si="8"/>
         <v>38596</v>
@@ -8702,7 +8704,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="40"/>
       <c r="B208" s="20" t="s">
         <v>112</v>
@@ -8722,7 +8724,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="40"/>
       <c r="B209" s="20"/>
       <c r="C209" s="13">
@@ -8740,7 +8742,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="40"/>
       <c r="B210" s="20" t="s">
         <v>175</v>
@@ -8760,7 +8762,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="41">
         <f>EDATE(A207,1)</f>
         <v>38626</v>
@@ -8785,7 +8787,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="20"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="41">
         <f t="shared" si="8"/>
         <v>38657</v>
@@ -8810,7 +8812,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="41">
         <f t="shared" si="8"/>
         <v>38687</v>
@@ -8835,7 +8837,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="40"/>
       <c r="B214" s="20" t="s">
         <v>180</v>
@@ -8857,7 +8859,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="40"/>
       <c r="B215" s="20" t="s">
         <v>181</v>
@@ -8877,7 +8879,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="48" t="s">
         <v>182</v>
       </c>
@@ -8895,7 +8897,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="40">
         <v>38718</v>
       </c>
@@ -8919,7 +8921,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="40"/>
       <c r="B218" s="20" t="s">
         <v>184</v>
@@ -8941,7 +8943,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="40">
         <f>EDATE(A217,1)</f>
         <v>38749</v>
@@ -8966,7 +8968,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="40">
         <f t="shared" ref="A220:A240" si="9">EDATE(A219,1)</f>
         <v>38777</v>
@@ -8991,7 +8993,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="40"/>
       <c r="B221" s="20" t="s">
         <v>187</v>
@@ -9013,7 +9015,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="40"/>
       <c r="B222" s="20" t="s">
         <v>189</v>
@@ -9035,7 +9037,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="40">
         <f>EDATE(A220,1)</f>
         <v>38808</v>
@@ -9060,7 +9062,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="40"/>
       <c r="B224" s="20" t="s">
         <v>178</v>
@@ -9082,7 +9084,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="40"/>
       <c r="B225" s="20" t="s">
         <v>192</v>
@@ -9104,7 +9106,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="40">
         <f>EDATE(A223,1)</f>
         <v>38838</v>
@@ -9129,7 +9131,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="40">
         <f t="shared" si="9"/>
         <v>38869</v>
@@ -9154,7 +9156,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="40">
         <f t="shared" si="9"/>
         <v>38899</v>
@@ -9179,7 +9181,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="40"/>
       <c r="B229" s="20" t="s">
         <v>196</v>
@@ -9201,7 +9203,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="40">
         <f>EDATE(A228,1)</f>
         <v>38930</v>
@@ -9224,7 +9226,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="40"/>
       <c r="B231" s="20" t="s">
         <v>178</v>
@@ -9246,7 +9248,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="40"/>
       <c r="B232" s="20" t="s">
         <v>48</v>
@@ -9268,7 +9270,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="40"/>
       <c r="B233" s="20" t="s">
         <v>48</v>
@@ -9290,7 +9292,7 @@
         <v>38725</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="40"/>
       <c r="B234" s="20" t="s">
         <v>45</v>
@@ -9312,7 +9314,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="40"/>
       <c r="B235" s="20" t="s">
         <v>48</v>
@@ -9334,7 +9336,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="40"/>
       <c r="B236" s="20" t="s">
         <v>53</v>
@@ -9354,7 +9356,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="40"/>
       <c r="B237" s="20" t="s">
         <v>203</v>
@@ -9376,7 +9378,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="40">
         <f>EDATE(A230,1)</f>
         <v>38961</v>
@@ -9401,7 +9403,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="40">
         <f t="shared" si="9"/>
         <v>38991</v>
@@ -9426,7 +9428,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="40">
         <f t="shared" si="9"/>
         <v>39022</v>
@@ -9451,7 +9453,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="40"/>
       <c r="B241" s="20" t="s">
         <v>207</v>
@@ -9473,7 +9475,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="40">
         <f>EDATE(A240,1)</f>
         <v>39052</v>
@@ -9498,7 +9500,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="48" t="s">
         <v>209</v>
       </c>
@@ -9516,7 +9518,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="40">
         <v>39083</v>
       </c>
@@ -9536,7 +9538,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="40">
         <f>EDATE(A244,1)</f>
         <v>39114</v>
@@ -9557,7 +9559,7 @@
       <c r="J245" s="11"/>
       <c r="K245" s="20"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="40">
         <f t="shared" ref="A246:A261" si="10">EDATE(A245,1)</f>
         <v>39142</v>
@@ -9578,7 +9580,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="40">
         <f t="shared" si="10"/>
         <v>39173</v>
@@ -9599,7 +9601,7 @@
       <c r="J247" s="11"/>
       <c r="K247" s="20"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="40">
         <f t="shared" si="10"/>
         <v>39203</v>
@@ -9620,7 +9622,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="40">
         <f t="shared" si="10"/>
         <v>39234</v>
@@ -9641,7 +9643,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="40">
         <f t="shared" si="10"/>
         <v>39264</v>
@@ -9664,7 +9666,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="40"/>
       <c r="B251" s="20" t="s">
         <v>48</v>
@@ -9686,7 +9688,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="40"/>
       <c r="B252" s="20" t="s">
         <v>48</v>
@@ -9708,7 +9710,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="40"/>
       <c r="B253" s="20"/>
       <c r="C253" s="13">
@@ -9726,7 +9728,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="40">
         <f>EDATE(A250,1)</f>
         <v>39295</v>
@@ -9751,7 +9753,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="40"/>
       <c r="B255" s="20"/>
       <c r="C255" s="13">
@@ -9769,7 +9771,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="40">
         <f>EDATE(A254,1)</f>
         <v>39326</v>
@@ -9794,7 +9796,7 @@
         <v>39091</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="40"/>
       <c r="B257" s="20" t="s">
         <v>178</v>
@@ -9816,7 +9818,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="40"/>
       <c r="B258" s="20" t="s">
         <v>53</v>
@@ -9836,7 +9838,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="40"/>
       <c r="B259" s="20"/>
       <c r="C259" s="13">
@@ -9854,7 +9856,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="40">
         <f>EDATE(A256,1)</f>
         <v>39356</v>
@@ -9879,7 +9881,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="40">
         <f t="shared" si="10"/>
         <v>39387</v>
@@ -9902,7 +9904,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="40"/>
       <c r="B262" s="20" t="s">
         <v>180</v>
@@ -9924,7 +9926,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="40"/>
       <c r="B263" s="20" t="s">
         <v>219</v>
@@ -9946,7 +9948,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="40">
         <f>EDATE(A261,1)</f>
         <v>39417</v>
@@ -9971,7 +9973,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="48" t="s">
         <v>221</v>
       </c>
@@ -9989,7 +9991,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="40">
         <v>39448</v>
       </c>
@@ -10013,7 +10015,7 @@
       <c r="J266" s="11"/>
       <c r="K266" s="20"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="40">
         <f>EDATE(A266,1)</f>
         <v>39479</v>
@@ -10038,7 +10040,7 @@
       <c r="J267" s="11"/>
       <c r="K267" s="20"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="40">
         <f t="shared" ref="A268:A281" si="11">EDATE(A267,1)</f>
         <v>39508</v>
@@ -10063,7 +10065,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="40"/>
       <c r="B269" s="20" t="s">
         <v>226</v>
@@ -10085,7 +10087,7 @@
       <c r="J269" s="11"/>
       <c r="K269" s="20"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="40">
         <f>EDATE(A268,1)</f>
         <v>39539</v>
@@ -10110,7 +10112,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="40"/>
       <c r="B271" s="20" t="s">
         <v>228</v>
@@ -10132,7 +10134,7 @@
       <c r="J271" s="11"/>
       <c r="K271" s="20"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="40">
         <f>EDATE(A270,1)</f>
         <v>39569</v>
@@ -10157,7 +10159,7 @@
       <c r="J272" s="12"/>
       <c r="K272" s="15"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="40">
         <f t="shared" si="11"/>
         <v>39600</v>
@@ -10182,7 +10184,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="40">
         <f t="shared" si="11"/>
         <v>39630</v>
@@ -10207,7 +10209,7 @@
         <v>39545</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="40"/>
       <c r="B275" s="20" t="s">
         <v>53</v>
@@ -10227,7 +10229,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="40"/>
       <c r="B276" s="20" t="s">
         <v>232</v>
@@ -10249,7 +10251,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="40">
         <f>EDATE(A274,1)</f>
         <v>39661</v>
@@ -10274,7 +10276,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="40">
         <f t="shared" si="11"/>
         <v>39692</v>
@@ -10297,7 +10299,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="40"/>
       <c r="B279" s="20" t="s">
         <v>235</v>
@@ -10319,7 +10321,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="40">
         <f>EDATE(A278,1)</f>
         <v>39722</v>
@@ -10344,7 +10346,7 @@
       <c r="J280" s="11"/>
       <c r="K280" s="20"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="40">
         <f t="shared" si="11"/>
         <v>39753</v>
@@ -10367,7 +10369,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="40"/>
       <c r="B282" s="20" t="s">
         <v>178</v>
@@ -10389,7 +10391,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="40"/>
       <c r="B283" s="20" t="s">
         <v>240</v>
@@ -10411,7 +10413,7 @@
       <c r="J283" s="11"/>
       <c r="K283" s="20"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="40">
         <f>EDATE(A281,1)</f>
         <v>39783</v>
@@ -10432,7 +10434,7 @@
       <c r="J284" s="11"/>
       <c r="K284" s="20"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="48" t="s">
         <v>222</v>
       </c>
@@ -10450,7 +10452,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="40">
         <v>39814</v>
       </c>
@@ -10474,7 +10476,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="40"/>
       <c r="B287" s="20" t="s">
         <v>155</v>
@@ -10494,7 +10496,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="20"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="40"/>
       <c r="B288" s="20" t="s">
         <v>180</v>
@@ -10516,7 +10518,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="40"/>
       <c r="B289" s="20" t="s">
         <v>53</v>
@@ -10536,7 +10538,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="40"/>
       <c r="B290" s="20" t="s">
         <v>48</v>
@@ -10558,7 +10560,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="40"/>
       <c r="B291" s="20" t="s">
         <v>45</v>
@@ -10580,7 +10582,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="40"/>
       <c r="B292" s="20" t="s">
         <v>53</v>
@@ -10600,7 +10602,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="40"/>
       <c r="B293" s="20" t="s">
         <v>48</v>
@@ -10622,7 +10624,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="40"/>
       <c r="B294" s="20" t="s">
         <v>248</v>
@@ -10644,7 +10646,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="41">
         <f>EDATE(A286,1)</f>
         <v>39845</v>
@@ -10669,7 +10671,7 @@
       <c r="J295" s="12"/>
       <c r="K295" s="15"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="41">
         <f t="shared" ref="A296:A310" si="12">EDATE(A295,1)</f>
         <v>39873</v>
@@ -10694,7 +10696,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="40"/>
       <c r="B297" s="20" t="s">
         <v>187</v>
@@ -10716,7 +10718,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="40"/>
       <c r="B298" s="20" t="s">
         <v>252</v>
@@ -10738,7 +10740,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="41">
         <f>EDATE(A296,1)</f>
         <v>39904</v>
@@ -10763,7 +10765,7 @@
       <c r="J299" s="11"/>
       <c r="K299" s="20"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="41">
         <f t="shared" si="12"/>
         <v>39934</v>
@@ -10788,7 +10790,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="40"/>
       <c r="B301" s="20" t="s">
         <v>254</v>
@@ -10810,7 +10812,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="41">
         <f>EDATE(A300,1)</f>
         <v>39965</v>
@@ -10835,7 +10837,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="20"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="41">
         <f t="shared" si="12"/>
         <v>39995</v>
@@ -10860,7 +10862,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="41">
         <f t="shared" si="12"/>
         <v>40026</v>
@@ -10885,7 +10887,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="41">
         <f t="shared" si="12"/>
         <v>40057</v>
@@ -10910,7 +10912,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="40"/>
       <c r="B306" s="20" t="s">
         <v>53</v>
@@ -10930,7 +10932,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="40"/>
       <c r="B307" s="20" t="s">
         <v>187</v>
@@ -10952,7 +10954,7 @@
         <v>40066</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="40"/>
       <c r="B308" s="20" t="s">
         <v>261</v>
@@ -10974,7 +10976,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="41">
         <f>EDATE(A305,1)</f>
         <v>40087</v>
@@ -10997,7 +10999,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="20"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="41">
         <f t="shared" si="12"/>
         <v>40118</v>
@@ -11022,7 +11024,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="40"/>
       <c r="B311" s="20" t="s">
         <v>264</v>
@@ -11044,7 +11046,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="20"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="41">
         <f>EDATE(A310,1)</f>
         <v>40148</v>
@@ -11069,7 +11071,7 @@
       <c r="J312" s="11"/>
       <c r="K312" s="20"/>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="52" t="s">
         <v>266</v>
       </c>
@@ -11087,7 +11089,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="41">
         <v>40179</v>
       </c>
@@ -11111,7 +11113,7 @@
       <c r="J314" s="11"/>
       <c r="K314" s="20"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="40">
         <f>EDATE(A314,1)</f>
         <v>40210</v>
@@ -11136,7 +11138,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="40">
         <f t="shared" ref="A316:A330" si="13">EDATE(A315,1)</f>
         <v>40238</v>
@@ -11161,7 +11163,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="40"/>
       <c r="B317" s="20" t="s">
         <v>270</v>
@@ -11183,7 +11185,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="40">
         <f>EDATE(A316,1)</f>
         <v>40269</v>
@@ -11208,7 +11210,7 @@
       <c r="J318" s="11"/>
       <c r="K318" s="20"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="40">
         <f t="shared" si="13"/>
         <v>40299</v>
@@ -11233,7 +11235,7 @@
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="40">
         <f t="shared" si="13"/>
         <v>40330</v>
@@ -11258,7 +11260,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="40"/>
       <c r="B321" s="20" t="s">
         <v>270</v>
@@ -11280,7 +11282,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="40">
         <f>EDATE(A320,1)</f>
         <v>40360</v>
@@ -11305,7 +11307,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="40">
         <f t="shared" si="13"/>
         <v>40391</v>
@@ -11330,7 +11332,7 @@
         <v>40337</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="40"/>
       <c r="B324" s="20" t="s">
         <v>275</v>
@@ -11352,7 +11354,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="40">
         <f>EDATE(A323,1)</f>
         <v>40422</v>
@@ -11375,7 +11377,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="40"/>
       <c r="B326" s="20" t="s">
         <v>178</v>
@@ -11397,7 +11399,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="40"/>
       <c r="B327" s="20" t="s">
         <v>53</v>
@@ -11417,7 +11419,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="40"/>
       <c r="B328" s="20" t="s">
         <v>279</v>
@@ -11439,7 +11441,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="40">
         <f>EDATE(A325,1)</f>
         <v>40452</v>
@@ -11464,7 +11466,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="40">
         <f t="shared" si="13"/>
         <v>40483</v>
@@ -11489,7 +11491,7 @@
         <v>40402</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="40"/>
       <c r="B331" s="20" t="s">
         <v>281</v>
@@ -11511,7 +11513,7 @@
       <c r="J331" s="11"/>
       <c r="K331" s="20"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="40">
         <f>EDATE(A330,1)</f>
         <v>40513</v>
@@ -11536,7 +11538,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="48" t="s">
         <v>283</v>
       </c>
@@ -11554,7 +11556,7 @@
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="40">
         <v>40544</v>
       </c>
@@ -11578,7 +11580,7 @@
         <v>40878</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="40"/>
       <c r="B335" s="20" t="s">
         <v>45</v>
@@ -11600,7 +11602,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="40"/>
       <c r="B336" s="20"/>
       <c r="C336" s="13">
@@ -11618,7 +11620,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="40">
         <f>EDATE(A334,1)</f>
         <v>40575</v>
@@ -11643,7 +11645,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="40"/>
       <c r="B338" s="20"/>
       <c r="C338" s="13">
@@ -11661,7 +11663,7 @@
       <c r="J338" s="11"/>
       <c r="K338" s="20"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="40">
         <f>EDATE(A337,1)</f>
         <v>40603</v>
@@ -11686,7 +11688,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="40"/>
       <c r="B340" s="20"/>
       <c r="C340" s="13">
@@ -11704,7 +11706,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="40">
         <f>EDATE(A339,1)</f>
         <v>40634</v>
@@ -11729,7 +11731,7 @@
         <v>40547</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="40"/>
       <c r="B342" s="20" t="s">
         <v>48</v>
@@ -11751,7 +11753,7 @@
         <v>40667</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="40"/>
       <c r="B343" s="20" t="s">
         <v>48</v>
@@ -11773,7 +11775,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="40"/>
       <c r="B344" s="20" t="s">
         <v>53</v>
@@ -11793,7 +11795,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="40"/>
       <c r="B345" s="20"/>
       <c r="C345" s="13">
@@ -11811,7 +11813,7 @@
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="40">
         <f>EDATE(A341,1)</f>
         <v>40664</v>
@@ -11836,7 +11838,7 @@
         <v>40579</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="40"/>
       <c r="B347" s="20" t="s">
         <v>155</v>
@@ -11858,7 +11860,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="40"/>
       <c r="B348" s="20"/>
       <c r="C348" s="13">
@@ -11876,7 +11878,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="40">
         <f>EDATE(A346,1)</f>
         <v>40695</v>
@@ -11897,7 +11899,7 @@
       <c r="J349" s="11"/>
       <c r="K349" s="20"/>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="40">
         <f t="shared" ref="A350:A352" si="14">EDATE(A349,1)</f>
         <v>40725</v>
@@ -11918,7 +11920,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="40">
         <f t="shared" si="14"/>
         <v>40756</v>
@@ -11939,7 +11941,7 @@
       <c r="J351" s="11"/>
       <c r="K351" s="20"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="40">
         <f t="shared" si="14"/>
         <v>40787</v>
@@ -11964,7 +11966,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="40"/>
       <c r="B353" s="20" t="s">
         <v>178</v>
@@ -11986,7 +11988,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="40"/>
       <c r="B354" s="20" t="s">
         <v>53</v>
@@ -12006,7 +12008,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="40"/>
       <c r="B355" s="20" t="s">
         <v>53</v>
@@ -12026,7 +12028,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="40"/>
       <c r="B356" s="20" t="s">
         <v>45</v>
@@ -12048,7 +12050,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="40"/>
       <c r="B357" s="20"/>
       <c r="C357" s="13">
@@ -12066,7 +12068,7 @@
       <c r="J357" s="11"/>
       <c r="K357" s="20"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="40">
         <f>EDATE(A352,1)</f>
         <v>40817</v>
@@ -12091,7 +12093,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="40"/>
       <c r="B359" s="20"/>
       <c r="C359" s="13">
@@ -12109,7 +12111,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="40">
         <f>EDATE(A358,1)</f>
         <v>40848</v>
@@ -12130,7 +12132,7 @@
       <c r="J360" s="11"/>
       <c r="K360" s="20"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="40">
         <f>EDATE(A360,1)</f>
         <v>40878</v>
@@ -12155,7 +12157,7 @@
         <v>40555</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="40"/>
       <c r="B362" s="20" t="s">
         <v>180</v>
@@ -12177,7 +12179,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="40"/>
       <c r="B363" s="20" t="s">
         <v>297</v>
@@ -12195,7 +12197,7 @@
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="40"/>
       <c r="B364" s="20" t="s">
         <v>48</v>
@@ -12217,7 +12219,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="40"/>
       <c r="B365" s="20" t="s">
         <v>48</v>
@@ -12239,7 +12241,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="41"/>
       <c r="B366" s="15"/>
       <c r="C366" s="13">
@@ -12257,7 +12259,7 @@
       <c r="J366" s="12"/>
       <c r="K366" s="15"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="48" t="s">
         <v>300</v>
       </c>
@@ -12275,7 +12277,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="40">
         <v>40909</v>
       </c>
@@ -12299,7 +12301,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="40"/>
       <c r="B369" s="20" t="s">
         <v>48</v>
@@ -12321,7 +12323,7 @@
         <v>41183</v>
       </c>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="40"/>
       <c r="B370" s="20" t="s">
         <v>53</v>
@@ -12341,7 +12343,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="40"/>
       <c r="B371" s="20" t="s">
         <v>53</v>
@@ -12361,7 +12363,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="40"/>
       <c r="B372" s="20"/>
       <c r="C372" s="13">
@@ -12379,7 +12381,7 @@
       <c r="J372" s="11"/>
       <c r="K372" s="20"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="40">
         <f>EDATE(A368,1)</f>
         <v>40940</v>
@@ -12404,7 +12406,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="40"/>
       <c r="B374" s="20"/>
       <c r="C374" s="13">
@@ -12422,7 +12424,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="40">
         <f>EDATE(A373,1)</f>
         <v>40969</v>
@@ -12447,7 +12449,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="40"/>
       <c r="B376" s="20" t="s">
         <v>178</v>
@@ -12469,7 +12471,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="40"/>
       <c r="B377" s="20"/>
       <c r="C377" s="13">
@@ -12487,7 +12489,7 @@
       <c r="J377" s="11"/>
       <c r="K377" s="20"/>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="40">
         <f>EDATE(A375,1)</f>
         <v>41000</v>
@@ -12512,7 +12514,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="40"/>
       <c r="B379" s="20"/>
       <c r="C379" s="13">
@@ -12530,7 +12532,7 @@
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="40">
         <f>EDATE(A378,1)</f>
         <v>41030</v>
@@ -12555,7 +12557,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="40"/>
       <c r="B381" s="20" t="s">
         <v>60</v>
@@ -12577,7 +12579,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="40"/>
       <c r="B382" s="20" t="s">
         <v>48</v>
@@ -12599,7 +12601,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="40"/>
       <c r="B383" s="20" t="s">
         <v>48</v>
@@ -12621,7 +12623,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="40"/>
       <c r="B384" s="20"/>
       <c r="C384" s="13">
@@ -12639,7 +12641,7 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="40">
         <f>EDATE(A380,1)</f>
         <v>41061</v>
@@ -12662,7 +12664,7 @@
       <c r="J385" s="11"/>
       <c r="K385" s="20"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="40"/>
       <c r="B386" s="20" t="s">
         <v>180</v>
@@ -12684,7 +12686,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="40"/>
       <c r="B387" s="20" t="s">
         <v>53</v>
@@ -12704,7 +12706,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="40"/>
       <c r="B388" s="20"/>
       <c r="C388" s="13">
@@ -12722,7 +12724,7 @@
       <c r="J388" s="11"/>
       <c r="K388" s="20"/>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="40">
         <f>EDATE(A385,1)</f>
         <v>41091</v>
@@ -12743,7 +12745,7 @@
       <c r="J389" s="11"/>
       <c r="K389" s="20"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="40">
         <f t="shared" ref="A390:A392" si="15">EDATE(A389,1)</f>
         <v>41122</v>
@@ -12764,7 +12766,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="40">
         <f t="shared" si="15"/>
         <v>41153</v>
@@ -12785,7 +12787,7 @@
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="40">
         <f t="shared" si="15"/>
         <v>41183</v>
@@ -12810,7 +12812,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="40"/>
       <c r="B393" s="20" t="s">
         <v>48</v>
@@ -12832,7 +12834,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="40"/>
       <c r="B394" s="20"/>
       <c r="C394" s="13">
@@ -12850,7 +12852,7 @@
       <c r="J394" s="11"/>
       <c r="K394" s="20"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="40">
         <f>EDATE(A392,1)</f>
         <v>41214</v>
@@ -12875,7 +12877,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="40"/>
       <c r="B396" s="20"/>
       <c r="C396" s="13">
@@ -12893,7 +12895,7 @@
       <c r="J396" s="11"/>
       <c r="K396" s="20"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="40">
         <f>EDATE(A395,1)</f>
         <v>41244</v>
@@ -12918,7 +12920,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="40"/>
       <c r="B398" s="20"/>
       <c r="C398" s="13">
@@ -12936,7 +12938,7 @@
       <c r="J398" s="11"/>
       <c r="K398" s="20"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="48" t="s">
         <v>318</v>
       </c>
@@ -12954,7 +12956,7 @@
       <c r="J399" s="11"/>
       <c r="K399" s="20"/>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="41">
         <v>41275</v>
       </c>
@@ -12978,7 +12980,7 @@
         <v>41518</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="40"/>
       <c r="B401" s="20"/>
       <c r="C401" s="42">
@@ -12996,7 +12998,7 @@
       <c r="J401" s="11"/>
       <c r="K401" s="20"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="40">
         <f>EDATE(A400,1)</f>
         <v>41306</v>
@@ -13017,7 +13019,7 @@
       <c r="J402" s="11"/>
       <c r="K402" s="20"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="40">
         <f t="shared" ref="A403:A425" si="16">EDATE(A402,1)</f>
         <v>41334</v>
@@ -13042,7 +13044,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="40"/>
       <c r="B404" s="20" t="s">
         <v>48</v>
@@ -13064,7 +13066,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="40"/>
       <c r="B405" s="20" t="s">
         <v>48</v>
@@ -13086,7 +13088,7 @@
         <v>41368</v>
       </c>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="40"/>
       <c r="B406" s="20" t="s">
         <v>48</v>
@@ -13108,7 +13110,7 @@
       <c r="J406" s="11"/>
       <c r="K406" s="20"/>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="40">
         <f>EDATE(A403,1)</f>
         <v>41365</v>
@@ -13131,7 +13133,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="40"/>
       <c r="B408" s="20" t="s">
         <v>45</v>
@@ -13151,7 +13153,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="40"/>
       <c r="B409" s="20"/>
       <c r="C409" s="42">
@@ -13169,7 +13171,7 @@
       <c r="J409" s="11"/>
       <c r="K409" s="20"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="40">
         <f>EDATE(A407,1)</f>
         <v>41395</v>
@@ -13194,7 +13196,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="40"/>
       <c r="B411" s="20"/>
       <c r="C411" s="42">
@@ -13212,7 +13214,7 @@
       <c r="J411" s="11"/>
       <c r="K411" s="20"/>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="40">
         <f>EDATE(A410,1)</f>
         <v>41426</v>
@@ -13237,7 +13239,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="40"/>
       <c r="B413" s="20"/>
       <c r="C413" s="42">
@@ -13255,7 +13257,7 @@
       <c r="J413" s="11"/>
       <c r="K413" s="20"/>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="40">
         <f>EDATE(A412,1)</f>
         <v>41456</v>
@@ -13280,7 +13282,7 @@
         <v>41585</v>
       </c>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="40"/>
       <c r="B415" s="20"/>
       <c r="C415" s="42">
@@ -13298,7 +13300,7 @@
       <c r="J415" s="11"/>
       <c r="K415" s="20"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="40">
         <f>EDATE(A414,1)</f>
         <v>41487</v>
@@ -13319,7 +13321,7 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="40">
         <f t="shared" si="16"/>
         <v>41518</v>
@@ -13344,7 +13346,7 @@
         <v>41556</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="40"/>
       <c r="B418" s="20" t="s">
         <v>178</v>
@@ -13366,7 +13368,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="40"/>
       <c r="B419" s="20" t="s">
         <v>112</v>
@@ -13386,7 +13388,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="40"/>
       <c r="B420" s="20" t="s">
         <v>48</v>
@@ -13406,7 +13408,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="40"/>
       <c r="B421" s="20"/>
       <c r="C421" s="42">
@@ -13424,7 +13426,7 @@
       <c r="J421" s="11"/>
       <c r="K421" s="20"/>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="40">
         <f>EDATE(A417,1)</f>
         <v>41548</v>
@@ -13449,7 +13451,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="40"/>
       <c r="B423" s="20"/>
       <c r="C423" s="42">
@@ -13467,7 +13469,7 @@
       <c r="J423" s="11"/>
       <c r="K423" s="20"/>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="40">
         <f>EDATE(A422,1)</f>
         <v>41579</v>
@@ -13488,7 +13490,7 @@
       <c r="J424" s="11"/>
       <c r="K424" s="20"/>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="40">
         <f t="shared" si="16"/>
         <v>41609</v>
@@ -13513,7 +13515,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="40"/>
       <c r="B426" s="20" t="s">
         <v>187</v>
@@ -13535,7 +13537,7 @@
       <c r="J426" s="11"/>
       <c r="K426" s="20"/>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="48" t="s">
         <v>330</v>
       </c>
@@ -13553,7 +13555,7 @@
       <c r="J427" s="11"/>
       <c r="K427" s="20"/>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="40">
         <v>41640</v>
       </c>
@@ -13577,7 +13579,7 @@
         <v>41671</v>
       </c>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="40"/>
       <c r="B429" s="20" t="s">
         <v>187</v>
@@ -13597,7 +13599,7 @@
       <c r="J429" s="11"/>
       <c r="K429" s="20"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="40"/>
       <c r="B430" s="20" t="s">
         <v>45</v>
@@ -13619,7 +13621,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="40"/>
       <c r="B431" s="20"/>
       <c r="C431" s="13">
@@ -13637,7 +13639,7 @@
       <c r="J431" s="11"/>
       <c r="K431" s="20"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="40">
         <f>EDATE(A428,1)</f>
         <v>41671</v>
@@ -13658,7 +13660,7 @@
       <c r="J432" s="11"/>
       <c r="K432" s="20"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="40">
         <f t="shared" ref="A433:A447" si="17">EDATE(A432,1)</f>
         <v>41699</v>
@@ -13683,7 +13685,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="40"/>
       <c r="B434" s="20"/>
       <c r="C434" s="13">
@@ -13701,7 +13703,7 @@
       <c r="J434" s="11"/>
       <c r="K434" s="20"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="40">
         <f>EDATE(A433,1)</f>
         <v>41730</v>
@@ -13722,7 +13724,7 @@
       <c r="J435" s="11"/>
       <c r="K435" s="20"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="40">
         <f t="shared" si="17"/>
         <v>41760</v>
@@ -13745,7 +13747,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="40"/>
       <c r="B437" s="20" t="s">
         <v>48</v>
@@ -13767,7 +13769,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="40"/>
       <c r="B438" s="20" t="s">
         <v>112</v>
@@ -13787,7 +13789,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="40"/>
       <c r="B439" s="20" t="s">
         <v>45</v>
@@ -13809,7 +13811,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="40"/>
       <c r="B440" s="20" t="s">
         <v>337</v>
@@ -13831,7 +13833,7 @@
       <c r="J440" s="11"/>
       <c r="K440" s="20"/>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="40">
         <f>EDATE(A436,1)</f>
         <v>41791</v>
@@ -13856,7 +13858,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="40"/>
       <c r="B442" s="20"/>
       <c r="C442" s="13">
@@ -13874,7 +13876,7 @@
       <c r="J442" s="11"/>
       <c r="K442" s="20"/>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="40">
         <f>EDATE(A441,1)</f>
         <v>41821</v>
@@ -13899,7 +13901,7 @@
       <c r="J443" s="11"/>
       <c r="K443" s="20"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="40">
         <f t="shared" si="17"/>
         <v>41852</v>
@@ -13924,7 +13926,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="40"/>
       <c r="B445" s="20" t="s">
         <v>341</v>
@@ -13946,7 +13948,7 @@
       <c r="J445" s="11"/>
       <c r="K445" s="20"/>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="40">
         <f>EDATE(A444,1)</f>
         <v>41883</v>
@@ -13971,7 +13973,7 @@
       <c r="J446" s="11"/>
       <c r="K446" s="20"/>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="40">
         <f t="shared" si="17"/>
         <v>41913</v>
@@ -13996,7 +13998,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="40"/>
       <c r="B448" s="20" t="s">
         <v>187</v>
@@ -14018,7 +14020,7 @@
         <v>41861</v>
       </c>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="40"/>
       <c r="B449" s="20" t="s">
         <v>344</v>
@@ -14040,7 +14042,7 @@
       <c r="J449" s="11"/>
       <c r="K449" s="20"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="40">
         <f>EDATE(A447,1)</f>
         <v>41944</v>
@@ -14065,7 +14067,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="40"/>
       <c r="B451" s="20" t="s">
         <v>48</v>
@@ -14087,7 +14089,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="40"/>
       <c r="B452" s="20" t="s">
         <v>347</v>
@@ -14109,7 +14111,7 @@
       <c r="J452" s="11"/>
       <c r="K452" s="20"/>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="40">
         <f>EDATE(A450,1)</f>
         <v>41974</v>
@@ -14134,7 +14136,7 @@
       <c r="J453" s="11"/>
       <c r="K453" s="20"/>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="48" t="s">
         <v>349</v>
       </c>
@@ -14152,7 +14154,7 @@
       <c r="J454" s="11"/>
       <c r="K454" s="20"/>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="40">
         <v>42005</v>
       </c>
@@ -14176,7 +14178,7 @@
         <v>42248</v>
       </c>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="40"/>
       <c r="B456" s="20" t="s">
         <v>350</v>
@@ -14198,7 +14200,7 @@
       <c r="J456" s="11"/>
       <c r="K456" s="20"/>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" s="40">
         <f>EDATE(A455,1)</f>
         <v>42036</v>
@@ -14223,7 +14225,7 @@
       <c r="J457" s="11"/>
       <c r="K457" s="20"/>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="40">
         <f t="shared" ref="A458:A475" si="18">EDATE(A457,1)</f>
         <v>42064</v>
@@ -14244,7 +14246,7 @@
       <c r="J458" s="11"/>
       <c r="K458" s="20"/>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="40">
         <f t="shared" si="18"/>
         <v>42095</v>
@@ -14269,7 +14271,7 @@
         <v>42159</v>
       </c>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="40"/>
       <c r="B460" s="20" t="s">
         <v>48</v>
@@ -14291,7 +14293,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" s="40"/>
       <c r="B461" s="20" t="s">
         <v>353</v>
@@ -14313,7 +14315,7 @@
       <c r="J461" s="11"/>
       <c r="K461" s="20"/>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="40">
         <f>EDATE(A459,1)</f>
         <v>42125</v>
@@ -14338,7 +14340,7 @@
         <v>42129</v>
       </c>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" s="40"/>
       <c r="B463" s="20" t="s">
         <v>112</v>
@@ -14358,7 +14360,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" s="40"/>
       <c r="B464" s="20" t="s">
         <v>155</v>
@@ -14380,7 +14382,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" s="40"/>
       <c r="B465" s="20" t="s">
         <v>45</v>
@@ -14402,7 +14404,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" s="40"/>
       <c r="B466" s="20" t="s">
         <v>48</v>
@@ -14424,7 +14426,7 @@
         <v>42041</v>
       </c>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" s="40"/>
       <c r="B467" s="20" t="s">
         <v>357</v>
@@ -14444,7 +14446,7 @@
       <c r="J467" s="11"/>
       <c r="K467" s="20"/>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" s="40">
         <f>EDATE(A462,1)</f>
         <v>42156</v>
@@ -14469,7 +14471,7 @@
       <c r="J468" s="11"/>
       <c r="K468" s="20"/>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" s="40">
         <f t="shared" si="18"/>
         <v>42186</v>
@@ -14494,7 +14496,7 @@
       <c r="J469" s="11"/>
       <c r="K469" s="20"/>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" s="40">
         <f t="shared" si="18"/>
         <v>42217</v>
@@ -14519,7 +14521,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" s="40"/>
       <c r="B471" s="20" t="s">
         <v>361</v>
@@ -14541,7 +14543,7 @@
       <c r="J471" s="11"/>
       <c r="K471" s="20"/>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" s="40">
         <f>EDATE(A470,1)</f>
         <v>42248</v>
@@ -14566,7 +14568,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" s="40"/>
       <c r="B473" s="20" t="s">
         <v>363</v>
@@ -14588,7 +14590,7 @@
       <c r="J473" s="11"/>
       <c r="K473" s="20"/>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" s="40">
         <f>EDATE(A472,1)</f>
         <v>42278</v>
@@ -14613,7 +14615,7 @@
       <c r="J474" s="11"/>
       <c r="K474" s="20"/>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" s="40">
         <f t="shared" si="18"/>
         <v>42309</v>
@@ -14638,7 +14640,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" s="40"/>
       <c r="B476" s="20" t="s">
         <v>53</v>
@@ -14658,7 +14660,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" s="40"/>
       <c r="B477" s="20" t="s">
         <v>77</v>
@@ -14680,7 +14682,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" s="40"/>
       <c r="B478" s="20" t="s">
         <v>48</v>
@@ -14702,7 +14704,7 @@
         <v>42228</v>
       </c>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" s="40"/>
       <c r="B479" s="20" t="s">
         <v>48</v>
@@ -14724,7 +14726,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" s="40"/>
       <c r="B480" s="20" t="s">
         <v>369</v>
@@ -14746,7 +14748,7 @@
       <c r="J480" s="11"/>
       <c r="K480" s="20"/>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481" s="40">
         <f>EDATE(A475,1)</f>
         <v>42339</v>
@@ -14771,7 +14773,7 @@
       <c r="J481" s="11"/>
       <c r="K481" s="20"/>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482" s="48" t="s">
         <v>371</v>
       </c>
@@ -14789,7 +14791,7 @@
       <c r="J482" s="11"/>
       <c r="K482" s="20"/>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" s="40">
         <v>42370</v>
       </c>
@@ -14813,7 +14815,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" s="40"/>
       <c r="B484" s="20" t="s">
         <v>125</v>
@@ -14833,7 +14835,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" s="40"/>
       <c r="B485" s="20" t="s">
         <v>68</v>
@@ -14853,7 +14855,7 @@
       <c r="J485" s="11"/>
       <c r="K485" s="20"/>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" s="40"/>
       <c r="B486" s="20"/>
       <c r="C486" s="13">
@@ -14871,7 +14873,7 @@
       <c r="J486" s="11"/>
       <c r="K486" s="20"/>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A487" s="40">
         <f>EDATE(A483,1)</f>
         <v>42401</v>
@@ -14892,7 +14894,7 @@
       <c r="J487" s="11"/>
       <c r="K487" s="20"/>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A488" s="40">
         <f t="shared" ref="A488:A501" si="19">EDATE(A487,1)</f>
         <v>42430</v>
@@ -14913,7 +14915,7 @@
       <c r="J488" s="11"/>
       <c r="K488" s="20"/>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A489" s="40">
         <f t="shared" si="19"/>
         <v>42461</v>
@@ -14934,7 +14936,7 @@
       <c r="J489" s="11"/>
       <c r="K489" s="20"/>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490" s="40">
         <f t="shared" si="19"/>
         <v>42491</v>
@@ -14955,7 +14957,7 @@
       <c r="J490" s="11"/>
       <c r="K490" s="20"/>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A491" s="40">
         <f t="shared" si="19"/>
         <v>42522</v>
@@ -14976,7 +14978,7 @@
       <c r="J491" s="11"/>
       <c r="K491" s="20"/>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A492" s="40">
         <f t="shared" si="19"/>
         <v>42552</v>
@@ -14997,7 +14999,7 @@
       <c r="J492" s="11"/>
       <c r="K492" s="20"/>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" s="40">
         <f t="shared" si="19"/>
         <v>42583</v>
@@ -15022,7 +15024,7 @@
         <v>42590</v>
       </c>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A494" s="40"/>
       <c r="B494" s="20" t="s">
         <v>48</v>
@@ -15044,7 +15046,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A495" s="40"/>
       <c r="B495" s="20" t="s">
         <v>155</v>
@@ -15066,7 +15068,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A496" s="40"/>
       <c r="B496" s="20"/>
       <c r="C496" s="13">
@@ -15084,7 +15086,7 @@
       <c r="J496" s="11"/>
       <c r="K496" s="20"/>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A497" s="40">
         <f>EDATE(A493,1)</f>
         <v>42614</v>
@@ -15105,7 +15107,7 @@
       <c r="J497" s="11"/>
       <c r="K497" s="20"/>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498" s="40">
         <f t="shared" si="19"/>
         <v>42644</v>
@@ -15130,7 +15132,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A499" s="40"/>
       <c r="B499" s="20"/>
       <c r="C499" s="13">
@@ -15148,7 +15150,7 @@
       <c r="J499" s="11"/>
       <c r="K499" s="20"/>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A500" s="40">
         <f>EDATE(A498,1)</f>
         <v>42675</v>
@@ -15169,7 +15171,7 @@
       <c r="J500" s="11"/>
       <c r="K500" s="20"/>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A501" s="40">
         <f t="shared" si="19"/>
         <v>42705</v>
@@ -15194,7 +15196,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A502" s="40"/>
       <c r="B502" s="20"/>
       <c r="C502" s="13">
@@ -15212,7 +15214,7 @@
       <c r="J502" s="11"/>
       <c r="K502" s="20"/>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A503" s="52" t="s">
         <v>378</v>
       </c>
@@ -15230,7 +15232,7 @@
       <c r="J503" s="12"/>
       <c r="K503" s="15"/>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A504" s="40">
         <v>42736</v>
       </c>
@@ -15252,7 +15254,7 @@
       <c r="J504" s="11"/>
       <c r="K504" s="20"/>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A505" s="40"/>
       <c r="B505" s="20" t="s">
         <v>60</v>
@@ -15274,7 +15276,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A506" s="40"/>
       <c r="B506" s="20" t="s">
         <v>48</v>
@@ -15296,7 +15298,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A507" s="40"/>
       <c r="B507" s="20" t="s">
         <v>48</v>
@@ -15316,7 +15318,7 @@
       <c r="J507" s="11"/>
       <c r="K507" s="20"/>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A508" s="40"/>
       <c r="B508" s="20"/>
       <c r="C508" s="13">
@@ -15334,7 +15336,7 @@
       <c r="J508" s="11"/>
       <c r="K508" s="20"/>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A509" s="40">
         <f>EDATE(A504,1)</f>
         <v>42767</v>
@@ -15355,7 +15357,7 @@
       <c r="J509" s="11"/>
       <c r="K509" s="20"/>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A510" s="40">
         <f t="shared" ref="A510:A513" si="20">EDATE(A509,1)</f>
         <v>42795</v>
@@ -15380,7 +15382,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A511" s="40"/>
       <c r="B511" s="20"/>
       <c r="C511" s="13">
@@ -15398,7 +15400,7 @@
       <c r="J511" s="11"/>
       <c r="K511" s="20"/>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A512" s="40">
         <f>EDATE(A510,1)</f>
         <v>42826</v>
@@ -15419,7 +15421,7 @@
       <c r="J512" s="11"/>
       <c r="K512" s="20"/>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A513" s="40">
         <f t="shared" si="20"/>
         <v>42856</v>
@@ -15444,7 +15446,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A514" s="40"/>
       <c r="B514" s="20" t="s">
         <v>57</v>
@@ -15466,7 +15468,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A515" s="40"/>
       <c r="B515" s="20" t="s">
         <v>57</v>
@@ -15488,7 +15490,7 @@
         <v>42772</v>
       </c>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A516" s="40"/>
       <c r="B516" s="20" t="s">
         <v>45</v>
@@ -15510,7 +15512,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A517" s="40"/>
       <c r="B517" s="20"/>
       <c r="C517" s="13">
@@ -15528,7 +15530,7 @@
       <c r="J517" s="11"/>
       <c r="K517" s="20"/>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A518" s="40">
         <f>EDATE(A513,1)</f>
         <v>42887</v>
@@ -15553,7 +15555,7 @@
         <v>42984</v>
       </c>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A519" s="40"/>
       <c r="B519" s="20" t="s">
         <v>48</v>
@@ -15575,7 +15577,7 @@
         <v>42801</v>
       </c>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A520" s="40"/>
       <c r="B520" s="20"/>
       <c r="C520" s="13">
@@ -15593,7 +15595,7 @@
       <c r="J520" s="11"/>
       <c r="K520" s="20"/>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A521" s="40">
         <f>EDATE(A518,1)</f>
         <v>42917</v>
@@ -15618,7 +15620,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A522" s="40"/>
       <c r="B522" s="20" t="s">
         <v>45</v>
@@ -15640,7 +15642,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A523" s="40"/>
       <c r="B523" s="20" t="s">
         <v>48</v>
@@ -15662,7 +15664,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A524" s="40"/>
       <c r="B524" s="20"/>
       <c r="C524" s="13">
@@ -15680,7 +15682,7 @@
       <c r="J524" s="11"/>
       <c r="K524" s="20"/>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A525" s="40">
         <f>EDATE(A521,1)</f>
         <v>42948</v>
@@ -15701,7 +15703,7 @@
       <c r="J525" s="11"/>
       <c r="K525" s="20"/>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A526" s="40">
         <f>EDATE(A525,1)</f>
         <v>42979</v>
@@ -15726,7 +15728,7 @@
         <v>42834</v>
       </c>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A527" s="40"/>
       <c r="B527" s="20" t="s">
         <v>48</v>
@@ -15748,7 +15750,7 @@
         <v>42835</v>
       </c>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A528" s="40"/>
       <c r="B528" s="20" t="s">
         <v>48</v>
@@ -15770,7 +15772,7 @@
         <v>42777</v>
       </c>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A529" s="40"/>
       <c r="B529" s="20" t="s">
         <v>77</v>
@@ -15792,7 +15794,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A530" s="40"/>
       <c r="B530" s="20" t="s">
         <v>48</v>
@@ -15814,7 +15816,7 @@
         <v>42989</v>
       </c>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A531" s="40"/>
       <c r="B531" s="20"/>
       <c r="C531" s="13">
@@ -15832,7 +15834,7 @@
       <c r="J531" s="11"/>
       <c r="K531" s="20"/>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A532" s="40">
         <f>EDATE(A526,1)</f>
         <v>43009</v>
@@ -15853,7 +15855,7 @@
       <c r="J532" s="11"/>
       <c r="K532" s="20"/>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A533" s="40">
         <f>EDATE(A532,1)</f>
         <v>43040</v>
@@ -15878,7 +15880,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A534" s="40"/>
       <c r="B534" s="20"/>
       <c r="C534" s="13">
@@ -15896,7 +15898,7 @@
       <c r="J534" s="11"/>
       <c r="K534" s="20"/>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A535" s="40">
         <f>EDATE(A533,1)</f>
         <v>43070</v>
@@ -15921,7 +15923,7 @@
       <c r="J535" s="11"/>
       <c r="K535" s="20"/>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A536" s="48" t="s">
         <v>390</v>
       </c>
@@ -15939,7 +15941,7 @@
       <c r="J536" s="11"/>
       <c r="K536" s="20"/>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A537" s="40">
         <v>43101</v>
       </c>
@@ -15961,7 +15963,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A538" s="40"/>
       <c r="B538" s="20"/>
       <c r="C538" s="13">
@@ -15979,7 +15981,7 @@
       <c r="J538" s="11"/>
       <c r="K538" s="20"/>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A539" s="40">
         <f>EDATE(A537,1)</f>
         <v>43132</v>
@@ -16004,7 +16006,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A540" s="40"/>
       <c r="B540" s="20"/>
       <c r="C540" s="13">
@@ -16022,7 +16024,7 @@
       <c r="J540" s="11"/>
       <c r="K540" s="20"/>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A541" s="40">
         <f>EDATE(A539,1)</f>
         <v>43160</v>
@@ -16043,7 +16045,7 @@
       <c r="J541" s="11"/>
       <c r="K541" s="20"/>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A542" s="40">
         <f t="shared" ref="A542:A555" si="21">EDATE(A541,1)</f>
         <v>43191</v>
@@ -16068,7 +16070,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A543" s="40"/>
       <c r="B543" s="20" t="s">
         <v>48</v>
@@ -16090,7 +16092,7 @@
         <v>43378</v>
       </c>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A544" s="40"/>
       <c r="B544" s="20"/>
       <c r="C544" s="13">
@@ -16108,7 +16110,7 @@
       <c r="J544" s="11"/>
       <c r="K544" s="20"/>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A545" s="40">
         <f>EDATE(A542,1)</f>
         <v>43221</v>
@@ -16133,7 +16135,7 @@
       <c r="J545" s="11"/>
       <c r="K545" s="20"/>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A546" s="40">
         <f t="shared" si="21"/>
         <v>43252</v>
@@ -16156,7 +16158,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A547" s="40"/>
       <c r="B547" s="20" t="s">
         <v>48</v>
@@ -16178,7 +16180,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A548" s="40"/>
       <c r="B548" s="20" t="s">
         <v>48</v>
@@ -16200,7 +16202,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A549" s="40"/>
       <c r="B549" s="20" t="s">
         <v>398</v>
@@ -16222,7 +16224,7 @@
       <c r="J549" s="11"/>
       <c r="K549" s="20"/>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A550" s="40">
         <f>EDATE(A546,1)</f>
         <v>43282</v>
@@ -16247,7 +16249,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A551" s="40"/>
       <c r="B551" s="20" t="s">
         <v>53</v>
@@ -16269,7 +16271,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A552" s="40"/>
       <c r="B552" s="20" t="s">
         <v>401</v>
@@ -16291,7 +16293,7 @@
       <c r="J552" s="11"/>
       <c r="K552" s="20"/>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A553" s="40">
         <f>EDATE(A550,1)</f>
         <v>43313</v>
@@ -16316,7 +16318,7 @@
       <c r="J553" s="12"/>
       <c r="K553" s="15"/>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A554" s="40">
         <f t="shared" si="21"/>
         <v>43344</v>
@@ -16341,7 +16343,7 @@
       <c r="J554" s="11"/>
       <c r="K554" s="20"/>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A555" s="40">
         <f t="shared" si="21"/>
         <v>43374</v>
@@ -16366,7 +16368,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A556" s="40"/>
       <c r="B556" s="20" t="s">
         <v>68</v>
@@ -16388,7 +16390,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A557" s="40"/>
       <c r="B557" s="20"/>
       <c r="C557" s="13">
@@ -16406,7 +16408,7 @@
       <c r="J557" s="11"/>
       <c r="K557" s="20"/>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A558" s="40">
         <f>EDATE(A555,1)</f>
         <v>43405</v>
@@ -16427,7 +16429,7 @@
       <c r="J558" s="11"/>
       <c r="K558" s="20"/>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A559" s="40">
         <f>EDATE(A558,1)</f>
         <v>43435</v>
@@ -16452,7 +16454,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A560" s="40"/>
       <c r="B560" s="20"/>
       <c r="C560" s="13">
@@ -16470,7 +16472,7 @@
       <c r="J560" s="11"/>
       <c r="K560" s="20"/>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A561" s="48" t="s">
         <v>407</v>
       </c>
@@ -16488,7 +16490,7 @@
       <c r="J561" s="11"/>
       <c r="K561" s="20"/>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A562" s="40">
         <v>43466</v>
       </c>
@@ -16512,7 +16514,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A563" s="40"/>
       <c r="B563" s="20" t="s">
         <v>48</v>
@@ -16534,7 +16536,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A564" s="40"/>
       <c r="B564" s="20" t="s">
         <v>45</v>
@@ -16556,7 +16558,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A565" s="40"/>
       <c r="B565" s="20"/>
       <c r="C565" s="13">
@@ -16574,7 +16576,7 @@
       <c r="J565" s="11"/>
       <c r="K565" s="20"/>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A566" s="40">
         <f>EDATE(A562,1)</f>
         <v>43497</v>
@@ -16595,7 +16597,7 @@
       <c r="J566" s="11"/>
       <c r="K566" s="20"/>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A567" s="40">
         <f t="shared" ref="A567:A582" si="22">EDATE(A566,1)</f>
         <v>43525</v>
@@ -16616,7 +16618,7 @@
       <c r="J567" s="11"/>
       <c r="K567" s="20"/>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A568" s="40">
         <f t="shared" si="22"/>
         <v>43556</v>
@@ -16643,7 +16645,7 @@
         <v>43528</v>
       </c>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A569" s="40">
         <f t="shared" si="22"/>
         <v>43586</v>
@@ -16664,7 +16666,7 @@
       <c r="J569" s="11"/>
       <c r="K569" s="20"/>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A570" s="40">
         <f t="shared" si="22"/>
         <v>43617</v>
@@ -16689,7 +16691,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A571" s="40"/>
       <c r="B571" s="20"/>
       <c r="C571" s="13">
@@ -16707,7 +16709,7 @@
       <c r="J571" s="11"/>
       <c r="K571" s="20"/>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A572" s="40">
         <f>EDATE(A570,1)</f>
         <v>43647</v>
@@ -16728,7 +16730,7 @@
       <c r="J572" s="11"/>
       <c r="K572" s="20"/>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A573" s="40">
         <f t="shared" si="22"/>
         <v>43678</v>
@@ -16753,7 +16755,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A574" s="40"/>
       <c r="B574" s="20" t="s">
         <v>48</v>
@@ -16775,7 +16777,7 @@
         <v>43717</v>
       </c>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A575" s="40"/>
       <c r="B575" s="20"/>
       <c r="C575" s="13">
@@ -16793,7 +16795,7 @@
       <c r="J575" s="11"/>
       <c r="K575" s="20"/>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A576" s="40">
         <f>EDATE(A573,1)</f>
         <v>43709</v>
@@ -16818,7 +16820,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A577" s="40"/>
       <c r="B577" s="20" t="s">
         <v>112</v>
@@ -16838,7 +16840,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A578" s="40"/>
       <c r="B578" s="20" t="s">
         <v>51</v>
@@ -16860,7 +16862,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A579" s="40"/>
       <c r="B579" s="20"/>
       <c r="C579" s="13">
@@ -16878,7 +16880,7 @@
       <c r="J579" s="11"/>
       <c r="K579" s="20"/>
     </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A580" s="40">
         <f>EDATE(A576,1)</f>
         <v>43739</v>
@@ -16899,7 +16901,7 @@
       <c r="J580" s="11"/>
       <c r="K580" s="20"/>
     </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A581" s="40">
         <f t="shared" si="22"/>
         <v>43770</v>
@@ -16920,7 +16922,7 @@
       <c r="J581" s="11"/>
       <c r="K581" s="20"/>
     </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A582" s="40">
         <f t="shared" si="22"/>
         <v>43800</v>
@@ -16945,7 +16947,7 @@
         <v>43628</v>
       </c>
     </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A583" s="40"/>
       <c r="B583" s="20" t="s">
         <v>57</v>
@@ -16967,7 +16969,7 @@
         <v>43781</v>
       </c>
     </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A584" s="40"/>
       <c r="B584" s="20"/>
       <c r="C584" s="13">
@@ -16985,7 +16987,7 @@
       <c r="J584" s="11"/>
       <c r="K584" s="20"/>
     </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A585" s="48" t="s">
         <v>416</v>
       </c>
@@ -17003,7 +17005,7 @@
       <c r="J585" s="11"/>
       <c r="K585" s="20"/>
     </row>
-    <row r="586" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A586" s="40">
         <v>43831</v>
       </c>
@@ -17027,7 +17029,7 @@
         <v>44075</v>
       </c>
     </row>
-    <row r="587" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A587" s="40"/>
       <c r="B587" s="20" t="s">
         <v>417</v>
@@ -17047,7 +17049,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="588" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A588" s="40"/>
       <c r="B588" s="20"/>
       <c r="C588" s="13">
@@ -17065,7 +17067,7 @@
       <c r="J588" s="11"/>
       <c r="K588" s="20"/>
     </row>
-    <row r="589" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A589" s="40">
         <f>EDATE(A586,1)</f>
         <v>43862</v>
@@ -17086,7 +17088,7 @@
       <c r="J589" s="11"/>
       <c r="K589" s="20"/>
     </row>
-    <row r="590" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A590" s="40">
         <f t="shared" ref="A590:A600" si="23">EDATE(A589,1)</f>
         <v>43891</v>
@@ -17107,7 +17109,7 @@
       <c r="J590" s="11"/>
       <c r="K590" s="20"/>
     </row>
-    <row r="591" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A591" s="40">
         <f t="shared" si="23"/>
         <v>43922</v>
@@ -17128,7 +17130,7 @@
       <c r="J591" s="11"/>
       <c r="K591" s="20"/>
     </row>
-    <row r="592" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A592" s="40">
         <f t="shared" si="23"/>
         <v>43952</v>
@@ -17149,7 +17151,7 @@
       <c r="J592" s="11"/>
       <c r="K592" s="20"/>
     </row>
-    <row r="593" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A593" s="40">
         <f t="shared" si="23"/>
         <v>43983</v>
@@ -17170,7 +17172,7 @@
       <c r="J593" s="11"/>
       <c r="K593" s="20"/>
     </row>
-    <row r="594" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A594" s="40">
         <f t="shared" si="23"/>
         <v>44013</v>
@@ -17191,7 +17193,7 @@
       <c r="J594" s="11"/>
       <c r="K594" s="20"/>
     </row>
-    <row r="595" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A595" s="40">
         <f t="shared" si="23"/>
         <v>44044</v>
@@ -17212,7 +17214,7 @@
       <c r="J595" s="11"/>
       <c r="K595" s="20"/>
     </row>
-    <row r="596" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A596" s="40">
         <f t="shared" si="23"/>
         <v>44075</v>
@@ -17233,7 +17235,7 @@
       <c r="J596" s="11"/>
       <c r="K596" s="20"/>
     </row>
-    <row r="597" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A597" s="40">
         <f t="shared" si="23"/>
         <v>44105</v>
@@ -17256,7 +17258,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="598" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A598" s="40"/>
       <c r="B598" s="20"/>
       <c r="C598" s="13">
@@ -17274,7 +17276,7 @@
       <c r="J598" s="11"/>
       <c r="K598" s="20"/>
     </row>
-    <row r="599" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A599" s="40">
         <f>EDATE(A597,1)</f>
         <v>44136</v>
@@ -17295,7 +17297,7 @@
       <c r="J599" s="11"/>
       <c r="K599" s="20"/>
     </row>
-    <row r="600" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A600" s="40">
         <f t="shared" si="23"/>
         <v>44166</v>
@@ -17318,7 +17320,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="601" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A601" s="40"/>
       <c r="B601" s="20" t="s">
         <v>421</v>
@@ -17340,7 +17342,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="602" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A602" s="40"/>
       <c r="B602" s="20"/>
       <c r="C602" s="13">
@@ -17358,7 +17360,7 @@
       <c r="J602" s="11"/>
       <c r="K602" s="20"/>
     </row>
-    <row r="603" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A603" s="48" t="s">
         <v>423</v>
       </c>
@@ -17376,7 +17378,7 @@
       <c r="J603" s="11"/>
       <c r="K603" s="20"/>
     </row>
-    <row r="604" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A604" s="40">
         <v>44197</v>
       </c>
@@ -17396,7 +17398,7 @@
       <c r="J604" s="11"/>
       <c r="K604" s="20"/>
     </row>
-    <row r="605" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A605" s="40">
         <f>EDATE(A604,1)</f>
         <v>44228</v>
@@ -17417,7 +17419,7 @@
       <c r="J605" s="11"/>
       <c r="K605" s="20"/>
     </row>
-    <row r="606" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A606" s="40">
         <f t="shared" ref="A606:A617" si="24">EDATE(A605,1)</f>
         <v>44256</v>
@@ -17437,7 +17439,7 @@
       <c r="J606" s="11"/>
       <c r="K606" s="20"/>
     </row>
-    <row r="607" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A607" s="40"/>
       <c r="B607" s="20"/>
       <c r="C607" s="13">
@@ -17455,7 +17457,7 @@
       <c r="J607" s="11"/>
       <c r="K607" s="20"/>
     </row>
-    <row r="608" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A608" s="40">
         <f>EDATE(A606,1)</f>
         <v>44287</v>
@@ -17476,7 +17478,7 @@
       <c r="J608" s="11"/>
       <c r="K608" s="20"/>
     </row>
-    <row r="609" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A609" s="40">
         <f t="shared" si="24"/>
         <v>44317</v>
@@ -17497,7 +17499,7 @@
       <c r="J609" s="11"/>
       <c r="K609" s="20"/>
     </row>
-    <row r="610" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A610" s="40">
         <f t="shared" si="24"/>
         <v>44348</v>
@@ -17520,7 +17522,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="611" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A611" s="40"/>
       <c r="B611" s="20" t="s">
         <v>48</v>
@@ -17542,7 +17544,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="612" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A612" s="40"/>
       <c r="B612" s="20"/>
       <c r="C612" s="13">
@@ -17560,7 +17562,7 @@
       <c r="J612" s="11"/>
       <c r="K612" s="20"/>
     </row>
-    <row r="613" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A613" s="40">
         <f>EDATE(A610,1)</f>
         <v>44378</v>
@@ -17581,7 +17583,7 @@
       <c r="J613" s="11"/>
       <c r="K613" s="20"/>
     </row>
-    <row r="614" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A614" s="40">
         <f t="shared" si="24"/>
         <v>44409</v>
@@ -17602,7 +17604,7 @@
       <c r="J614" s="11"/>
       <c r="K614" s="20"/>
     </row>
-    <row r="615" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A615" s="40">
         <f t="shared" si="24"/>
         <v>44440</v>
@@ -17623,7 +17625,7 @@
       <c r="J615" s="11"/>
       <c r="K615" s="20"/>
     </row>
-    <row r="616" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A616" s="40">
         <f t="shared" si="24"/>
         <v>44470</v>
@@ -17644,7 +17646,7 @@
       <c r="J616" s="11"/>
       <c r="K616" s="20"/>
     </row>
-    <row r="617" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A617" s="40">
         <f t="shared" si="24"/>
         <v>44501</v>
@@ -17669,7 +17671,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="618" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A618" s="40"/>
       <c r="B618" s="20" t="s">
         <v>77</v>
@@ -17691,7 +17693,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="619" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A619" s="40"/>
       <c r="B619" s="20"/>
       <c r="C619" s="13">
@@ -17709,7 +17711,7 @@
       <c r="J619" s="11"/>
       <c r="K619" s="20"/>
     </row>
-    <row r="620" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A620" s="40">
         <f>EDATE(A617,1)</f>
         <v>44531</v>
@@ -17730,7 +17732,7 @@
       <c r="J620" s="11"/>
       <c r="K620" s="20"/>
     </row>
-    <row r="621" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A621" s="48" t="s">
         <v>428</v>
       </c>
@@ -17748,7 +17750,7 @@
       <c r="J621" s="11"/>
       <c r="K621" s="20"/>
     </row>
-    <row r="622" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A622" s="40">
         <v>44562</v>
       </c>
@@ -17768,7 +17770,7 @@
       <c r="J622" s="11"/>
       <c r="K622" s="20"/>
     </row>
-    <row r="623" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A623" s="40">
         <f>EDATE(A622,1)</f>
         <v>44593</v>
@@ -17789,7 +17791,7 @@
       <c r="J623" s="11"/>
       <c r="K623" s="20"/>
     </row>
-    <row r="624" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A624" s="40">
         <f t="shared" ref="A624:A638" si="25">EDATE(A623,1)</f>
         <v>44621</v>
@@ -17812,7 +17814,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="625" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A625" s="40"/>
       <c r="B625" s="20"/>
       <c r="C625" s="13">
@@ -17830,7 +17832,7 @@
       <c r="J625" s="11"/>
       <c r="K625" s="20"/>
     </row>
-    <row r="626" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A626" s="40">
         <f>EDATE(A624,1)</f>
         <v>44652</v>
@@ -17851,7 +17853,7 @@
       <c r="J626" s="11"/>
       <c r="K626" s="20"/>
     </row>
-    <row r="627" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A627" s="40">
         <f t="shared" si="25"/>
         <v>44682</v>
@@ -17872,7 +17874,7 @@
       <c r="J627" s="11"/>
       <c r="K627" s="20"/>
     </row>
-    <row r="628" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A628" s="40"/>
       <c r="B628" s="20" t="s">
         <v>48</v>
@@ -17894,7 +17896,7 @@
         <v>44597</v>
       </c>
     </row>
-    <row r="629" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A629" s="40"/>
       <c r="B629" s="20" t="s">
         <v>48</v>
@@ -17916,7 +17918,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="630" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A630" s="40"/>
       <c r="B630" s="20" t="s">
         <v>53</v>
@@ -17936,7 +17938,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="631" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A631" s="40">
         <f>EDATE(A627,1)</f>
         <v>44713</v>
@@ -17961,7 +17963,7 @@
         <v>44748</v>
       </c>
     </row>
-    <row r="632" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A632" s="40"/>
       <c r="B632" s="20" t="s">
         <v>48</v>
@@ -17983,7 +17985,7 @@
         <v>44748</v>
       </c>
     </row>
-    <row r="633" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A633" s="40"/>
       <c r="B633" s="20"/>
       <c r="C633" s="13">
@@ -18001,7 +18003,7 @@
       <c r="J633" s="11"/>
       <c r="K633" s="20"/>
     </row>
-    <row r="634" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A634" s="40">
         <f>EDATE(A631,1)</f>
         <v>44743</v>
@@ -18022,7 +18024,7 @@
       <c r="J634" s="11"/>
       <c r="K634" s="20"/>
     </row>
-    <row r="635" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A635" s="40">
         <f t="shared" si="25"/>
         <v>44774</v>
@@ -18047,7 +18049,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="636" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A636" s="40"/>
       <c r="B636" s="20"/>
       <c r="C636" s="13">
@@ -18065,7 +18067,7 @@
       <c r="J636" s="11"/>
       <c r="K636" s="20"/>
     </row>
-    <row r="637" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A637" s="40">
         <f>EDATE(A635,1)</f>
         <v>44805</v>
@@ -18086,7 +18088,7 @@
       <c r="J637" s="11"/>
       <c r="K637" s="20"/>
     </row>
-    <row r="638" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A638" s="40">
         <f t="shared" si="25"/>
         <v>44835</v>
@@ -18111,7 +18113,7 @@
         <v>44661</v>
       </c>
     </row>
-    <row r="639" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A639" s="40"/>
       <c r="B639" s="20" t="s">
         <v>434</v>
@@ -18135,7 +18137,7 @@
         <v>44844</v>
       </c>
     </row>
-    <row r="640" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A640" s="40"/>
       <c r="B640" s="20" t="s">
         <v>434</v>
@@ -18157,7 +18159,7 @@
         <v>44853</v>
       </c>
     </row>
-    <row r="641" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A641" s="40">
         <v>44866</v>
       </c>
@@ -18177,7 +18179,7 @@
       <c r="J641" s="11"/>
       <c r="K641" s="20"/>
     </row>
-    <row r="642" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A642" s="40">
         <v>44896</v>
       </c>
@@ -18203,7 +18205,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="643" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A643" s="48" t="s">
         <v>433</v>
       </c>
@@ -18221,7 +18223,7 @@
       <c r="J643" s="11"/>
       <c r="K643" s="20"/>
     </row>
-    <row r="644" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A644" s="40">
         <v>44927</v>
       </c>
@@ -18247,7 +18249,7 @@
         <v>44949</v>
       </c>
     </row>
-    <row r="645" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A645" s="40"/>
       <c r="B645" s="20" t="s">
         <v>437</v>
@@ -18269,7 +18271,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="646" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A646" s="40"/>
       <c r="B646" s="20" t="s">
         <v>434</v>
@@ -18291,7 +18293,7 @@
         <v>44944</v>
       </c>
     </row>
-    <row r="647" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A647" s="40">
         <v>44958</v>
       </c>
@@ -18315,47 +18317,53 @@
         <v>440</v>
       </c>
     </row>
-    <row r="648" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A648" s="40">
         <v>44986</v>
       </c>
       <c r="B648" s="20"/>
-      <c r="C648" s="13"/>
+      <c r="C648" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D648" s="39"/>
       <c r="E648" s="9"/>
       <c r="F648" s="20"/>
-      <c r="G648" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G648" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H648" s="39"/>
       <c r="I648" s="9"/>
       <c r="J648" s="11"/>
       <c r="K648" s="20"/>
     </row>
-    <row r="649" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A649" s="40">
         <v>45017</v>
       </c>
       <c r="B649" s="20"/>
-      <c r="C649" s="13"/>
+      <c r="C649" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D649" s="39"/>
       <c r="E649" s="9"/>
       <c r="F649" s="20"/>
-      <c r="G649" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G649" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H649" s="39"/>
       <c r="I649" s="9"/>
       <c r="J649" s="11"/>
       <c r="K649" s="20"/>
     </row>
-    <row r="650" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A650" s="40">
         <v>45047</v>
       </c>
-      <c r="B650" s="15"/>
+      <c r="B650" s="15" t="s">
+        <v>434</v>
+      </c>
       <c r="C650" s="42"/>
       <c r="D650" s="43"/>
       <c r="E650" s="51"/>
@@ -18364,16 +18372,22 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H650" s="43"/>
+      <c r="H650" s="43">
+        <v>1</v>
+      </c>
       <c r="I650" s="51"/>
       <c r="J650" s="12"/>
-      <c r="K650" s="15"/>
-    </row>
-    <row r="651" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K650" s="53">
+        <v>45044</v>
+      </c>
+    </row>
+    <row r="651" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A651" s="40">
         <v>45078</v>
       </c>
-      <c r="B651" s="20"/>
+      <c r="B651" s="20" t="s">
+        <v>441</v>
+      </c>
       <c r="C651" s="13"/>
       <c r="D651" s="39"/>
       <c r="E651" s="9"/>
@@ -18387,7 +18401,7 @@
       <c r="J651" s="11"/>
       <c r="K651" s="20"/>
     </row>
-    <row r="652" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A652" s="40">
         <v>45108</v>
       </c>
@@ -18405,7 +18419,7 @@
       <c r="J652" s="11"/>
       <c r="K652" s="20"/>
     </row>
-    <row r="653" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A653" s="40">
         <v>45139</v>
       </c>
@@ -18423,7 +18437,7 @@
       <c r="J653" s="11"/>
       <c r="K653" s="20"/>
     </row>
-    <row r="654" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A654" s="40">
         <v>45170</v>
       </c>
@@ -18441,7 +18455,7 @@
       <c r="J654" s="11"/>
       <c r="K654" s="20"/>
     </row>
-    <row r="655" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A655" s="40">
         <v>45200</v>
       </c>
@@ -18459,7 +18473,7 @@
       <c r="J655" s="11"/>
       <c r="K655" s="20"/>
     </row>
-    <row r="656" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A656" s="40">
         <v>45231</v>
       </c>
@@ -18477,7 +18491,7 @@
       <c r="J656" s="11"/>
       <c r="K656" s="20"/>
     </row>
-    <row r="657" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A657" s="40">
         <v>45261</v>
       </c>
@@ -18495,7 +18509,7 @@
       <c r="J657" s="11"/>
       <c r="K657" s="20"/>
     </row>
-    <row r="658" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A658" s="40">
         <v>45292</v>
       </c>
@@ -18513,7 +18527,7 @@
       <c r="J658" s="11"/>
       <c r="K658" s="20"/>
     </row>
-    <row r="659" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A659" s="40">
         <v>45323</v>
       </c>
@@ -18531,7 +18545,7 @@
       <c r="J659" s="11"/>
       <c r="K659" s="20"/>
     </row>
-    <row r="660" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A660" s="40">
         <v>45352</v>
       </c>
@@ -18549,7 +18563,7 @@
       <c r="J660" s="11"/>
       <c r="K660" s="20"/>
     </row>
-    <row r="661" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A661" s="40">
         <v>45383</v>
       </c>
@@ -18567,7 +18581,7 @@
       <c r="J661" s="11"/>
       <c r="K661" s="20"/>
     </row>
-    <row r="662" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A662" s="40">
         <v>45413</v>
       </c>
@@ -18585,7 +18599,7 @@
       <c r="J662" s="11"/>
       <c r="K662" s="20"/>
     </row>
-    <row r="663" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A663" s="40">
         <v>45444</v>
       </c>
@@ -18603,7 +18617,7 @@
       <c r="J663" s="11"/>
       <c r="K663" s="20"/>
     </row>
-    <row r="664" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A664" s="40">
         <v>45474</v>
       </c>
@@ -18621,7 +18635,7 @@
       <c r="J664" s="11"/>
       <c r="K664" s="20"/>
     </row>
-    <row r="665" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A665" s="40">
         <v>45505</v>
       </c>
@@ -18639,7 +18653,7 @@
       <c r="J665" s="11"/>
       <c r="K665" s="20"/>
     </row>
-    <row r="666" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A666" s="40">
         <v>45536</v>
       </c>
@@ -18657,7 +18671,7 @@
       <c r="J666" s="11"/>
       <c r="K666" s="20"/>
     </row>
-    <row r="667" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A667" s="40">
         <v>45566</v>
       </c>
@@ -18675,7 +18689,7 @@
       <c r="J667" s="11"/>
       <c r="K667" s="20"/>
     </row>
-    <row r="668" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A668" s="40">
         <v>45597</v>
       </c>
@@ -18693,7 +18707,7 @@
       <c r="J668" s="11"/>
       <c r="K668" s="20"/>
     </row>
-    <row r="669" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A669" s="40">
         <v>45627</v>
       </c>
@@ -18711,7 +18725,7 @@
       <c r="J669" s="11"/>
       <c r="K669" s="20"/>
     </row>
-    <row r="670" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A670" s="40">
         <v>45658</v>
       </c>
@@ -18729,7 +18743,7 @@
       <c r="J670" s="11"/>
       <c r="K670" s="20"/>
     </row>
-    <row r="671" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A671" s="40">
         <v>45689</v>
       </c>
@@ -18747,7 +18761,7 @@
       <c r="J671" s="11"/>
       <c r="K671" s="20"/>
     </row>
-    <row r="672" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A672" s="40">
         <v>45717</v>
       </c>
@@ -18765,7 +18779,7 @@
       <c r="J672" s="11"/>
       <c r="K672" s="20"/>
     </row>
-    <row r="673" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A673" s="40">
         <v>45748</v>
       </c>
@@ -18783,7 +18797,7 @@
       <c r="J673" s="11"/>
       <c r="K673" s="20"/>
     </row>
-    <row r="674" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A674" s="40">
         <v>45778</v>
       </c>
@@ -18801,7 +18815,7 @@
       <c r="J674" s="11"/>
       <c r="K674" s="20"/>
     </row>
-    <row r="675" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A675" s="40">
         <v>45809</v>
       </c>
@@ -18819,7 +18833,7 @@
       <c r="J675" s="11"/>
       <c r="K675" s="20"/>
     </row>
-    <row r="676" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A676" s="40">
         <v>45839</v>
       </c>
@@ -18837,7 +18851,7 @@
       <c r="J676" s="11"/>
       <c r="K676" s="20"/>
     </row>
-    <row r="677" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A677" s="40">
         <v>45870</v>
       </c>
@@ -18855,7 +18869,7 @@
       <c r="J677" s="11"/>
       <c r="K677" s="20"/>
     </row>
-    <row r="678" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A678" s="40">
         <v>45901</v>
       </c>
@@ -18873,7 +18887,7 @@
       <c r="J678" s="11"/>
       <c r="K678" s="20"/>
     </row>
-    <row r="679" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A679" s="40">
         <v>45931</v>
       </c>
@@ -18891,7 +18905,7 @@
       <c r="J679" s="11"/>
       <c r="K679" s="20"/>
     </row>
-    <row r="680" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A680" s="40">
         <v>45962</v>
       </c>
@@ -18909,7 +18923,7 @@
       <c r="J680" s="11"/>
       <c r="K680" s="20"/>
     </row>
-    <row r="681" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A681" s="40">
         <v>45992</v>
       </c>
@@ -18927,7 +18941,7 @@
       <c r="J681" s="11"/>
       <c r="K681" s="20"/>
     </row>
-    <row r="682" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A682" s="40">
         <v>46023</v>
       </c>
@@ -18945,7 +18959,7 @@
       <c r="J682" s="11"/>
       <c r="K682" s="20"/>
     </row>
-    <row r="683" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A683" s="40">
         <v>46054</v>
       </c>
@@ -18963,7 +18977,7 @@
       <c r="J683" s="11"/>
       <c r="K683" s="20"/>
     </row>
-    <row r="684" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A684" s="40">
         <v>46082</v>
       </c>
@@ -18981,7 +18995,7 @@
       <c r="J684" s="11"/>
       <c r="K684" s="20"/>
     </row>
-    <row r="685" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A685" s="40">
         <v>46113</v>
       </c>
@@ -18999,7 +19013,7 @@
       <c r="J685" s="11"/>
       <c r="K685" s="20"/>
     </row>
-    <row r="686" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A686" s="40">
         <v>46143</v>
       </c>
@@ -19017,7 +19031,7 @@
       <c r="J686" s="11"/>
       <c r="K686" s="20"/>
     </row>
-    <row r="687" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A687" s="40">
         <v>46174</v>
       </c>
@@ -19035,7 +19049,7 @@
       <c r="J687" s="11"/>
       <c r="K687" s="20"/>
     </row>
-    <row r="688" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A688" s="40">
         <v>46204</v>
       </c>
@@ -19053,7 +19067,7 @@
       <c r="J688" s="11"/>
       <c r="K688" s="20"/>
     </row>
-    <row r="689" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A689" s="40">
         <v>46235</v>
       </c>
@@ -19071,7 +19085,7 @@
       <c r="J689" s="11"/>
       <c r="K689" s="20"/>
     </row>
-    <row r="690" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A690" s="40">
         <v>46266</v>
       </c>
@@ -19089,7 +19103,7 @@
       <c r="J690" s="11"/>
       <c r="K690" s="20"/>
     </row>
-    <row r="691" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A691" s="40">
         <v>46296</v>
       </c>
@@ -19107,7 +19121,7 @@
       <c r="J691" s="11"/>
       <c r="K691" s="20"/>
     </row>
-    <row r="692" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A692" s="40">
         <v>46327</v>
       </c>
@@ -19125,7 +19139,7 @@
       <c r="J692" s="11"/>
       <c r="K692" s="20"/>
     </row>
-    <row r="693" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A693" s="40">
         <v>46357</v>
       </c>
@@ -19143,7 +19157,7 @@
       <c r="J693" s="11"/>
       <c r="K693" s="20"/>
     </row>
-    <row r="694" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A694" s="40">
         <v>46388</v>
       </c>
@@ -19161,7 +19175,7 @@
       <c r="J694" s="11"/>
       <c r="K694" s="20"/>
     </row>
-    <row r="695" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A695" s="40">
         <v>46419</v>
       </c>
@@ -19179,7 +19193,7 @@
       <c r="J695" s="11"/>
       <c r="K695" s="20"/>
     </row>
-    <row r="696" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A696" s="40">
         <v>46447</v>
       </c>
@@ -19197,7 +19211,7 @@
       <c r="J696" s="11"/>
       <c r="K696" s="20"/>
     </row>
-    <row r="697" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A697" s="40">
         <v>46478</v>
       </c>
@@ -19215,7 +19229,7 @@
       <c r="J697" s="11"/>
       <c r="K697" s="20"/>
     </row>
-    <row r="698" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A698" s="40">
         <v>46508</v>
       </c>
@@ -19233,7 +19247,7 @@
       <c r="J698" s="11"/>
       <c r="K698" s="20"/>
     </row>
-    <row r="699" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A699" s="40">
         <v>46539</v>
       </c>
@@ -19251,7 +19265,7 @@
       <c r="J699" s="11"/>
       <c r="K699" s="20"/>
     </row>
-    <row r="700" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A700" s="40">
         <v>46569</v>
       </c>
@@ -19269,7 +19283,7 @@
       <c r="J700" s="11"/>
       <c r="K700" s="20"/>
     </row>
-    <row r="701" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A701" s="40">
         <v>46600</v>
       </c>
@@ -19287,7 +19301,7 @@
       <c r="J701" s="11"/>
       <c r="K701" s="20"/>
     </row>
-    <row r="702" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A702" s="40">
         <v>46631</v>
       </c>
@@ -19305,7 +19319,7 @@
       <c r="J702" s="11"/>
       <c r="K702" s="20"/>
     </row>
-    <row r="703" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A703" s="40">
         <v>46661</v>
       </c>
@@ -19323,7 +19337,7 @@
       <c r="J703" s="11"/>
       <c r="K703" s="20"/>
     </row>
-    <row r="704" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A704" s="40">
         <v>46692</v>
       </c>
@@ -19341,7 +19355,7 @@
       <c r="J704" s="11"/>
       <c r="K704" s="20"/>
     </row>
-    <row r="705" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A705" s="40">
         <v>46722</v>
       </c>
@@ -19359,7 +19373,7 @@
       <c r="J705" s="11"/>
       <c r="K705" s="20"/>
     </row>
-    <row r="706" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A706" s="40">
         <v>46753</v>
       </c>
@@ -19377,7 +19391,7 @@
       <c r="J706" s="11"/>
       <c r="K706" s="20"/>
     </row>
-    <row r="707" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A707" s="40">
         <v>46784</v>
       </c>
@@ -19395,7 +19409,7 @@
       <c r="J707" s="11"/>
       <c r="K707" s="20"/>
     </row>
-    <row r="708" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A708" s="40">
         <v>46813</v>
       </c>
@@ -19413,7 +19427,7 @@
       <c r="J708" s="11"/>
       <c r="K708" s="20"/>
     </row>
-    <row r="709" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A709" s="40">
         <v>46844</v>
       </c>
@@ -19431,7 +19445,7 @@
       <c r="J709" s="11"/>
       <c r="K709" s="20"/>
     </row>
-    <row r="710" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A710" s="40">
         <v>46874</v>
       </c>
@@ -19449,7 +19463,7 @@
       <c r="J710" s="11"/>
       <c r="K710" s="20"/>
     </row>
-    <row r="711" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A711" s="40">
         <v>46905</v>
       </c>
@@ -19467,7 +19481,7 @@
       <c r="J711" s="11"/>
       <c r="K711" s="20"/>
     </row>
-    <row r="712" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A712" s="40">
         <v>46935</v>
       </c>
@@ -19485,7 +19499,7 @@
       <c r="J712" s="11"/>
       <c r="K712" s="20"/>
     </row>
-    <row r="713" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A713" s="40">
         <v>46966</v>
       </c>
@@ -19503,7 +19517,7 @@
       <c r="J713" s="11"/>
       <c r="K713" s="20"/>
     </row>
-    <row r="714" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A714" s="40">
         <v>46997</v>
       </c>
@@ -19521,7 +19535,7 @@
       <c r="J714" s="11"/>
       <c r="K714" s="20"/>
     </row>
-    <row r="715" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A715" s="40">
         <v>47027</v>
       </c>
@@ -19539,7 +19553,7 @@
       <c r="J715" s="11"/>
       <c r="K715" s="20"/>
     </row>
-    <row r="716" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A716" s="40">
         <v>47058</v>
       </c>
@@ -19557,7 +19571,7 @@
       <c r="J716" s="11"/>
       <c r="K716" s="20"/>
     </row>
-    <row r="717" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A717" s="40">
         <v>47088</v>
       </c>
@@ -19575,7 +19589,7 @@
       <c r="J717" s="11"/>
       <c r="K717" s="20"/>
     </row>
-    <row r="718" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A718" s="40">
         <v>47119</v>
       </c>
@@ -19593,7 +19607,7 @@
       <c r="J718" s="11"/>
       <c r="K718" s="20"/>
     </row>
-    <row r="719" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A719" s="40">
         <v>47150</v>
       </c>
@@ -19611,7 +19625,7 @@
       <c r="J719" s="11"/>
       <c r="K719" s="20"/>
     </row>
-    <row r="720" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A720" s="40">
         <v>47178</v>
       </c>
@@ -19629,7 +19643,7 @@
       <c r="J720" s="11"/>
       <c r="K720" s="20"/>
     </row>
-    <row r="721" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A721" s="40">
         <v>47209</v>
       </c>
@@ -19647,7 +19661,7 @@
       <c r="J721" s="11"/>
       <c r="K721" s="20"/>
     </row>
-    <row r="722" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A722" s="40">
         <v>47239</v>
       </c>
@@ -19665,7 +19679,7 @@
       <c r="J722" s="11"/>
       <c r="K722" s="20"/>
     </row>
-    <row r="723" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A723" s="40">
         <v>47270</v>
       </c>
@@ -19683,7 +19697,7 @@
       <c r="J723" s="11"/>
       <c r="K723" s="20"/>
     </row>
-    <row r="724" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A724" s="40">
         <v>47300</v>
       </c>
@@ -19701,7 +19715,7 @@
       <c r="J724" s="11"/>
       <c r="K724" s="20"/>
     </row>
-    <row r="725" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A725" s="40">
         <v>47331</v>
       </c>
@@ -19719,7 +19733,7 @@
       <c r="J725" s="11"/>
       <c r="K725" s="20"/>
     </row>
-    <row r="726" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A726" s="40">
         <v>47362</v>
       </c>
@@ -19737,7 +19751,7 @@
       <c r="J726" s="11"/>
       <c r="K726" s="20"/>
     </row>
-    <row r="727" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A727" s="40">
         <v>47392</v>
       </c>
@@ -19755,7 +19769,7 @@
       <c r="J727" s="11"/>
       <c r="K727" s="20"/>
     </row>
-    <row r="728" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A728" s="40">
         <v>47423</v>
       </c>
@@ -19773,7 +19787,7 @@
       <c r="J728" s="11"/>
       <c r="K728" s="20"/>
     </row>
-    <row r="729" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A729" s="40">
         <v>47453</v>
       </c>
@@ -19791,7 +19805,7 @@
       <c r="J729" s="11"/>
       <c r="K729" s="20"/>
     </row>
-    <row r="730" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A730" s="40">
         <v>47484</v>
       </c>
@@ -19809,7 +19823,7 @@
       <c r="J730" s="11"/>
       <c r="K730" s="20"/>
     </row>
-    <row r="731" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A731" s="40">
         <v>47515</v>
       </c>
@@ -19827,7 +19841,7 @@
       <c r="J731" s="11"/>
       <c r="K731" s="20"/>
     </row>
-    <row r="732" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A732" s="40">
         <v>47543</v>
       </c>
@@ -19845,7 +19859,7 @@
       <c r="J732" s="11"/>
       <c r="K732" s="20"/>
     </row>
-    <row r="733" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A733" s="40">
         <v>47574</v>
       </c>
@@ -19863,7 +19877,7 @@
       <c r="J733" s="11"/>
       <c r="K733" s="20"/>
     </row>
-    <row r="734" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A734" s="40">
         <v>47604</v>
       </c>
@@ -19881,7 +19895,7 @@
       <c r="J734" s="11"/>
       <c r="K734" s="20"/>
     </row>
-    <row r="735" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A735" s="40">
         <v>47635</v>
       </c>
@@ -19899,7 +19913,7 @@
       <c r="J735" s="11"/>
       <c r="K735" s="20"/>
     </row>
-    <row r="736" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A736" s="40">
         <v>47665</v>
       </c>
@@ -19917,7 +19931,7 @@
       <c r="J736" s="11"/>
       <c r="K736" s="20"/>
     </row>
-    <row r="737" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A737" s="40">
         <v>47696</v>
       </c>
@@ -19935,7 +19949,7 @@
       <c r="J737" s="11"/>
       <c r="K737" s="20"/>
     </row>
-    <row r="738" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A738" s="40">
         <v>47727</v>
       </c>
@@ -19953,7 +19967,7 @@
       <c r="J738" s="11"/>
       <c r="K738" s="20"/>
     </row>
-    <row r="739" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A739" s="40">
         <v>47757</v>
       </c>
@@ -19971,7 +19985,7 @@
       <c r="J739" s="11"/>
       <c r="K739" s="20"/>
     </row>
-    <row r="740" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A740" s="40">
         <v>47788</v>
       </c>
@@ -19989,7 +20003,7 @@
       <c r="J740" s="11"/>
       <c r="K740" s="20"/>
     </row>
-    <row r="741" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A741" s="40">
         <v>47818</v>
       </c>
@@ -20007,7 +20021,7 @@
       <c r="J741" s="11"/>
       <c r="K741" s="20"/>
     </row>
-    <row r="742" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A742" s="40">
         <v>47849</v>
       </c>
@@ -20025,7 +20039,7 @@
       <c r="J742" s="11"/>
       <c r="K742" s="20"/>
     </row>
-    <row r="743" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A743" s="40">
         <v>47880</v>
       </c>
@@ -20043,7 +20057,7 @@
       <c r="J743" s="11"/>
       <c r="K743" s="20"/>
     </row>
-    <row r="744" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A744" s="40">
         <v>47908</v>
       </c>
@@ -20061,7 +20075,7 @@
       <c r="J744" s="11"/>
       <c r="K744" s="20"/>
     </row>
-    <row r="745" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A745" s="40">
         <v>47939</v>
       </c>
@@ -20079,7 +20093,7 @@
       <c r="J745" s="11"/>
       <c r="K745" s="20"/>
     </row>
-    <row r="746" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A746" s="40">
         <v>47969</v>
       </c>
@@ -20097,7 +20111,7 @@
       <c r="J746" s="11"/>
       <c r="K746" s="20"/>
     </row>
-    <row r="747" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A747" s="40">
         <v>48000</v>
       </c>
@@ -20115,7 +20129,7 @@
       <c r="J747" s="11"/>
       <c r="K747" s="20"/>
     </row>
-    <row r="748" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A748" s="40">
         <v>48030</v>
       </c>
@@ -20133,7 +20147,7 @@
       <c r="J748" s="11"/>
       <c r="K748" s="20"/>
     </row>
-    <row r="749" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A749" s="40">
         <v>48061</v>
       </c>
@@ -20151,7 +20165,7 @@
       <c r="J749" s="11"/>
       <c r="K749" s="20"/>
     </row>
-    <row r="750" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A750" s="40">
         <v>48092</v>
       </c>
@@ -20169,7 +20183,7 @@
       <c r="J750" s="11"/>
       <c r="K750" s="20"/>
     </row>
-    <row r="751" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A751" s="40">
         <v>48122</v>
       </c>
@@ -20187,7 +20201,7 @@
       <c r="J751" s="11"/>
       <c r="K751" s="20"/>
     </row>
-    <row r="752" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A752" s="40">
         <v>48153</v>
       </c>
@@ -20205,7 +20219,7 @@
       <c r="J752" s="11"/>
       <c r="K752" s="20"/>
     </row>
-    <row r="753" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A753" s="40">
         <v>48183</v>
       </c>
@@ -20223,7 +20237,7 @@
       <c r="J753" s="11"/>
       <c r="K753" s="20"/>
     </row>
-    <row r="754" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A754" s="40">
         <v>48214</v>
       </c>
@@ -20241,7 +20255,7 @@
       <c r="J754" s="11"/>
       <c r="K754" s="20"/>
     </row>
-    <row r="755" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A755" s="40">
         <v>48245</v>
       </c>
@@ -20259,7 +20273,7 @@
       <c r="J755" s="11"/>
       <c r="K755" s="20"/>
     </row>
-    <row r="756" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A756" s="40">
         <v>48274</v>
       </c>
@@ -20277,7 +20291,7 @@
       <c r="J756" s="11"/>
       <c r="K756" s="20"/>
     </row>
-    <row r="757" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A757" s="40">
         <v>48305</v>
       </c>
@@ -20295,7 +20309,7 @@
       <c r="J757" s="11"/>
       <c r="K757" s="20"/>
     </row>
-    <row r="758" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A758" s="40">
         <v>48335</v>
       </c>
@@ -20313,7 +20327,7 @@
       <c r="J758" s="11"/>
       <c r="K758" s="20"/>
     </row>
-    <row r="759" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A759" s="40">
         <v>48366</v>
       </c>
@@ -20331,7 +20345,7 @@
       <c r="J759" s="11"/>
       <c r="K759" s="20"/>
     </row>
-    <row r="760" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A760" s="40">
         <v>48396</v>
       </c>
@@ -20349,7 +20363,7 @@
       <c r="J760" s="11"/>
       <c r="K760" s="20"/>
     </row>
-    <row r="761" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A761" s="40">
         <v>48427</v>
       </c>
@@ -20367,7 +20381,7 @@
       <c r="J761" s="11"/>
       <c r="K761" s="20"/>
     </row>
-    <row r="762" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A762" s="40">
         <v>48458</v>
       </c>
@@ -20399,11 +20413,11 @@
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="F4:G4"/>
   </mergeCells>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+  <dataValidations disablePrompts="1" count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -20426,7 +20440,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -20434,21 +20448,21 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.21875" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="66" t="s">
         <v>33</v>
       </c>
@@ -20461,7 +20475,7 @@
       <c r="K1" s="67"/>
       <c r="L1" s="67"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -20490,7 +20504,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3">
@@ -20516,17 +20530,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -20547,7 +20561,7 @@
       <c r="K6" s="67"/>
       <c r="L6" s="67"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -20574,7 +20588,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -20600,7 +20614,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -20626,7 +20640,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -20652,7 +20666,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -20678,7 +20692,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -20704,7 +20718,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -20730,7 +20744,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -20756,7 +20770,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -20776,7 +20790,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -20796,7 +20810,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -20816,7 +20830,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -20837,7 +20851,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -20858,7 +20872,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -20879,7 +20893,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -20900,7 +20914,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -20921,7 +20935,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -20942,7 +20956,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -20963,7 +20977,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -20984,7 +20998,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -21005,7 +21019,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -21026,7 +21040,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -21047,7 +21061,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -21068,7 +21082,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -21089,7 +21103,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -21110,7 +21124,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -21131,7 +21145,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -21152,7 +21166,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -21173,7 +21187,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -21194,7 +21208,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -21215,7 +21229,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -21236,7 +21250,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -21245,7 +21259,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -21254,7 +21268,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -21263,7 +21277,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -21272,7 +21286,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -21281,7 +21295,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -21290,7 +21304,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -21299,7 +21313,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -21308,7 +21322,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -21317,7 +21331,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -21326,7 +21340,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -21335,7 +21349,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -21344,7 +21358,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -21353,7 +21367,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -21362,7 +21376,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -21371,7 +21385,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -21380,7 +21394,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -21389,7 +21403,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -21398,7 +21412,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -21407,7 +21421,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -21416,7 +21430,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -21425,7 +21439,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -21434,7 +21448,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -21443,7 +21457,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -21452,7 +21466,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -21461,7 +21475,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -21470,7 +21484,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -21479,7 +21493,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -21488,7 +21502,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -21497,7 +21511,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/LANTING, AILEEN.xlsx
+++ b/REGULAR/LANTING, AILEEN.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="445">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1360,6 +1360,15 @@
   </si>
   <si>
     <t xml:space="preserve">                  </t>
+  </si>
+  <si>
+    <t>SL(3-0-0)</t>
+  </si>
+  <si>
+    <t>5/11,12,15/2023</t>
+  </si>
+  <si>
+    <t>5/8-10/2023</t>
   </si>
 </sst>
 </file>
@@ -3785,7 +3794,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K762" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K764" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -4163,12 +4172,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K762"/>
+  <dimension ref="A2:K764"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1890" topLeftCell="A630" activePane="bottomLeft"/>
+      <pane ySplit="1890" topLeftCell="A642" activePane="bottomLeft"/>
       <selection activeCell="C5" sqref="C5"/>
-      <selection pane="bottomLeft" activeCell="C652" sqref="C652"/>
+      <selection pane="bottomLeft" activeCell="B653" sqref="B653"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4335,7 +4344,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>117.25</v>
+        <v>111.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -18382,48 +18391,56 @@
       </c>
     </row>
     <row r="651" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A651" s="40">
-        <v>45078</v>
-      </c>
-      <c r="B651" s="20" t="s">
-        <v>441</v>
-      </c>
-      <c r="C651" s="13"/>
-      <c r="D651" s="39"/>
-      <c r="E651" s="9"/>
-      <c r="F651" s="20"/>
-      <c r="G651" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H651" s="39"/>
-      <c r="I651" s="9"/>
-      <c r="J651" s="11"/>
-      <c r="K651" s="20"/>
+      <c r="A651" s="40"/>
+      <c r="B651" s="15" t="s">
+        <v>442</v>
+      </c>
+      <c r="C651" s="42"/>
+      <c r="D651" s="43"/>
+      <c r="E651" s="51"/>
+      <c r="F651" s="15"/>
+      <c r="G651" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H651" s="43">
+        <v>3</v>
+      </c>
+      <c r="I651" s="51"/>
+      <c r="J651" s="12"/>
+      <c r="K651" s="53" t="s">
+        <v>443</v>
+      </c>
     </row>
     <row r="652" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A652" s="40">
-        <v>45108</v>
-      </c>
-      <c r="B652" s="20"/>
-      <c r="C652" s="13"/>
-      <c r="D652" s="39"/>
-      <c r="E652" s="9"/>
-      <c r="F652" s="20"/>
-      <c r="G652" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H652" s="39"/>
-      <c r="I652" s="9"/>
-      <c r="J652" s="11"/>
-      <c r="K652" s="20"/>
+      <c r="A652" s="40"/>
+      <c r="B652" s="15" t="s">
+        <v>442</v>
+      </c>
+      <c r="C652" s="42"/>
+      <c r="D652" s="43"/>
+      <c r="E652" s="51"/>
+      <c r="F652" s="15"/>
+      <c r="G652" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H652" s="43">
+        <v>3</v>
+      </c>
+      <c r="I652" s="51"/>
+      <c r="J652" s="12"/>
+      <c r="K652" s="53" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="653" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A653" s="40">
-        <v>45139</v>
-      </c>
-      <c r="B653" s="20"/>
+        <v>45078</v>
+      </c>
+      <c r="B653" s="20" t="s">
+        <v>441</v>
+      </c>
       <c r="C653" s="13"/>
       <c r="D653" s="39"/>
       <c r="E653" s="9"/>
@@ -18439,7 +18456,7 @@
     </row>
     <row r="654" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A654" s="40">
-        <v>45170</v>
+        <v>45108</v>
       </c>
       <c r="B654" s="20"/>
       <c r="C654" s="13"/>
@@ -18457,7 +18474,7 @@
     </row>
     <row r="655" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A655" s="40">
-        <v>45200</v>
+        <v>45139</v>
       </c>
       <c r="B655" s="20"/>
       <c r="C655" s="13"/>
@@ -18475,7 +18492,7 @@
     </row>
     <row r="656" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A656" s="40">
-        <v>45231</v>
+        <v>45170</v>
       </c>
       <c r="B656" s="20"/>
       <c r="C656" s="13"/>
@@ -18493,7 +18510,7 @@
     </row>
     <row r="657" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A657" s="40">
-        <v>45261</v>
+        <v>45200</v>
       </c>
       <c r="B657" s="20"/>
       <c r="C657" s="13"/>
@@ -18511,7 +18528,7 @@
     </row>
     <row r="658" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A658" s="40">
-        <v>45292</v>
+        <v>45231</v>
       </c>
       <c r="B658" s="20"/>
       <c r="C658" s="13"/>
@@ -18529,7 +18546,7 @@
     </row>
     <row r="659" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A659" s="40">
-        <v>45323</v>
+        <v>45261</v>
       </c>
       <c r="B659" s="20"/>
       <c r="C659" s="13"/>
@@ -18547,7 +18564,7 @@
     </row>
     <row r="660" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A660" s="40">
-        <v>45352</v>
+        <v>45292</v>
       </c>
       <c r="B660" s="20"/>
       <c r="C660" s="13"/>
@@ -18565,7 +18582,7 @@
     </row>
     <row r="661" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A661" s="40">
-        <v>45383</v>
+        <v>45323</v>
       </c>
       <c r="B661" s="20"/>
       <c r="C661" s="13"/>
@@ -18583,7 +18600,7 @@
     </row>
     <row r="662" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A662" s="40">
-        <v>45413</v>
+        <v>45352</v>
       </c>
       <c r="B662" s="20"/>
       <c r="C662" s="13"/>
@@ -18601,7 +18618,7 @@
     </row>
     <row r="663" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A663" s="40">
-        <v>45444</v>
+        <v>45383</v>
       </c>
       <c r="B663" s="20"/>
       <c r="C663" s="13"/>
@@ -18619,7 +18636,7 @@
     </row>
     <row r="664" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A664" s="40">
-        <v>45474</v>
+        <v>45413</v>
       </c>
       <c r="B664" s="20"/>
       <c r="C664" s="13"/>
@@ -18637,7 +18654,7 @@
     </row>
     <row r="665" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A665" s="40">
-        <v>45505</v>
+        <v>45444</v>
       </c>
       <c r="B665" s="20"/>
       <c r="C665" s="13"/>
@@ -18655,7 +18672,7 @@
     </row>
     <row r="666" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A666" s="40">
-        <v>45536</v>
+        <v>45474</v>
       </c>
       <c r="B666" s="20"/>
       <c r="C666" s="13"/>
@@ -18673,7 +18690,7 @@
     </row>
     <row r="667" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A667" s="40">
-        <v>45566</v>
+        <v>45505</v>
       </c>
       <c r="B667" s="20"/>
       <c r="C667" s="13"/>
@@ -18691,7 +18708,7 @@
     </row>
     <row r="668" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A668" s="40">
-        <v>45597</v>
+        <v>45536</v>
       </c>
       <c r="B668" s="20"/>
       <c r="C668" s="13"/>
@@ -18709,7 +18726,7 @@
     </row>
     <row r="669" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A669" s="40">
-        <v>45627</v>
+        <v>45566</v>
       </c>
       <c r="B669" s="20"/>
       <c r="C669" s="13"/>
@@ -18727,7 +18744,7 @@
     </row>
     <row r="670" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A670" s="40">
-        <v>45658</v>
+        <v>45597</v>
       </c>
       <c r="B670" s="20"/>
       <c r="C670" s="13"/>
@@ -18745,7 +18762,7 @@
     </row>
     <row r="671" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A671" s="40">
-        <v>45689</v>
+        <v>45627</v>
       </c>
       <c r="B671" s="20"/>
       <c r="C671" s="13"/>
@@ -18763,7 +18780,7 @@
     </row>
     <row r="672" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A672" s="40">
-        <v>45717</v>
+        <v>45658</v>
       </c>
       <c r="B672" s="20"/>
       <c r="C672" s="13"/>
@@ -18781,7 +18798,7 @@
     </row>
     <row r="673" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A673" s="40">
-        <v>45748</v>
+        <v>45689</v>
       </c>
       <c r="B673" s="20"/>
       <c r="C673" s="13"/>
@@ -18799,7 +18816,7 @@
     </row>
     <row r="674" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A674" s="40">
-        <v>45778</v>
+        <v>45717</v>
       </c>
       <c r="B674" s="20"/>
       <c r="C674" s="13"/>
@@ -18817,7 +18834,7 @@
     </row>
     <row r="675" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A675" s="40">
-        <v>45809</v>
+        <v>45748</v>
       </c>
       <c r="B675" s="20"/>
       <c r="C675" s="13"/>
@@ -18835,7 +18852,7 @@
     </row>
     <row r="676" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A676" s="40">
-        <v>45839</v>
+        <v>45778</v>
       </c>
       <c r="B676" s="20"/>
       <c r="C676" s="13"/>
@@ -18853,7 +18870,7 @@
     </row>
     <row r="677" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A677" s="40">
-        <v>45870</v>
+        <v>45809</v>
       </c>
       <c r="B677" s="20"/>
       <c r="C677" s="13"/>
@@ -18871,7 +18888,7 @@
     </row>
     <row r="678" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A678" s="40">
-        <v>45901</v>
+        <v>45839</v>
       </c>
       <c r="B678" s="20"/>
       <c r="C678" s="13"/>
@@ -18889,7 +18906,7 @@
     </row>
     <row r="679" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A679" s="40">
-        <v>45931</v>
+        <v>45870</v>
       </c>
       <c r="B679" s="20"/>
       <c r="C679" s="13"/>
@@ -18907,7 +18924,7 @@
     </row>
     <row r="680" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A680" s="40">
-        <v>45962</v>
+        <v>45901</v>
       </c>
       <c r="B680" s="20"/>
       <c r="C680" s="13"/>
@@ -18925,7 +18942,7 @@
     </row>
     <row r="681" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A681" s="40">
-        <v>45992</v>
+        <v>45931</v>
       </c>
       <c r="B681" s="20"/>
       <c r="C681" s="13"/>
@@ -18943,7 +18960,7 @@
     </row>
     <row r="682" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A682" s="40">
-        <v>46023</v>
+        <v>45962</v>
       </c>
       <c r="B682" s="20"/>
       <c r="C682" s="13"/>
@@ -18961,7 +18978,7 @@
     </row>
     <row r="683" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A683" s="40">
-        <v>46054</v>
+        <v>45992</v>
       </c>
       <c r="B683" s="20"/>
       <c r="C683" s="13"/>
@@ -18979,7 +18996,7 @@
     </row>
     <row r="684" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A684" s="40">
-        <v>46082</v>
+        <v>46023</v>
       </c>
       <c r="B684" s="20"/>
       <c r="C684" s="13"/>
@@ -18997,7 +19014,7 @@
     </row>
     <row r="685" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A685" s="40">
-        <v>46113</v>
+        <v>46054</v>
       </c>
       <c r="B685" s="20"/>
       <c r="C685" s="13"/>
@@ -19015,7 +19032,7 @@
     </row>
     <row r="686" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A686" s="40">
-        <v>46143</v>
+        <v>46082</v>
       </c>
       <c r="B686" s="20"/>
       <c r="C686" s="13"/>
@@ -19033,7 +19050,7 @@
     </row>
     <row r="687" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A687" s="40">
-        <v>46174</v>
+        <v>46113</v>
       </c>
       <c r="B687" s="20"/>
       <c r="C687" s="13"/>
@@ -19051,7 +19068,7 @@
     </row>
     <row r="688" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A688" s="40">
-        <v>46204</v>
+        <v>46143</v>
       </c>
       <c r="B688" s="20"/>
       <c r="C688" s="13"/>
@@ -19069,7 +19086,7 @@
     </row>
     <row r="689" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A689" s="40">
-        <v>46235</v>
+        <v>46174</v>
       </c>
       <c r="B689" s="20"/>
       <c r="C689" s="13"/>
@@ -19087,7 +19104,7 @@
     </row>
     <row r="690" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A690" s="40">
-        <v>46266</v>
+        <v>46204</v>
       </c>
       <c r="B690" s="20"/>
       <c r="C690" s="13"/>
@@ -19105,7 +19122,7 @@
     </row>
     <row r="691" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A691" s="40">
-        <v>46296</v>
+        <v>46235</v>
       </c>
       <c r="B691" s="20"/>
       <c r="C691" s="13"/>
@@ -19123,7 +19140,7 @@
     </row>
     <row r="692" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A692" s="40">
-        <v>46327</v>
+        <v>46266</v>
       </c>
       <c r="B692" s="20"/>
       <c r="C692" s="13"/>
@@ -19141,7 +19158,7 @@
     </row>
     <row r="693" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A693" s="40">
-        <v>46357</v>
+        <v>46296</v>
       </c>
       <c r="B693" s="20"/>
       <c r="C693" s="13"/>
@@ -19159,7 +19176,7 @@
     </row>
     <row r="694" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A694" s="40">
-        <v>46388</v>
+        <v>46327</v>
       </c>
       <c r="B694" s="20"/>
       <c r="C694" s="13"/>
@@ -19177,7 +19194,7 @@
     </row>
     <row r="695" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A695" s="40">
-        <v>46419</v>
+        <v>46357</v>
       </c>
       <c r="B695" s="20"/>
       <c r="C695" s="13"/>
@@ -19195,7 +19212,7 @@
     </row>
     <row r="696" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A696" s="40">
-        <v>46447</v>
+        <v>46388</v>
       </c>
       <c r="B696" s="20"/>
       <c r="C696" s="13"/>
@@ -19213,7 +19230,7 @@
     </row>
     <row r="697" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A697" s="40">
-        <v>46478</v>
+        <v>46419</v>
       </c>
       <c r="B697" s="20"/>
       <c r="C697" s="13"/>
@@ -19231,7 +19248,7 @@
     </row>
     <row r="698" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A698" s="40">
-        <v>46508</v>
+        <v>46447</v>
       </c>
       <c r="B698" s="20"/>
       <c r="C698" s="13"/>
@@ -19249,7 +19266,7 @@
     </row>
     <row r="699" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A699" s="40">
-        <v>46539</v>
+        <v>46478</v>
       </c>
       <c r="B699" s="20"/>
       <c r="C699" s="13"/>
@@ -19267,7 +19284,7 @@
     </row>
     <row r="700" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A700" s="40">
-        <v>46569</v>
+        <v>46508</v>
       </c>
       <c r="B700" s="20"/>
       <c r="C700" s="13"/>
@@ -19285,7 +19302,7 @@
     </row>
     <row r="701" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A701" s="40">
-        <v>46600</v>
+        <v>46539</v>
       </c>
       <c r="B701" s="20"/>
       <c r="C701" s="13"/>
@@ -19303,7 +19320,7 @@
     </row>
     <row r="702" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A702" s="40">
-        <v>46631</v>
+        <v>46569</v>
       </c>
       <c r="B702" s="20"/>
       <c r="C702" s="13"/>
@@ -19321,7 +19338,7 @@
     </row>
     <row r="703" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A703" s="40">
-        <v>46661</v>
+        <v>46600</v>
       </c>
       <c r="B703" s="20"/>
       <c r="C703" s="13"/>
@@ -19339,7 +19356,7 @@
     </row>
     <row r="704" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A704" s="40">
-        <v>46692</v>
+        <v>46631</v>
       </c>
       <c r="B704" s="20"/>
       <c r="C704" s="13"/>
@@ -19357,7 +19374,7 @@
     </row>
     <row r="705" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A705" s="40">
-        <v>46722</v>
+        <v>46661</v>
       </c>
       <c r="B705" s="20"/>
       <c r="C705" s="13"/>
@@ -19375,7 +19392,7 @@
     </row>
     <row r="706" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A706" s="40">
-        <v>46753</v>
+        <v>46692</v>
       </c>
       <c r="B706" s="20"/>
       <c r="C706" s="13"/>
@@ -19393,7 +19410,7 @@
     </row>
     <row r="707" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A707" s="40">
-        <v>46784</v>
+        <v>46722</v>
       </c>
       <c r="B707" s="20"/>
       <c r="C707" s="13"/>
@@ -19411,7 +19428,7 @@
     </row>
     <row r="708" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A708" s="40">
-        <v>46813</v>
+        <v>46753</v>
       </c>
       <c r="B708" s="20"/>
       <c r="C708" s="13"/>
@@ -19429,7 +19446,7 @@
     </row>
     <row r="709" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A709" s="40">
-        <v>46844</v>
+        <v>46784</v>
       </c>
       <c r="B709" s="20"/>
       <c r="C709" s="13"/>
@@ -19447,7 +19464,7 @@
     </row>
     <row r="710" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A710" s="40">
-        <v>46874</v>
+        <v>46813</v>
       </c>
       <c r="B710" s="20"/>
       <c r="C710" s="13"/>
@@ -19465,7 +19482,7 @@
     </row>
     <row r="711" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A711" s="40">
-        <v>46905</v>
+        <v>46844</v>
       </c>
       <c r="B711" s="20"/>
       <c r="C711" s="13"/>
@@ -19483,7 +19500,7 @@
     </row>
     <row r="712" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A712" s="40">
-        <v>46935</v>
+        <v>46874</v>
       </c>
       <c r="B712" s="20"/>
       <c r="C712" s="13"/>
@@ -19501,7 +19518,7 @@
     </row>
     <row r="713" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A713" s="40">
-        <v>46966</v>
+        <v>46905</v>
       </c>
       <c r="B713" s="20"/>
       <c r="C713" s="13"/>
@@ -19519,7 +19536,7 @@
     </row>
     <row r="714" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A714" s="40">
-        <v>46997</v>
+        <v>46935</v>
       </c>
       <c r="B714" s="20"/>
       <c r="C714" s="13"/>
@@ -19537,7 +19554,7 @@
     </row>
     <row r="715" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A715" s="40">
-        <v>47027</v>
+        <v>46966</v>
       </c>
       <c r="B715" s="20"/>
       <c r="C715" s="13"/>
@@ -19555,7 +19572,7 @@
     </row>
     <row r="716" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A716" s="40">
-        <v>47058</v>
+        <v>46997</v>
       </c>
       <c r="B716" s="20"/>
       <c r="C716" s="13"/>
@@ -19573,7 +19590,7 @@
     </row>
     <row r="717" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A717" s="40">
-        <v>47088</v>
+        <v>47027</v>
       </c>
       <c r="B717" s="20"/>
       <c r="C717" s="13"/>
@@ -19591,7 +19608,7 @@
     </row>
     <row r="718" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A718" s="40">
-        <v>47119</v>
+        <v>47058</v>
       </c>
       <c r="B718" s="20"/>
       <c r="C718" s="13"/>
@@ -19609,7 +19626,7 @@
     </row>
     <row r="719" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A719" s="40">
-        <v>47150</v>
+        <v>47088</v>
       </c>
       <c r="B719" s="20"/>
       <c r="C719" s="13"/>
@@ -19627,7 +19644,7 @@
     </row>
     <row r="720" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A720" s="40">
-        <v>47178</v>
+        <v>47119</v>
       </c>
       <c r="B720" s="20"/>
       <c r="C720" s="13"/>
@@ -19645,7 +19662,7 @@
     </row>
     <row r="721" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A721" s="40">
-        <v>47209</v>
+        <v>47150</v>
       </c>
       <c r="B721" s="20"/>
       <c r="C721" s="13"/>
@@ -19663,7 +19680,7 @@
     </row>
     <row r="722" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A722" s="40">
-        <v>47239</v>
+        <v>47178</v>
       </c>
       <c r="B722" s="20"/>
       <c r="C722" s="13"/>
@@ -19681,7 +19698,7 @@
     </row>
     <row r="723" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A723" s="40">
-        <v>47270</v>
+        <v>47209</v>
       </c>
       <c r="B723" s="20"/>
       <c r="C723" s="13"/>
@@ -19699,7 +19716,7 @@
     </row>
     <row r="724" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A724" s="40">
-        <v>47300</v>
+        <v>47239</v>
       </c>
       <c r="B724" s="20"/>
       <c r="C724" s="13"/>
@@ -19717,7 +19734,7 @@
     </row>
     <row r="725" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A725" s="40">
-        <v>47331</v>
+        <v>47270</v>
       </c>
       <c r="B725" s="20"/>
       <c r="C725" s="13"/>
@@ -19735,7 +19752,7 @@
     </row>
     <row r="726" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A726" s="40">
-        <v>47362</v>
+        <v>47300</v>
       </c>
       <c r="B726" s="20"/>
       <c r="C726" s="13"/>
@@ -19753,7 +19770,7 @@
     </row>
     <row r="727" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A727" s="40">
-        <v>47392</v>
+        <v>47331</v>
       </c>
       <c r="B727" s="20"/>
       <c r="C727" s="13"/>
@@ -19771,7 +19788,7 @@
     </row>
     <row r="728" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A728" s="40">
-        <v>47423</v>
+        <v>47362</v>
       </c>
       <c r="B728" s="20"/>
       <c r="C728" s="13"/>
@@ -19789,7 +19806,7 @@
     </row>
     <row r="729" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A729" s="40">
-        <v>47453</v>
+        <v>47392</v>
       </c>
       <c r="B729" s="20"/>
       <c r="C729" s="13"/>
@@ -19807,7 +19824,7 @@
     </row>
     <row r="730" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A730" s="40">
-        <v>47484</v>
+        <v>47423</v>
       </c>
       <c r="B730" s="20"/>
       <c r="C730" s="13"/>
@@ -19825,7 +19842,7 @@
     </row>
     <row r="731" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A731" s="40">
-        <v>47515</v>
+        <v>47453</v>
       </c>
       <c r="B731" s="20"/>
       <c r="C731" s="13"/>
@@ -19843,7 +19860,7 @@
     </row>
     <row r="732" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A732" s="40">
-        <v>47543</v>
+        <v>47484</v>
       </c>
       <c r="B732" s="20"/>
       <c r="C732" s="13"/>
@@ -19861,7 +19878,7 @@
     </row>
     <row r="733" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A733" s="40">
-        <v>47574</v>
+        <v>47515</v>
       </c>
       <c r="B733" s="20"/>
       <c r="C733" s="13"/>
@@ -19879,7 +19896,7 @@
     </row>
     <row r="734" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A734" s="40">
-        <v>47604</v>
+        <v>47543</v>
       </c>
       <c r="B734" s="20"/>
       <c r="C734" s="13"/>
@@ -19897,7 +19914,7 @@
     </row>
     <row r="735" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A735" s="40">
-        <v>47635</v>
+        <v>47574</v>
       </c>
       <c r="B735" s="20"/>
       <c r="C735" s="13"/>
@@ -19915,7 +19932,7 @@
     </row>
     <row r="736" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A736" s="40">
-        <v>47665</v>
+        <v>47604</v>
       </c>
       <c r="B736" s="20"/>
       <c r="C736" s="13"/>
@@ -19933,7 +19950,7 @@
     </row>
     <row r="737" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A737" s="40">
-        <v>47696</v>
+        <v>47635</v>
       </c>
       <c r="B737" s="20"/>
       <c r="C737" s="13"/>
@@ -19951,7 +19968,7 @@
     </row>
     <row r="738" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A738" s="40">
-        <v>47727</v>
+        <v>47665</v>
       </c>
       <c r="B738" s="20"/>
       <c r="C738" s="13"/>
@@ -19969,7 +19986,7 @@
     </row>
     <row r="739" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A739" s="40">
-        <v>47757</v>
+        <v>47696</v>
       </c>
       <c r="B739" s="20"/>
       <c r="C739" s="13"/>
@@ -19987,7 +20004,7 @@
     </row>
     <row r="740" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A740" s="40">
-        <v>47788</v>
+        <v>47727</v>
       </c>
       <c r="B740" s="20"/>
       <c r="C740" s="13"/>
@@ -20005,7 +20022,7 @@
     </row>
     <row r="741" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A741" s="40">
-        <v>47818</v>
+        <v>47757</v>
       </c>
       <c r="B741" s="20"/>
       <c r="C741" s="13"/>
@@ -20023,7 +20040,7 @@
     </row>
     <row r="742" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A742" s="40">
-        <v>47849</v>
+        <v>47788</v>
       </c>
       <c r="B742" s="20"/>
       <c r="C742" s="13"/>
@@ -20041,7 +20058,7 @@
     </row>
     <row r="743" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A743" s="40">
-        <v>47880</v>
+        <v>47818</v>
       </c>
       <c r="B743" s="20"/>
       <c r="C743" s="13"/>
@@ -20059,7 +20076,7 @@
     </row>
     <row r="744" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A744" s="40">
-        <v>47908</v>
+        <v>47849</v>
       </c>
       <c r="B744" s="20"/>
       <c r="C744" s="13"/>
@@ -20077,7 +20094,7 @@
     </row>
     <row r="745" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A745" s="40">
-        <v>47939</v>
+        <v>47880</v>
       </c>
       <c r="B745" s="20"/>
       <c r="C745" s="13"/>
@@ -20095,7 +20112,7 @@
     </row>
     <row r="746" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A746" s="40">
-        <v>47969</v>
+        <v>47908</v>
       </c>
       <c r="B746" s="20"/>
       <c r="C746" s="13"/>
@@ -20113,7 +20130,7 @@
     </row>
     <row r="747" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A747" s="40">
-        <v>48000</v>
+        <v>47939</v>
       </c>
       <c r="B747" s="20"/>
       <c r="C747" s="13"/>
@@ -20131,7 +20148,7 @@
     </row>
     <row r="748" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A748" s="40">
-        <v>48030</v>
+        <v>47969</v>
       </c>
       <c r="B748" s="20"/>
       <c r="C748" s="13"/>
@@ -20149,7 +20166,7 @@
     </row>
     <row r="749" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A749" s="40">
-        <v>48061</v>
+        <v>48000</v>
       </c>
       <c r="B749" s="20"/>
       <c r="C749" s="13"/>
@@ -20167,7 +20184,7 @@
     </row>
     <row r="750" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A750" s="40">
-        <v>48092</v>
+        <v>48030</v>
       </c>
       <c r="B750" s="20"/>
       <c r="C750" s="13"/>
@@ -20185,7 +20202,7 @@
     </row>
     <row r="751" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A751" s="40">
-        <v>48122</v>
+        <v>48061</v>
       </c>
       <c r="B751" s="20"/>
       <c r="C751" s="13"/>
@@ -20203,7 +20220,7 @@
     </row>
     <row r="752" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A752" s="40">
-        <v>48153</v>
+        <v>48092</v>
       </c>
       <c r="B752" s="20"/>
       <c r="C752" s="13"/>
@@ -20221,7 +20238,7 @@
     </row>
     <row r="753" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A753" s="40">
-        <v>48183</v>
+        <v>48122</v>
       </c>
       <c r="B753" s="20"/>
       <c r="C753" s="13"/>
@@ -20239,7 +20256,7 @@
     </row>
     <row r="754" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A754" s="40">
-        <v>48214</v>
+        <v>48153</v>
       </c>
       <c r="B754" s="20"/>
       <c r="C754" s="13"/>
@@ -20257,7 +20274,7 @@
     </row>
     <row r="755" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A755" s="40">
-        <v>48245</v>
+        <v>48183</v>
       </c>
       <c r="B755" s="20"/>
       <c r="C755" s="13"/>
@@ -20275,7 +20292,7 @@
     </row>
     <row r="756" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A756" s="40">
-        <v>48274</v>
+        <v>48214</v>
       </c>
       <c r="B756" s="20"/>
       <c r="C756" s="13"/>
@@ -20293,7 +20310,7 @@
     </row>
     <row r="757" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A757" s="40">
-        <v>48305</v>
+        <v>48245</v>
       </c>
       <c r="B757" s="20"/>
       <c r="C757" s="13"/>
@@ -20311,7 +20328,7 @@
     </row>
     <row r="758" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A758" s="40">
-        <v>48335</v>
+        <v>48274</v>
       </c>
       <c r="B758" s="20"/>
       <c r="C758" s="13"/>
@@ -20329,7 +20346,7 @@
     </row>
     <row r="759" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A759" s="40">
-        <v>48366</v>
+        <v>48305</v>
       </c>
       <c r="B759" s="20"/>
       <c r="C759" s="13"/>
@@ -20347,7 +20364,7 @@
     </row>
     <row r="760" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A760" s="40">
-        <v>48396</v>
+        <v>48335</v>
       </c>
       <c r="B760" s="20"/>
       <c r="C760" s="13"/>
@@ -20365,7 +20382,7 @@
     </row>
     <row r="761" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A761" s="40">
-        <v>48427</v>
+        <v>48366</v>
       </c>
       <c r="B761" s="20"/>
       <c r="C761" s="13"/>
@@ -20383,7 +20400,7 @@
     </row>
     <row r="762" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A762" s="40">
-        <v>48458</v>
+        <v>48396</v>
       </c>
       <c r="B762" s="20"/>
       <c r="C762" s="13"/>
@@ -20398,6 +20415,42 @@
       <c r="I762" s="9"/>
       <c r="J762" s="11"/>
       <c r="K762" s="20"/>
+    </row>
+    <row r="763" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A763" s="40">
+        <v>48427</v>
+      </c>
+      <c r="B763" s="20"/>
+      <c r="C763" s="13"/>
+      <c r="D763" s="39"/>
+      <c r="E763" s="9"/>
+      <c r="F763" s="20"/>
+      <c r="G763" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H763" s="39"/>
+      <c r="I763" s="9"/>
+      <c r="J763" s="11"/>
+      <c r="K763" s="20"/>
+    </row>
+    <row r="764" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A764" s="40">
+        <v>48458</v>
+      </c>
+      <c r="B764" s="20"/>
+      <c r="C764" s="13"/>
+      <c r="D764" s="39"/>
+      <c r="E764" s="9"/>
+      <c r="F764" s="20"/>
+      <c r="G764" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H764" s="39"/>
+      <c r="I764" s="9"/>
+      <c r="J764" s="11"/>
+      <c r="K764" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/REGULAR/LANTING, AILEEN.xlsx
+++ b/REGULAR/LANTING, AILEEN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DAF994D-57D5-4ED2-B36A-5C56BBAF2061}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -24,7 +25,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="450">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1359,9 +1360,6 @@
     <t>2/21-23/2023</t>
   </si>
   <si>
-    <t xml:space="preserve">                  </t>
-  </si>
-  <si>
     <t>SL(3-0-0)</t>
   </si>
   <si>
@@ -1369,12 +1367,30 @@
   </si>
   <si>
     <t>5/8-10/2023</t>
+  </si>
+  <si>
+    <t>SL(4-0-0)</t>
+  </si>
+  <si>
+    <t>5/16-19/2023</t>
+  </si>
+  <si>
+    <t>5/22,23/2023</t>
+  </si>
+  <si>
+    <t>VL(3-0-0)</t>
+  </si>
+  <si>
+    <t>6/13-15/2023</t>
+  </si>
+  <si>
+    <t>6/1,2/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -2259,7 +2275,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2302,7 +2318,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2366,7 +2382,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2426,7 +2442,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2492,7 +2508,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2555,7 +2571,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2653,7 +2669,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2712,7 +2728,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2777,7 +2793,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2820,7 +2836,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2895,7 +2911,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3081,7 +3097,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3147,7 +3163,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3205,7 +3221,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3271,7 +3287,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3327,7 +3343,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3402,7 +3418,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3445,7 +3461,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3511,7 +3527,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3567,7 +3583,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3665,7 +3681,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3728,7 +3744,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3777,7 +3793,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -3794,25 +3810,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K764" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K767" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3824,13 +3840,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="DAYS"/>
-    <tableColumn id="2" name="HOURS"/>
-    <tableColumn id="3" name="MINUTES"/>
-    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3839,14 +3855,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4150,7 +4166,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -4160,7 +4176,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4168,34 +4184,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K764"/>
+  <dimension ref="A2:K767"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1890" topLeftCell="A642" activePane="bottomLeft"/>
+      <pane ySplit="1896" topLeftCell="A642" activePane="bottomLeft"/>
       <selection activeCell="C5" sqref="C5"/>
-      <selection pane="bottomLeft" activeCell="B653" sqref="B653"/>
+      <selection pane="bottomLeft" activeCell="B658" sqref="B658"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -4216,7 +4232,7 @@
       <c r="J2" s="58"/>
       <c r="K2" s="59"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -4234,7 +4250,7 @@
       <c r="J3" s="60"/>
       <c r="K3" s="61"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -4252,7 +4268,7 @@
       <c r="J4" s="62"/>
       <c r="K4" s="63"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -4260,7 +4276,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -4273,7 +4289,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="56" t="s">
@@ -4290,7 +4306,7 @@
       <c r="J7" s="56"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -4325,7 +4341,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -4334,7 +4350,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>117.68700000000007</v>
+        <v>115.93700000000007</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4344,12 +4360,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>111.25</v>
+        <v>104.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>43</v>
       </c>
@@ -4371,7 +4387,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>36069</v>
       </c>
@@ -4391,7 +4407,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <f>EDATE(A11,1)</f>
         <v>36100</v>
@@ -4412,7 +4428,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <f>EDATE(A12,1)</f>
         <v>36130</v>
@@ -4433,7 +4449,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="48" t="s">
         <v>44</v>
       </c>
@@ -4451,7 +4467,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>35431</v>
       </c>
@@ -4471,7 +4487,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="41">
         <f>EDATE(A15,1)</f>
         <v>35462</v>
@@ -4492,7 +4508,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="41">
         <f t="shared" ref="A17:A22" si="0">EDATE(A16,1)</f>
         <v>35490</v>
@@ -4517,7 +4533,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40"/>
       <c r="B18" s="20"/>
       <c r="C18" s="13">
@@ -4535,7 +4551,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="41">
         <f>EDATE(A17,1)</f>
         <v>35521</v>
@@ -4556,7 +4572,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="41">
         <f t="shared" si="0"/>
         <v>35551</v>
@@ -4577,7 +4593,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="41">
         <f t="shared" si="0"/>
         <v>35582</v>
@@ -4598,7 +4614,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="41">
         <f t="shared" si="0"/>
         <v>35612</v>
@@ -4623,7 +4639,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40"/>
       <c r="B23" s="20"/>
       <c r="C23" s="13">
@@ -4641,7 +4657,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="41">
         <f>EDATE(A22,1)</f>
         <v>35643</v>
@@ -4666,7 +4682,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40"/>
       <c r="B25" s="20"/>
       <c r="C25" s="13">
@@ -4684,7 +4700,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="41">
         <f>EDATE(A24,1)</f>
         <v>35674</v>
@@ -4709,7 +4725,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40"/>
       <c r="B27" s="20" t="s">
         <v>51</v>
@@ -4731,7 +4747,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40"/>
       <c r="B28" s="20"/>
       <c r="C28" s="13">
@@ -4749,7 +4765,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="41">
         <f>EDATE(A26,1)</f>
         <v>35704</v>
@@ -4772,7 +4788,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40"/>
       <c r="B30" s="20" t="s">
         <v>48</v>
@@ -4794,7 +4810,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40"/>
       <c r="B31" s="20"/>
       <c r="C31" s="13">
@@ -4812,7 +4828,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="41">
         <f>EDATE(A29,1)</f>
         <v>35735</v>
@@ -4835,7 +4851,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40"/>
       <c r="B33" s="20" t="s">
         <v>48</v>
@@ -4857,7 +4873,7 @@
         <v>35622</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40"/>
       <c r="B34" s="20"/>
       <c r="C34" s="13">
@@ -4875,7 +4891,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="41">
         <f>EDATE(A32,1)</f>
         <v>35765</v>
@@ -4900,7 +4916,7 @@
         <v>35654</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40"/>
       <c r="B36" s="20" t="s">
         <v>58</v>
@@ -4922,7 +4938,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="48" t="s">
         <v>59</v>
       </c>
@@ -4940,7 +4956,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <v>35796</v>
       </c>
@@ -4964,7 +4980,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40"/>
       <c r="B39" s="20" t="s">
         <v>61</v>
@@ -4986,7 +5002,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
         <f>EDATE(A38,1)</f>
         <v>35827</v>
@@ -5011,7 +5027,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40"/>
       <c r="B41" s="20" t="s">
         <v>65</v>
@@ -5033,7 +5049,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
         <f>EDATE(A40,1)</f>
         <v>35855</v>
@@ -5058,7 +5074,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40"/>
       <c r="B43" s="20" t="s">
         <v>57</v>
@@ -5080,7 +5096,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40"/>
       <c r="B44" s="20"/>
       <c r="C44" s="13">
@@ -5098,7 +5114,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
         <f>EDATE(A42,1)</f>
         <v>35886</v>
@@ -5123,7 +5139,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40"/>
       <c r="B46" s="20" t="s">
         <v>57</v>
@@ -5145,7 +5161,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40"/>
       <c r="B47" s="20" t="s">
         <v>71</v>
@@ -5167,7 +5183,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
         <f>EDATE(A45,1)</f>
         <v>35916</v>
@@ -5192,7 +5208,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40">
         <f t="shared" ref="A49:A59" si="1">EDATE(A48,1)</f>
         <v>35947</v>
@@ -5213,7 +5229,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
         <f t="shared" si="1"/>
         <v>35977</v>
@@ -5240,7 +5256,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40"/>
       <c r="B51" s="20" t="s">
         <v>74</v>
@@ -5260,7 +5276,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
         <f>EDATE(A50,1)</f>
         <v>36008</v>
@@ -5285,7 +5301,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40"/>
       <c r="B53" s="20" t="s">
         <v>76</v>
@@ -5307,7 +5323,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
         <f>EDATE(A52,1)</f>
         <v>36039</v>
@@ -5328,7 +5344,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
         <f t="shared" si="1"/>
         <v>36069</v>
@@ -5353,7 +5369,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40"/>
       <c r="B56" s="20" t="s">
         <v>53</v>
@@ -5373,7 +5389,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40"/>
       <c r="B57" s="20" t="s">
         <v>79</v>
@@ -5395,7 +5411,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
         <f>EDATE(A55,1)</f>
         <v>36100</v>
@@ -5420,7 +5436,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
         <f t="shared" si="1"/>
         <v>36130</v>
@@ -5445,7 +5461,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40"/>
       <c r="B60" s="20" t="s">
         <v>83</v>
@@ -5467,7 +5483,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="48" t="s">
         <v>84</v>
       </c>
@@ -5485,7 +5501,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40">
         <v>36161</v>
       </c>
@@ -5509,7 +5525,7 @@
         <v>36373</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40"/>
       <c r="B63" s="20" t="s">
         <v>85</v>
@@ -5531,7 +5547,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
         <f>EDATE(A62,1)</f>
         <v>36192</v>
@@ -5556,7 +5572,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
         <f t="shared" ref="A65:A84" si="2">EDATE(A64,1)</f>
         <v>36220</v>
@@ -5581,7 +5597,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
         <f t="shared" si="2"/>
         <v>36251</v>
@@ -5606,7 +5622,7 @@
         <v>36498</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40"/>
       <c r="B67" s="20" t="s">
         <v>88</v>
@@ -5628,7 +5644,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
         <f>EDATE(A66,1)</f>
         <v>36281</v>
@@ -5653,7 +5669,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40"/>
       <c r="B69" s="20" t="s">
         <v>90</v>
@@ -5675,7 +5691,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
         <f>EDATE(A68,1)</f>
         <v>36312</v>
@@ -5700,7 +5716,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40"/>
       <c r="B71" s="20" t="s">
         <v>57</v>
@@ -5722,7 +5738,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40"/>
       <c r="B72" s="20" t="s">
         <v>53</v>
@@ -5742,7 +5758,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40"/>
       <c r="B73" s="20" t="s">
         <v>61</v>
@@ -5764,7 +5780,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40">
         <f>EDATE(A70,1)</f>
         <v>36342</v>
@@ -5789,7 +5805,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40">
         <f t="shared" si="2"/>
         <v>36373</v>
@@ -5814,7 +5830,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40"/>
       <c r="B76" s="20" t="s">
         <v>95</v>
@@ -5836,7 +5852,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40">
         <f>EDATE(A75,1)</f>
         <v>36404</v>
@@ -5861,7 +5877,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40"/>
       <c r="B78" s="20" t="s">
         <v>97</v>
@@ -5883,7 +5899,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40">
         <f>EDATE(A77,1)</f>
         <v>36434</v>
@@ -5908,7 +5924,7 @@
         <v>36260</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40"/>
       <c r="B80" s="20" t="s">
         <v>53</v>
@@ -5928,7 +5944,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40"/>
       <c r="B81" s="20" t="s">
         <v>48</v>
@@ -5950,7 +5966,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40"/>
       <c r="B82" s="20"/>
       <c r="C82" s="13">
@@ -5968,7 +5984,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40">
         <f>EDATE(A79,1)</f>
         <v>36465</v>
@@ -5993,7 +6009,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40">
         <f t="shared" si="2"/>
         <v>36495</v>
@@ -6018,7 +6034,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40"/>
       <c r="B85" s="20" t="s">
         <v>77</v>
@@ -6040,7 +6056,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40"/>
       <c r="B86" s="20" t="s">
         <v>103</v>
@@ -6062,7 +6078,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="48" t="s">
         <v>104</v>
       </c>
@@ -6080,7 +6096,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40">
         <v>36526</v>
       </c>
@@ -6104,7 +6120,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40">
         <f>EDATE(A88,1)</f>
         <v>36557</v>
@@ -6129,7 +6145,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40">
         <f t="shared" ref="A90:A103" si="3">EDATE(A89,1)</f>
         <v>36586</v>
@@ -6154,7 +6170,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40"/>
       <c r="B91" s="20" t="s">
         <v>107</v>
@@ -6176,7 +6192,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40">
         <f>EDATE(A90,1)</f>
         <v>36617</v>
@@ -6201,7 +6217,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40"/>
       <c r="B93" s="20" t="s">
         <v>107</v>
@@ -6223,7 +6239,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40">
         <f>EDATE(A92,1)</f>
         <v>36647</v>
@@ -6248,7 +6264,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40">
         <f t="shared" si="3"/>
         <v>36678</v>
@@ -6273,7 +6289,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40">
         <f t="shared" si="3"/>
         <v>36708</v>
@@ -6298,7 +6314,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40">
         <f t="shared" si="3"/>
         <v>36739</v>
@@ -6319,7 +6335,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40">
         <f>EDATE(A97,1)</f>
         <v>36770</v>
@@ -6342,7 +6358,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13">
@@ -6360,7 +6376,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40">
         <f>EDATE(A98,1)</f>
         <v>36800</v>
@@ -6383,7 +6399,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13">
@@ -6401,7 +6417,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40">
         <f>EDATE(A100,1)</f>
         <v>36831</v>
@@ -6422,7 +6438,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40">
         <f t="shared" si="3"/>
         <v>36861</v>
@@ -6447,7 +6463,7 @@
         <v>36842</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40"/>
       <c r="B104" s="20" t="s">
         <v>115</v>
@@ -6469,7 +6485,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40"/>
       <c r="B105" s="20" t="s">
         <v>51</v>
@@ -6491,7 +6507,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13">
@@ -6509,7 +6525,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="48" t="s">
         <v>118</v>
       </c>
@@ -6527,7 +6543,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40">
         <v>36892</v>
       </c>
@@ -6551,7 +6567,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13">
@@ -6569,7 +6585,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40">
         <f>EDATE(A108,1)</f>
         <v>36923</v>
@@ -6590,7 +6606,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40">
         <f t="shared" ref="A111:A125" si="4">EDATE(A110,1)</f>
         <v>36951</v>
@@ -6615,7 +6631,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13">
@@ -6633,7 +6649,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40">
         <f>EDATE(A111,1)</f>
         <v>36982</v>
@@ -6658,7 +6674,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13">
@@ -6676,7 +6692,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40">
         <f>EDATE(A113,1)</f>
         <v>37012</v>
@@ -6697,7 +6713,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40">
         <f t="shared" si="4"/>
         <v>37043</v>
@@ -6718,7 +6734,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40">
         <f t="shared" si="4"/>
         <v>37073</v>
@@ -6743,7 +6759,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13">
@@ -6761,7 +6777,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40">
         <f>EDATE(A117,1)</f>
         <v>37104</v>
@@ -6786,7 +6802,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13">
@@ -6804,7 +6820,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40">
         <f>EDATE(A119,1)</f>
         <v>37135</v>
@@ -6829,7 +6845,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40"/>
       <c r="B122" s="20" t="s">
         <v>125</v>
@@ -6849,7 +6865,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13">
@@ -6867,7 +6883,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40">
         <f>EDATE(A121,1)</f>
         <v>37165</v>
@@ -6888,7 +6904,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40">
         <f t="shared" si="4"/>
         <v>37196</v>
@@ -6913,7 +6929,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40"/>
       <c r="B126" s="20" t="s">
         <v>45</v>
@@ -6935,7 +6951,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40"/>
       <c r="B127" s="20" t="s">
         <v>77</v>
@@ -6957,7 +6973,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13">
@@ -6975,7 +6991,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40">
         <f>EDATE(A125,1)</f>
         <v>37226</v>
@@ -7000,7 +7016,7 @@
         <v>37207</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13">
@@ -7018,7 +7034,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="48" t="s">
         <v>130</v>
       </c>
@@ -7036,7 +7052,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40">
         <v>37257</v>
       </c>
@@ -7060,7 +7076,7 @@
         <v>37288</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40"/>
       <c r="B133" s="20" t="s">
         <v>48</v>
@@ -7082,7 +7098,7 @@
         <v>37500</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="40"/>
       <c r="B134" s="20" t="s">
         <v>48</v>
@@ -7104,7 +7120,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="40"/>
       <c r="B135" s="20"/>
       <c r="C135" s="13">
@@ -7122,7 +7138,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="40">
         <f>EDATE(A132,1)</f>
         <v>37288</v>
@@ -7143,7 +7159,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="40">
         <f t="shared" ref="A137:A155" si="5">EDATE(A136,1)</f>
         <v>37316</v>
@@ -7168,7 +7184,7 @@
         <v>37440</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="40"/>
       <c r="B138" s="20" t="s">
         <v>48</v>
@@ -7190,7 +7206,7 @@
         <v>37563</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="40"/>
       <c r="B139" s="20" t="s">
         <v>57</v>
@@ -7212,7 +7228,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="40"/>
       <c r="B140" s="20" t="s">
         <v>125</v>
@@ -7232,7 +7248,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="40"/>
       <c r="B141" s="20"/>
       <c r="C141" s="13">
@@ -7250,7 +7266,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="40">
         <f>EDATE(A137,1)</f>
         <v>37347</v>
@@ -7271,7 +7287,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="40">
         <f t="shared" si="5"/>
         <v>37377</v>
@@ -7292,7 +7308,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="40">
         <f t="shared" si="5"/>
         <v>37408</v>
@@ -7313,7 +7329,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="40">
         <f t="shared" si="5"/>
         <v>37438</v>
@@ -7334,7 +7350,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="40">
         <f t="shared" si="5"/>
         <v>37469</v>
@@ -7359,7 +7375,7 @@
         <v>37598</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="40"/>
       <c r="B147" s="20"/>
       <c r="C147" s="13">
@@ -7377,7 +7393,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="40">
         <f>EDATE(A146,1)</f>
         <v>37500</v>
@@ -7402,7 +7418,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="40"/>
       <c r="B149" s="20" t="s">
         <v>48</v>
@@ -7424,7 +7440,7 @@
         <v>37416</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="40"/>
       <c r="B150" s="20" t="s">
         <v>57</v>
@@ -7444,7 +7460,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="40"/>
       <c r="B151" s="20"/>
       <c r="C151" s="13">
@@ -7462,7 +7478,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="40">
         <f>EDATE(A148,1)</f>
         <v>37530</v>
@@ -7487,7 +7503,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="40"/>
       <c r="B153" s="20"/>
       <c r="C153" s="13">
@@ -7505,7 +7521,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="40">
         <f>EDATE(A152,1)</f>
         <v>37561</v>
@@ -7526,7 +7542,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="40">
         <f t="shared" si="5"/>
         <v>37591</v>
@@ -7551,7 +7567,7 @@
         <v>37511</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="40"/>
       <c r="B156" s="20"/>
       <c r="C156" s="13">
@@ -7569,7 +7585,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="48" t="s">
         <v>137</v>
       </c>
@@ -7587,7 +7603,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="40">
         <v>37622</v>
       </c>
@@ -7611,7 +7627,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="40"/>
       <c r="B159" s="20"/>
       <c r="C159" s="13">
@@ -7629,7 +7645,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="40">
         <f>EDATE(A158,1)</f>
         <v>37653</v>
@@ -7650,7 +7666,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="40">
         <f t="shared" ref="A161:A174" si="6">EDATE(A160,1)</f>
         <v>37681</v>
@@ -7671,7 +7687,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="40">
         <f t="shared" si="6"/>
         <v>37712</v>
@@ -7692,7 +7708,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="40">
         <f t="shared" si="6"/>
         <v>37742</v>
@@ -7717,7 +7733,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="40"/>
       <c r="B164" s="20" t="s">
         <v>112</v>
@@ -7737,7 +7753,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="40"/>
       <c r="B165" s="20"/>
       <c r="C165" s="13">
@@ -7755,7 +7771,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="40">
         <f>EDATE(A163,1)</f>
         <v>37773</v>
@@ -7780,7 +7796,7 @@
         <v>37778</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="40"/>
       <c r="B167" s="20"/>
       <c r="C167" s="13">
@@ -7798,7 +7814,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="40">
         <f>EDATE(A166,1)</f>
         <v>37803</v>
@@ -7819,7 +7835,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="40">
         <f t="shared" si="6"/>
         <v>37834</v>
@@ -7842,7 +7858,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="40"/>
       <c r="B170" s="20"/>
       <c r="C170" s="13">
@@ -7860,7 +7876,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="40">
         <f>EDATE(A169,1)</f>
         <v>37865</v>
@@ -7881,7 +7897,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="40">
         <f t="shared" si="6"/>
         <v>37895</v>
@@ -7902,7 +7918,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="40">
         <f t="shared" si="6"/>
         <v>37926</v>
@@ -7923,7 +7939,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="40">
         <f t="shared" si="6"/>
         <v>37956</v>
@@ -7944,7 +7960,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="48" t="s">
         <v>143</v>
       </c>
@@ -7962,7 +7978,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="40">
         <v>37987</v>
       </c>
@@ -7986,7 +8002,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="40">
         <f>EDATE(A176,1)</f>
         <v>38018</v>
@@ -8011,7 +8027,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="40">
         <f t="shared" ref="A178:A185" si="7">EDATE(A177,1)</f>
         <v>38047</v>
@@ -8036,7 +8052,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="40"/>
       <c r="B179" s="20" t="s">
         <v>147</v>
@@ -8058,7 +8074,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="40">
         <f>EDATE(A178,1)</f>
         <v>38078</v>
@@ -8083,7 +8099,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="40">
         <f t="shared" si="7"/>
         <v>38108</v>
@@ -8108,7 +8124,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="40">
         <f t="shared" si="7"/>
         <v>38139</v>
@@ -8133,7 +8149,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="40">
         <f t="shared" si="7"/>
         <v>38169</v>
@@ -8158,7 +8174,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="40">
         <f t="shared" si="7"/>
         <v>38200</v>
@@ -8183,7 +8199,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="40">
         <f t="shared" si="7"/>
         <v>38231</v>
@@ -8206,7 +8222,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="40"/>
       <c r="B186" s="20" t="s">
         <v>152</v>
@@ -8228,7 +8244,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="40">
         <f>EDATE(A185,1)</f>
         <v>38261</v>
@@ -8253,7 +8269,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="40"/>
       <c r="B188" s="20" t="s">
         <v>155</v>
@@ -8275,7 +8291,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="40"/>
       <c r="B189" s="20" t="s">
         <v>157</v>
@@ -8297,7 +8313,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="40">
         <f>EDATE(A187,1)</f>
         <v>38292</v>
@@ -8320,7 +8336,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="40"/>
       <c r="B191" s="20" t="s">
         <v>159</v>
@@ -8342,7 +8358,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="40">
         <f>EDATE(A190,1)</f>
         <v>38322</v>
@@ -8367,7 +8383,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="40"/>
       <c r="B193" s="20"/>
       <c r="C193" s="13">
@@ -8385,7 +8401,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="48" t="s">
         <v>161</v>
       </c>
@@ -8403,7 +8419,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="40">
         <v>38353</v>
       </c>
@@ -8425,7 +8441,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="40"/>
       <c r="B196" s="20" t="s">
         <v>163</v>
@@ -8447,7 +8463,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="41">
         <f>EDATE(A195,1)</f>
         <v>38384</v>
@@ -8472,7 +8488,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="40"/>
       <c r="B198" s="20" t="s">
         <v>165</v>
@@ -8494,7 +8510,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="41">
         <f>EDATE(A197,1)</f>
         <v>38412</v>
@@ -8519,7 +8535,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="41">
         <f t="shared" ref="A200:A213" si="8">EDATE(A199,1)</f>
         <v>38443</v>
@@ -8544,7 +8560,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="41">
         <f t="shared" si="8"/>
         <v>38473</v>
@@ -8569,7 +8585,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="41">
         <f t="shared" si="8"/>
         <v>38504</v>
@@ -8594,7 +8610,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="41">
         <f t="shared" si="8"/>
         <v>38534</v>
@@ -8619,7 +8635,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="40"/>
       <c r="B204" s="20" t="s">
         <v>45</v>
@@ -8641,7 +8657,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="40"/>
       <c r="B205" s="20" t="s">
         <v>169</v>
@@ -8663,7 +8679,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="41">
         <f>EDATE(A203,1)</f>
         <v>38565</v>
@@ -8688,7 +8704,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="41">
         <f t="shared" si="8"/>
         <v>38596</v>
@@ -8713,7 +8729,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="40"/>
       <c r="B208" s="20" t="s">
         <v>112</v>
@@ -8733,7 +8749,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="40"/>
       <c r="B209" s="20"/>
       <c r="C209" s="13">
@@ -8751,7 +8767,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="40"/>
       <c r="B210" s="20" t="s">
         <v>175</v>
@@ -8771,7 +8787,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="41">
         <f>EDATE(A207,1)</f>
         <v>38626</v>
@@ -8796,7 +8812,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="20"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="41">
         <f t="shared" si="8"/>
         <v>38657</v>
@@ -8821,7 +8837,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="41">
         <f t="shared" si="8"/>
         <v>38687</v>
@@ -8846,7 +8862,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="40"/>
       <c r="B214" s="20" t="s">
         <v>180</v>
@@ -8868,7 +8884,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="40"/>
       <c r="B215" s="20" t="s">
         <v>181</v>
@@ -8888,7 +8904,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="48" t="s">
         <v>182</v>
       </c>
@@ -8906,7 +8922,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="40">
         <v>38718</v>
       </c>
@@ -8930,7 +8946,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="40"/>
       <c r="B218" s="20" t="s">
         <v>184</v>
@@ -8952,7 +8968,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="40">
         <f>EDATE(A217,1)</f>
         <v>38749</v>
@@ -8977,7 +8993,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="40">
         <f t="shared" ref="A220:A240" si="9">EDATE(A219,1)</f>
         <v>38777</v>
@@ -9002,7 +9018,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="40"/>
       <c r="B221" s="20" t="s">
         <v>187</v>
@@ -9024,7 +9040,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="40"/>
       <c r="B222" s="20" t="s">
         <v>189</v>
@@ -9046,7 +9062,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="40">
         <f>EDATE(A220,1)</f>
         <v>38808</v>
@@ -9071,7 +9087,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="40"/>
       <c r="B224" s="20" t="s">
         <v>178</v>
@@ -9093,7 +9109,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" s="40"/>
       <c r="B225" s="20" t="s">
         <v>192</v>
@@ -9115,7 +9131,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="40">
         <f>EDATE(A223,1)</f>
         <v>38838</v>
@@ -9140,7 +9156,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="40">
         <f t="shared" si="9"/>
         <v>38869</v>
@@ -9165,7 +9181,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" s="40">
         <f t="shared" si="9"/>
         <v>38899</v>
@@ -9190,7 +9206,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="40"/>
       <c r="B229" s="20" t="s">
         <v>196</v>
@@ -9212,7 +9228,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="40">
         <f>EDATE(A228,1)</f>
         <v>38930</v>
@@ -9235,7 +9251,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="40"/>
       <c r="B231" s="20" t="s">
         <v>178</v>
@@ -9257,7 +9273,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="40"/>
       <c r="B232" s="20" t="s">
         <v>48</v>
@@ -9279,7 +9295,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="40"/>
       <c r="B233" s="20" t="s">
         <v>48</v>
@@ -9301,7 +9317,7 @@
         <v>38725</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="40"/>
       <c r="B234" s="20" t="s">
         <v>45</v>
@@ -9323,7 +9339,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" s="40"/>
       <c r="B235" s="20" t="s">
         <v>48</v>
@@ -9345,7 +9361,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" s="40"/>
       <c r="B236" s="20" t="s">
         <v>53</v>
@@ -9365,7 +9381,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" s="40"/>
       <c r="B237" s="20" t="s">
         <v>203</v>
@@ -9387,7 +9403,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" s="40">
         <f>EDATE(A230,1)</f>
         <v>38961</v>
@@ -9412,7 +9428,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" s="40">
         <f t="shared" si="9"/>
         <v>38991</v>
@@ -9437,7 +9453,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" s="40">
         <f t="shared" si="9"/>
         <v>39022</v>
@@ -9462,7 +9478,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" s="40"/>
       <c r="B241" s="20" t="s">
         <v>207</v>
@@ -9484,7 +9500,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" s="40">
         <f>EDATE(A240,1)</f>
         <v>39052</v>
@@ -9509,7 +9525,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" s="48" t="s">
         <v>209</v>
       </c>
@@ -9527,7 +9543,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" s="40">
         <v>39083</v>
       </c>
@@ -9547,7 +9563,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" s="40">
         <f>EDATE(A244,1)</f>
         <v>39114</v>
@@ -9568,7 +9584,7 @@
       <c r="J245" s="11"/>
       <c r="K245" s="20"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" s="40">
         <f t="shared" ref="A246:A261" si="10">EDATE(A245,1)</f>
         <v>39142</v>
@@ -9589,7 +9605,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" s="40">
         <f t="shared" si="10"/>
         <v>39173</v>
@@ -9610,7 +9626,7 @@
       <c r="J247" s="11"/>
       <c r="K247" s="20"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" s="40">
         <f t="shared" si="10"/>
         <v>39203</v>
@@ -9631,7 +9647,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" s="40">
         <f t="shared" si="10"/>
         <v>39234</v>
@@ -9652,7 +9668,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" s="40">
         <f t="shared" si="10"/>
         <v>39264</v>
@@ -9675,7 +9691,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" s="40"/>
       <c r="B251" s="20" t="s">
         <v>48</v>
@@ -9697,7 +9713,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" s="40"/>
       <c r="B252" s="20" t="s">
         <v>48</v>
@@ -9719,7 +9735,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" s="40"/>
       <c r="B253" s="20"/>
       <c r="C253" s="13">
@@ -9737,7 +9753,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" s="40">
         <f>EDATE(A250,1)</f>
         <v>39295</v>
@@ -9762,7 +9778,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" s="40"/>
       <c r="B255" s="20"/>
       <c r="C255" s="13">
@@ -9780,7 +9796,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" s="40">
         <f>EDATE(A254,1)</f>
         <v>39326</v>
@@ -9805,7 +9821,7 @@
         <v>39091</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" s="40"/>
       <c r="B257" s="20" t="s">
         <v>178</v>
@@ -9827,7 +9843,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" s="40"/>
       <c r="B258" s="20" t="s">
         <v>53</v>
@@ -9847,7 +9863,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" s="40"/>
       <c r="B259" s="20"/>
       <c r="C259" s="13">
@@ -9865,7 +9881,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" s="40">
         <f>EDATE(A256,1)</f>
         <v>39356</v>
@@ -9890,7 +9906,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" s="40">
         <f t="shared" si="10"/>
         <v>39387</v>
@@ -9913,7 +9929,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" s="40"/>
       <c r="B262" s="20" t="s">
         <v>180</v>
@@ -9935,7 +9951,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263" s="40"/>
       <c r="B263" s="20" t="s">
         <v>219</v>
@@ -9957,7 +9973,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A264" s="40">
         <f>EDATE(A261,1)</f>
         <v>39417</v>
@@ -9982,7 +9998,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A265" s="48" t="s">
         <v>221</v>
       </c>
@@ -10000,7 +10016,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" s="40">
         <v>39448</v>
       </c>
@@ -10024,7 +10040,7 @@
       <c r="J266" s="11"/>
       <c r="K266" s="20"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267" s="40">
         <f>EDATE(A266,1)</f>
         <v>39479</v>
@@ -10049,7 +10065,7 @@
       <c r="J267" s="11"/>
       <c r="K267" s="20"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" s="40">
         <f t="shared" ref="A268:A281" si="11">EDATE(A267,1)</f>
         <v>39508</v>
@@ -10074,7 +10090,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" s="40"/>
       <c r="B269" s="20" t="s">
         <v>226</v>
@@ -10096,7 +10112,7 @@
       <c r="J269" s="11"/>
       <c r="K269" s="20"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A270" s="40">
         <f>EDATE(A268,1)</f>
         <v>39539</v>
@@ -10121,7 +10137,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A271" s="40"/>
       <c r="B271" s="20" t="s">
         <v>228</v>
@@ -10143,7 +10159,7 @@
       <c r="J271" s="11"/>
       <c r="K271" s="20"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A272" s="40">
         <f>EDATE(A270,1)</f>
         <v>39569</v>
@@ -10168,7 +10184,7 @@
       <c r="J272" s="12"/>
       <c r="K272" s="15"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" s="40">
         <f t="shared" si="11"/>
         <v>39600</v>
@@ -10193,7 +10209,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A274" s="40">
         <f t="shared" si="11"/>
         <v>39630</v>
@@ -10218,7 +10234,7 @@
         <v>39545</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" s="40"/>
       <c r="B275" s="20" t="s">
         <v>53</v>
@@ -10238,7 +10254,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" s="40"/>
       <c r="B276" s="20" t="s">
         <v>232</v>
@@ -10260,7 +10276,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A277" s="40">
         <f>EDATE(A274,1)</f>
         <v>39661</v>
@@ -10285,7 +10301,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A278" s="40">
         <f t="shared" si="11"/>
         <v>39692</v>
@@ -10308,7 +10324,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A279" s="40"/>
       <c r="B279" s="20" t="s">
         <v>235</v>
@@ -10330,7 +10346,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A280" s="40">
         <f>EDATE(A278,1)</f>
         <v>39722</v>
@@ -10355,7 +10371,7 @@
       <c r="J280" s="11"/>
       <c r="K280" s="20"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A281" s="40">
         <f t="shared" si="11"/>
         <v>39753</v>
@@ -10378,7 +10394,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A282" s="40"/>
       <c r="B282" s="20" t="s">
         <v>178</v>
@@ -10400,7 +10416,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A283" s="40"/>
       <c r="B283" s="20" t="s">
         <v>240</v>
@@ -10422,7 +10438,7 @@
       <c r="J283" s="11"/>
       <c r="K283" s="20"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A284" s="40">
         <f>EDATE(A281,1)</f>
         <v>39783</v>
@@ -10443,7 +10459,7 @@
       <c r="J284" s="11"/>
       <c r="K284" s="20"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A285" s="48" t="s">
         <v>222</v>
       </c>
@@ -10461,7 +10477,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A286" s="40">
         <v>39814</v>
       </c>
@@ -10485,7 +10501,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A287" s="40"/>
       <c r="B287" s="20" t="s">
         <v>155</v>
@@ -10505,7 +10521,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="20"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A288" s="40"/>
       <c r="B288" s="20" t="s">
         <v>180</v>
@@ -10527,7 +10543,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A289" s="40"/>
       <c r="B289" s="20" t="s">
         <v>53</v>
@@ -10547,7 +10563,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A290" s="40"/>
       <c r="B290" s="20" t="s">
         <v>48</v>
@@ -10569,7 +10585,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A291" s="40"/>
       <c r="B291" s="20" t="s">
         <v>45</v>
@@ -10591,7 +10607,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A292" s="40"/>
       <c r="B292" s="20" t="s">
         <v>53</v>
@@ -10611,7 +10627,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A293" s="40"/>
       <c r="B293" s="20" t="s">
         <v>48</v>
@@ -10633,7 +10649,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A294" s="40"/>
       <c r="B294" s="20" t="s">
         <v>248</v>
@@ -10655,7 +10671,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A295" s="41">
         <f>EDATE(A286,1)</f>
         <v>39845</v>
@@ -10680,7 +10696,7 @@
       <c r="J295" s="12"/>
       <c r="K295" s="15"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A296" s="41">
         <f t="shared" ref="A296:A310" si="12">EDATE(A295,1)</f>
         <v>39873</v>
@@ -10705,7 +10721,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A297" s="40"/>
       <c r="B297" s="20" t="s">
         <v>187</v>
@@ -10727,7 +10743,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A298" s="40"/>
       <c r="B298" s="20" t="s">
         <v>252</v>
@@ -10749,7 +10765,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A299" s="41">
         <f>EDATE(A296,1)</f>
         <v>39904</v>
@@ -10774,7 +10790,7 @@
       <c r="J299" s="11"/>
       <c r="K299" s="20"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A300" s="41">
         <f t="shared" si="12"/>
         <v>39934</v>
@@ -10799,7 +10815,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A301" s="40"/>
       <c r="B301" s="20" t="s">
         <v>254</v>
@@ -10821,7 +10837,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A302" s="41">
         <f>EDATE(A300,1)</f>
         <v>39965</v>
@@ -10846,7 +10862,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="20"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A303" s="41">
         <f t="shared" si="12"/>
         <v>39995</v>
@@ -10871,7 +10887,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A304" s="41">
         <f t="shared" si="12"/>
         <v>40026</v>
@@ -10896,7 +10912,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A305" s="41">
         <f t="shared" si="12"/>
         <v>40057</v>
@@ -10921,7 +10937,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A306" s="40"/>
       <c r="B306" s="20" t="s">
         <v>53</v>
@@ -10941,7 +10957,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A307" s="40"/>
       <c r="B307" s="20" t="s">
         <v>187</v>
@@ -10963,7 +10979,7 @@
         <v>40066</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A308" s="40"/>
       <c r="B308" s="20" t="s">
         <v>261</v>
@@ -10985,7 +11001,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A309" s="41">
         <f>EDATE(A305,1)</f>
         <v>40087</v>
@@ -11008,7 +11024,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="20"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A310" s="41">
         <f t="shared" si="12"/>
         <v>40118</v>
@@ -11033,7 +11049,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A311" s="40"/>
       <c r="B311" s="20" t="s">
         <v>264</v>
@@ -11055,7 +11071,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="20"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A312" s="41">
         <f>EDATE(A310,1)</f>
         <v>40148</v>
@@ -11080,7 +11096,7 @@
       <c r="J312" s="11"/>
       <c r="K312" s="20"/>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A313" s="52" t="s">
         <v>266</v>
       </c>
@@ -11098,7 +11114,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A314" s="41">
         <v>40179</v>
       </c>
@@ -11122,7 +11138,7 @@
       <c r="J314" s="11"/>
       <c r="K314" s="20"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A315" s="40">
         <f>EDATE(A314,1)</f>
         <v>40210</v>
@@ -11147,7 +11163,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A316" s="40">
         <f t="shared" ref="A316:A330" si="13">EDATE(A315,1)</f>
         <v>40238</v>
@@ -11172,7 +11188,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A317" s="40"/>
       <c r="B317" s="20" t="s">
         <v>270</v>
@@ -11194,7 +11210,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A318" s="40">
         <f>EDATE(A316,1)</f>
         <v>40269</v>
@@ -11219,7 +11235,7 @@
       <c r="J318" s="11"/>
       <c r="K318" s="20"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A319" s="40">
         <f t="shared" si="13"/>
         <v>40299</v>
@@ -11244,7 +11260,7 @@
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A320" s="40">
         <f t="shared" si="13"/>
         <v>40330</v>
@@ -11269,7 +11285,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A321" s="40"/>
       <c r="B321" s="20" t="s">
         <v>270</v>
@@ -11291,7 +11307,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A322" s="40">
         <f>EDATE(A320,1)</f>
         <v>40360</v>
@@ -11316,7 +11332,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A323" s="40">
         <f t="shared" si="13"/>
         <v>40391</v>
@@ -11341,7 +11357,7 @@
         <v>40337</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A324" s="40"/>
       <c r="B324" s="20" t="s">
         <v>275</v>
@@ -11363,7 +11379,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A325" s="40">
         <f>EDATE(A323,1)</f>
         <v>40422</v>
@@ -11386,7 +11402,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A326" s="40"/>
       <c r="B326" s="20" t="s">
         <v>178</v>
@@ -11408,7 +11424,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A327" s="40"/>
       <c r="B327" s="20" t="s">
         <v>53</v>
@@ -11428,7 +11444,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A328" s="40"/>
       <c r="B328" s="20" t="s">
         <v>279</v>
@@ -11450,7 +11466,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A329" s="40">
         <f>EDATE(A325,1)</f>
         <v>40452</v>
@@ -11475,7 +11491,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A330" s="40">
         <f t="shared" si="13"/>
         <v>40483</v>
@@ -11500,7 +11516,7 @@
         <v>40402</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A331" s="40"/>
       <c r="B331" s="20" t="s">
         <v>281</v>
@@ -11522,7 +11538,7 @@
       <c r="J331" s="11"/>
       <c r="K331" s="20"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A332" s="40">
         <f>EDATE(A330,1)</f>
         <v>40513</v>
@@ -11547,7 +11563,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A333" s="48" t="s">
         <v>283</v>
       </c>
@@ -11565,7 +11581,7 @@
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A334" s="40">
         <v>40544</v>
       </c>
@@ -11589,7 +11605,7 @@
         <v>40878</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A335" s="40"/>
       <c r="B335" s="20" t="s">
         <v>45</v>
@@ -11611,7 +11627,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A336" s="40"/>
       <c r="B336" s="20"/>
       <c r="C336" s="13">
@@ -11629,7 +11645,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A337" s="40">
         <f>EDATE(A334,1)</f>
         <v>40575</v>
@@ -11654,7 +11670,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A338" s="40"/>
       <c r="B338" s="20"/>
       <c r="C338" s="13">
@@ -11672,7 +11688,7 @@
       <c r="J338" s="11"/>
       <c r="K338" s="20"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A339" s="40">
         <f>EDATE(A337,1)</f>
         <v>40603</v>
@@ -11697,7 +11713,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A340" s="40"/>
       <c r="B340" s="20"/>
       <c r="C340" s="13">
@@ -11715,7 +11731,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A341" s="40">
         <f>EDATE(A339,1)</f>
         <v>40634</v>
@@ -11740,7 +11756,7 @@
         <v>40547</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A342" s="40"/>
       <c r="B342" s="20" t="s">
         <v>48</v>
@@ -11762,7 +11778,7 @@
         <v>40667</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A343" s="40"/>
       <c r="B343" s="20" t="s">
         <v>48</v>
@@ -11784,7 +11800,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A344" s="40"/>
       <c r="B344" s="20" t="s">
         <v>53</v>
@@ -11804,7 +11820,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A345" s="40"/>
       <c r="B345" s="20"/>
       <c r="C345" s="13">
@@ -11822,7 +11838,7 @@
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A346" s="40">
         <f>EDATE(A341,1)</f>
         <v>40664</v>
@@ -11847,7 +11863,7 @@
         <v>40579</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A347" s="40"/>
       <c r="B347" s="20" t="s">
         <v>155</v>
@@ -11869,7 +11885,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A348" s="40"/>
       <c r="B348" s="20"/>
       <c r="C348" s="13">
@@ -11887,7 +11903,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A349" s="40">
         <f>EDATE(A346,1)</f>
         <v>40695</v>
@@ -11908,7 +11924,7 @@
       <c r="J349" s="11"/>
       <c r="K349" s="20"/>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A350" s="40">
         <f t="shared" ref="A350:A352" si="14">EDATE(A349,1)</f>
         <v>40725</v>
@@ -11929,7 +11945,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A351" s="40">
         <f t="shared" si="14"/>
         <v>40756</v>
@@ -11950,7 +11966,7 @@
       <c r="J351" s="11"/>
       <c r="K351" s="20"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A352" s="40">
         <f t="shared" si="14"/>
         <v>40787</v>
@@ -11975,7 +11991,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A353" s="40"/>
       <c r="B353" s="20" t="s">
         <v>178</v>
@@ -11997,7 +12013,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A354" s="40"/>
       <c r="B354" s="20" t="s">
         <v>53</v>
@@ -12017,7 +12033,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A355" s="40"/>
       <c r="B355" s="20" t="s">
         <v>53</v>
@@ -12037,7 +12053,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A356" s="40"/>
       <c r="B356" s="20" t="s">
         <v>45</v>
@@ -12059,7 +12075,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A357" s="40"/>
       <c r="B357" s="20"/>
       <c r="C357" s="13">
@@ -12077,7 +12093,7 @@
       <c r="J357" s="11"/>
       <c r="K357" s="20"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A358" s="40">
         <f>EDATE(A352,1)</f>
         <v>40817</v>
@@ -12102,7 +12118,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A359" s="40"/>
       <c r="B359" s="20"/>
       <c r="C359" s="13">
@@ -12120,7 +12136,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A360" s="40">
         <f>EDATE(A358,1)</f>
         <v>40848</v>
@@ -12141,7 +12157,7 @@
       <c r="J360" s="11"/>
       <c r="K360" s="20"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A361" s="40">
         <f>EDATE(A360,1)</f>
         <v>40878</v>
@@ -12166,7 +12182,7 @@
         <v>40555</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A362" s="40"/>
       <c r="B362" s="20" t="s">
         <v>180</v>
@@ -12188,7 +12204,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A363" s="40"/>
       <c r="B363" s="20" t="s">
         <v>297</v>
@@ -12206,7 +12222,7 @@
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A364" s="40"/>
       <c r="B364" s="20" t="s">
         <v>48</v>
@@ -12228,7 +12244,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A365" s="40"/>
       <c r="B365" s="20" t="s">
         <v>48</v>
@@ -12250,7 +12266,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A366" s="41"/>
       <c r="B366" s="15"/>
       <c r="C366" s="13">
@@ -12268,7 +12284,7 @@
       <c r="J366" s="12"/>
       <c r="K366" s="15"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A367" s="48" t="s">
         <v>300</v>
       </c>
@@ -12286,7 +12302,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A368" s="40">
         <v>40909</v>
       </c>
@@ -12310,7 +12326,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A369" s="40"/>
       <c r="B369" s="20" t="s">
         <v>48</v>
@@ -12332,7 +12348,7 @@
         <v>41183</v>
       </c>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A370" s="40"/>
       <c r="B370" s="20" t="s">
         <v>53</v>
@@ -12352,7 +12368,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A371" s="40"/>
       <c r="B371" s="20" t="s">
         <v>53</v>
@@ -12372,7 +12388,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A372" s="40"/>
       <c r="B372" s="20"/>
       <c r="C372" s="13">
@@ -12390,7 +12406,7 @@
       <c r="J372" s="11"/>
       <c r="K372" s="20"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A373" s="40">
         <f>EDATE(A368,1)</f>
         <v>40940</v>
@@ -12415,7 +12431,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A374" s="40"/>
       <c r="B374" s="20"/>
       <c r="C374" s="13">
@@ -12433,7 +12449,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A375" s="40">
         <f>EDATE(A373,1)</f>
         <v>40969</v>
@@ -12458,7 +12474,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A376" s="40"/>
       <c r="B376" s="20" t="s">
         <v>178</v>
@@ -12480,7 +12496,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A377" s="40"/>
       <c r="B377" s="20"/>
       <c r="C377" s="13">
@@ -12498,7 +12514,7 @@
       <c r="J377" s="11"/>
       <c r="K377" s="20"/>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A378" s="40">
         <f>EDATE(A375,1)</f>
         <v>41000</v>
@@ -12523,7 +12539,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A379" s="40"/>
       <c r="B379" s="20"/>
       <c r="C379" s="13">
@@ -12541,7 +12557,7 @@
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A380" s="40">
         <f>EDATE(A378,1)</f>
         <v>41030</v>
@@ -12566,7 +12582,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A381" s="40"/>
       <c r="B381" s="20" t="s">
         <v>60</v>
@@ -12588,7 +12604,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A382" s="40"/>
       <c r="B382" s="20" t="s">
         <v>48</v>
@@ -12610,7 +12626,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A383" s="40"/>
       <c r="B383" s="20" t="s">
         <v>48</v>
@@ -12632,7 +12648,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A384" s="40"/>
       <c r="B384" s="20"/>
       <c r="C384" s="13">
@@ -12650,7 +12666,7 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A385" s="40">
         <f>EDATE(A380,1)</f>
         <v>41061</v>
@@ -12673,7 +12689,7 @@
       <c r="J385" s="11"/>
       <c r="K385" s="20"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A386" s="40"/>
       <c r="B386" s="20" t="s">
         <v>180</v>
@@ -12695,7 +12711,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A387" s="40"/>
       <c r="B387" s="20" t="s">
         <v>53</v>
@@ -12715,7 +12731,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A388" s="40"/>
       <c r="B388" s="20"/>
       <c r="C388" s="13">
@@ -12733,7 +12749,7 @@
       <c r="J388" s="11"/>
       <c r="K388" s="20"/>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A389" s="40">
         <f>EDATE(A385,1)</f>
         <v>41091</v>
@@ -12754,7 +12770,7 @@
       <c r="J389" s="11"/>
       <c r="K389" s="20"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A390" s="40">
         <f t="shared" ref="A390:A392" si="15">EDATE(A389,1)</f>
         <v>41122</v>
@@ -12775,7 +12791,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A391" s="40">
         <f t="shared" si="15"/>
         <v>41153</v>
@@ -12796,7 +12812,7 @@
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A392" s="40">
         <f t="shared" si="15"/>
         <v>41183</v>
@@ -12821,7 +12837,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A393" s="40"/>
       <c r="B393" s="20" t="s">
         <v>48</v>
@@ -12843,7 +12859,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A394" s="40"/>
       <c r="B394" s="20"/>
       <c r="C394" s="13">
@@ -12861,7 +12877,7 @@
       <c r="J394" s="11"/>
       <c r="K394" s="20"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A395" s="40">
         <f>EDATE(A392,1)</f>
         <v>41214</v>
@@ -12886,7 +12902,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A396" s="40"/>
       <c r="B396" s="20"/>
       <c r="C396" s="13">
@@ -12904,7 +12920,7 @@
       <c r="J396" s="11"/>
       <c r="K396" s="20"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A397" s="40">
         <f>EDATE(A395,1)</f>
         <v>41244</v>
@@ -12929,7 +12945,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A398" s="40"/>
       <c r="B398" s="20"/>
       <c r="C398" s="13">
@@ -12947,7 +12963,7 @@
       <c r="J398" s="11"/>
       <c r="K398" s="20"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A399" s="48" t="s">
         <v>318</v>
       </c>
@@ -12965,7 +12981,7 @@
       <c r="J399" s="11"/>
       <c r="K399" s="20"/>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A400" s="41">
         <v>41275</v>
       </c>
@@ -12989,7 +13005,7 @@
         <v>41518</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A401" s="40"/>
       <c r="B401" s="20"/>
       <c r="C401" s="42">
@@ -13007,7 +13023,7 @@
       <c r="J401" s="11"/>
       <c r="K401" s="20"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A402" s="40">
         <f>EDATE(A400,1)</f>
         <v>41306</v>
@@ -13028,7 +13044,7 @@
       <c r="J402" s="11"/>
       <c r="K402" s="20"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A403" s="40">
         <f t="shared" ref="A403:A425" si="16">EDATE(A402,1)</f>
         <v>41334</v>
@@ -13053,7 +13069,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A404" s="40"/>
       <c r="B404" s="20" t="s">
         <v>48</v>
@@ -13075,7 +13091,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A405" s="40"/>
       <c r="B405" s="20" t="s">
         <v>48</v>
@@ -13097,7 +13113,7 @@
         <v>41368</v>
       </c>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A406" s="40"/>
       <c r="B406" s="20" t="s">
         <v>48</v>
@@ -13119,7 +13135,7 @@
       <c r="J406" s="11"/>
       <c r="K406" s="20"/>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A407" s="40">
         <f>EDATE(A403,1)</f>
         <v>41365</v>
@@ -13142,7 +13158,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A408" s="40"/>
       <c r="B408" s="20" t="s">
         <v>45</v>
@@ -13162,7 +13178,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A409" s="40"/>
       <c r="B409" s="20"/>
       <c r="C409" s="42">
@@ -13180,7 +13196,7 @@
       <c r="J409" s="11"/>
       <c r="K409" s="20"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A410" s="40">
         <f>EDATE(A407,1)</f>
         <v>41395</v>
@@ -13205,7 +13221,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A411" s="40"/>
       <c r="B411" s="20"/>
       <c r="C411" s="42">
@@ -13223,7 +13239,7 @@
       <c r="J411" s="11"/>
       <c r="K411" s="20"/>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A412" s="40">
         <f>EDATE(A410,1)</f>
         <v>41426</v>
@@ -13248,7 +13264,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A413" s="40"/>
       <c r="B413" s="20"/>
       <c r="C413" s="42">
@@ -13266,7 +13282,7 @@
       <c r="J413" s="11"/>
       <c r="K413" s="20"/>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A414" s="40">
         <f>EDATE(A412,1)</f>
         <v>41456</v>
@@ -13291,7 +13307,7 @@
         <v>41585</v>
       </c>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A415" s="40"/>
       <c r="B415" s="20"/>
       <c r="C415" s="42">
@@ -13309,7 +13325,7 @@
       <c r="J415" s="11"/>
       <c r="K415" s="20"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A416" s="40">
         <f>EDATE(A414,1)</f>
         <v>41487</v>
@@ -13330,7 +13346,7 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A417" s="40">
         <f t="shared" si="16"/>
         <v>41518</v>
@@ -13355,7 +13371,7 @@
         <v>41556</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A418" s="40"/>
       <c r="B418" s="20" t="s">
         <v>178</v>
@@ -13377,7 +13393,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A419" s="40"/>
       <c r="B419" s="20" t="s">
         <v>112</v>
@@ -13397,7 +13413,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A420" s="40"/>
       <c r="B420" s="20" t="s">
         <v>48</v>
@@ -13417,7 +13433,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A421" s="40"/>
       <c r="B421" s="20"/>
       <c r="C421" s="42">
@@ -13435,7 +13451,7 @@
       <c r="J421" s="11"/>
       <c r="K421" s="20"/>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A422" s="40">
         <f>EDATE(A417,1)</f>
         <v>41548</v>
@@ -13460,7 +13476,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A423" s="40"/>
       <c r="B423" s="20"/>
       <c r="C423" s="42">
@@ -13478,7 +13494,7 @@
       <c r="J423" s="11"/>
       <c r="K423" s="20"/>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A424" s="40">
         <f>EDATE(A422,1)</f>
         <v>41579</v>
@@ -13499,7 +13515,7 @@
       <c r="J424" s="11"/>
       <c r="K424" s="20"/>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A425" s="40">
         <f t="shared" si="16"/>
         <v>41609</v>
@@ -13524,7 +13540,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A426" s="40"/>
       <c r="B426" s="20" t="s">
         <v>187</v>
@@ -13546,7 +13562,7 @@
       <c r="J426" s="11"/>
       <c r="K426" s="20"/>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A427" s="48" t="s">
         <v>330</v>
       </c>
@@ -13564,7 +13580,7 @@
       <c r="J427" s="11"/>
       <c r="K427" s="20"/>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A428" s="40">
         <v>41640</v>
       </c>
@@ -13588,7 +13604,7 @@
         <v>41671</v>
       </c>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A429" s="40"/>
       <c r="B429" s="20" t="s">
         <v>187</v>
@@ -13608,7 +13624,7 @@
       <c r="J429" s="11"/>
       <c r="K429" s="20"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A430" s="40"/>
       <c r="B430" s="20" t="s">
         <v>45</v>
@@ -13630,7 +13646,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A431" s="40"/>
       <c r="B431" s="20"/>
       <c r="C431" s="13">
@@ -13648,7 +13664,7 @@
       <c r="J431" s="11"/>
       <c r="K431" s="20"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A432" s="40">
         <f>EDATE(A428,1)</f>
         <v>41671</v>
@@ -13669,7 +13685,7 @@
       <c r="J432" s="11"/>
       <c r="K432" s="20"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A433" s="40">
         <f t="shared" ref="A433:A447" si="17">EDATE(A432,1)</f>
         <v>41699</v>
@@ -13694,7 +13710,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A434" s="40"/>
       <c r="B434" s="20"/>
       <c r="C434" s="13">
@@ -13712,7 +13728,7 @@
       <c r="J434" s="11"/>
       <c r="K434" s="20"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A435" s="40">
         <f>EDATE(A433,1)</f>
         <v>41730</v>
@@ -13733,7 +13749,7 @@
       <c r="J435" s="11"/>
       <c r="K435" s="20"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A436" s="40">
         <f t="shared" si="17"/>
         <v>41760</v>
@@ -13756,7 +13772,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A437" s="40"/>
       <c r="B437" s="20" t="s">
         <v>48</v>
@@ -13778,7 +13794,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A438" s="40"/>
       <c r="B438" s="20" t="s">
         <v>112</v>
@@ -13798,7 +13814,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A439" s="40"/>
       <c r="B439" s="20" t="s">
         <v>45</v>
@@ -13820,7 +13836,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A440" s="40"/>
       <c r="B440" s="20" t="s">
         <v>337</v>
@@ -13842,7 +13858,7 @@
       <c r="J440" s="11"/>
       <c r="K440" s="20"/>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A441" s="40">
         <f>EDATE(A436,1)</f>
         <v>41791</v>
@@ -13867,7 +13883,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A442" s="40"/>
       <c r="B442" s="20"/>
       <c r="C442" s="13">
@@ -13885,7 +13901,7 @@
       <c r="J442" s="11"/>
       <c r="K442" s="20"/>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A443" s="40">
         <f>EDATE(A441,1)</f>
         <v>41821</v>
@@ -13910,7 +13926,7 @@
       <c r="J443" s="11"/>
       <c r="K443" s="20"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A444" s="40">
         <f t="shared" si="17"/>
         <v>41852</v>
@@ -13935,7 +13951,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A445" s="40"/>
       <c r="B445" s="20" t="s">
         <v>341</v>
@@ -13957,7 +13973,7 @@
       <c r="J445" s="11"/>
       <c r="K445" s="20"/>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A446" s="40">
         <f>EDATE(A444,1)</f>
         <v>41883</v>
@@ -13982,7 +13998,7 @@
       <c r="J446" s="11"/>
       <c r="K446" s="20"/>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A447" s="40">
         <f t="shared" si="17"/>
         <v>41913</v>
@@ -14007,7 +14023,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A448" s="40"/>
       <c r="B448" s="20" t="s">
         <v>187</v>
@@ -14029,7 +14045,7 @@
         <v>41861</v>
       </c>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A449" s="40"/>
       <c r="B449" s="20" t="s">
         <v>344</v>
@@ -14051,7 +14067,7 @@
       <c r="J449" s="11"/>
       <c r="K449" s="20"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A450" s="40">
         <f>EDATE(A447,1)</f>
         <v>41944</v>
@@ -14076,7 +14092,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A451" s="40"/>
       <c r="B451" s="20" t="s">
         <v>48</v>
@@ -14098,7 +14114,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A452" s="40"/>
       <c r="B452" s="20" t="s">
         <v>347</v>
@@ -14120,7 +14136,7 @@
       <c r="J452" s="11"/>
       <c r="K452" s="20"/>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A453" s="40">
         <f>EDATE(A450,1)</f>
         <v>41974</v>
@@ -14145,7 +14161,7 @@
       <c r="J453" s="11"/>
       <c r="K453" s="20"/>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A454" s="48" t="s">
         <v>349</v>
       </c>
@@ -14163,7 +14179,7 @@
       <c r="J454" s="11"/>
       <c r="K454" s="20"/>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A455" s="40">
         <v>42005</v>
       </c>
@@ -14187,7 +14203,7 @@
         <v>42248</v>
       </c>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A456" s="40"/>
       <c r="B456" s="20" t="s">
         <v>350</v>
@@ -14209,7 +14225,7 @@
       <c r="J456" s="11"/>
       <c r="K456" s="20"/>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A457" s="40">
         <f>EDATE(A455,1)</f>
         <v>42036</v>
@@ -14234,7 +14250,7 @@
       <c r="J457" s="11"/>
       <c r="K457" s="20"/>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A458" s="40">
         <f t="shared" ref="A458:A475" si="18">EDATE(A457,1)</f>
         <v>42064</v>
@@ -14255,7 +14271,7 @@
       <c r="J458" s="11"/>
       <c r="K458" s="20"/>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A459" s="40">
         <f t="shared" si="18"/>
         <v>42095</v>
@@ -14280,7 +14296,7 @@
         <v>42159</v>
       </c>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A460" s="40"/>
       <c r="B460" s="20" t="s">
         <v>48</v>
@@ -14302,7 +14318,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A461" s="40"/>
       <c r="B461" s="20" t="s">
         <v>353</v>
@@ -14324,7 +14340,7 @@
       <c r="J461" s="11"/>
       <c r="K461" s="20"/>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A462" s="40">
         <f>EDATE(A459,1)</f>
         <v>42125</v>
@@ -14349,7 +14365,7 @@
         <v>42129</v>
       </c>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A463" s="40"/>
       <c r="B463" s="20" t="s">
         <v>112</v>
@@ -14369,7 +14385,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A464" s="40"/>
       <c r="B464" s="20" t="s">
         <v>155</v>
@@ -14391,7 +14407,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A465" s="40"/>
       <c r="B465" s="20" t="s">
         <v>45</v>
@@ -14413,7 +14429,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A466" s="40"/>
       <c r="B466" s="20" t="s">
         <v>48</v>
@@ -14435,7 +14451,7 @@
         <v>42041</v>
       </c>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A467" s="40"/>
       <c r="B467" s="20" t="s">
         <v>357</v>
@@ -14455,7 +14471,7 @@
       <c r="J467" s="11"/>
       <c r="K467" s="20"/>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A468" s="40">
         <f>EDATE(A462,1)</f>
         <v>42156</v>
@@ -14480,7 +14496,7 @@
       <c r="J468" s="11"/>
       <c r="K468" s="20"/>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A469" s="40">
         <f t="shared" si="18"/>
         <v>42186</v>
@@ -14505,7 +14521,7 @@
       <c r="J469" s="11"/>
       <c r="K469" s="20"/>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A470" s="40">
         <f t="shared" si="18"/>
         <v>42217</v>
@@ -14530,7 +14546,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A471" s="40"/>
       <c r="B471" s="20" t="s">
         <v>361</v>
@@ -14552,7 +14568,7 @@
       <c r="J471" s="11"/>
       <c r="K471" s="20"/>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A472" s="40">
         <f>EDATE(A470,1)</f>
         <v>42248</v>
@@ -14577,7 +14593,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A473" s="40"/>
       <c r="B473" s="20" t="s">
         <v>363</v>
@@ -14599,7 +14615,7 @@
       <c r="J473" s="11"/>
       <c r="K473" s="20"/>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A474" s="40">
         <f>EDATE(A472,1)</f>
         <v>42278</v>
@@ -14624,7 +14640,7 @@
       <c r="J474" s="11"/>
       <c r="K474" s="20"/>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A475" s="40">
         <f t="shared" si="18"/>
         <v>42309</v>
@@ -14649,7 +14665,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A476" s="40"/>
       <c r="B476" s="20" t="s">
         <v>53</v>
@@ -14669,7 +14685,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A477" s="40"/>
       <c r="B477" s="20" t="s">
         <v>77</v>
@@ -14691,7 +14707,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A478" s="40"/>
       <c r="B478" s="20" t="s">
         <v>48</v>
@@ -14713,7 +14729,7 @@
         <v>42228</v>
       </c>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A479" s="40"/>
       <c r="B479" s="20" t="s">
         <v>48</v>
@@ -14735,7 +14751,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A480" s="40"/>
       <c r="B480" s="20" t="s">
         <v>369</v>
@@ -14757,7 +14773,7 @@
       <c r="J480" s="11"/>
       <c r="K480" s="20"/>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A481" s="40">
         <f>EDATE(A475,1)</f>
         <v>42339</v>
@@ -14782,7 +14798,7 @@
       <c r="J481" s="11"/>
       <c r="K481" s="20"/>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A482" s="48" t="s">
         <v>371</v>
       </c>
@@ -14800,7 +14816,7 @@
       <c r="J482" s="11"/>
       <c r="K482" s="20"/>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A483" s="40">
         <v>42370</v>
       </c>
@@ -14824,7 +14840,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A484" s="40"/>
       <c r="B484" s="20" t="s">
         <v>125</v>
@@ -14844,7 +14860,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A485" s="40"/>
       <c r="B485" s="20" t="s">
         <v>68</v>
@@ -14864,7 +14880,7 @@
       <c r="J485" s="11"/>
       <c r="K485" s="20"/>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A486" s="40"/>
       <c r="B486" s="20"/>
       <c r="C486" s="13">
@@ -14882,7 +14898,7 @@
       <c r="J486" s="11"/>
       <c r="K486" s="20"/>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A487" s="40">
         <f>EDATE(A483,1)</f>
         <v>42401</v>
@@ -14903,7 +14919,7 @@
       <c r="J487" s="11"/>
       <c r="K487" s="20"/>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A488" s="40">
         <f t="shared" ref="A488:A501" si="19">EDATE(A487,1)</f>
         <v>42430</v>
@@ -14924,7 +14940,7 @@
       <c r="J488" s="11"/>
       <c r="K488" s="20"/>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A489" s="40">
         <f t="shared" si="19"/>
         <v>42461</v>
@@ -14945,7 +14961,7 @@
       <c r="J489" s="11"/>
       <c r="K489" s="20"/>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A490" s="40">
         <f t="shared" si="19"/>
         <v>42491</v>
@@ -14966,7 +14982,7 @@
       <c r="J490" s="11"/>
       <c r="K490" s="20"/>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A491" s="40">
         <f t="shared" si="19"/>
         <v>42522</v>
@@ -14987,7 +15003,7 @@
       <c r="J491" s="11"/>
       <c r="K491" s="20"/>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A492" s="40">
         <f t="shared" si="19"/>
         <v>42552</v>
@@ -15008,7 +15024,7 @@
       <c r="J492" s="11"/>
       <c r="K492" s="20"/>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A493" s="40">
         <f t="shared" si="19"/>
         <v>42583</v>
@@ -15033,7 +15049,7 @@
         <v>42590</v>
       </c>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A494" s="40"/>
       <c r="B494" s="20" t="s">
         <v>48</v>
@@ -15055,7 +15071,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A495" s="40"/>
       <c r="B495" s="20" t="s">
         <v>155</v>
@@ -15077,7 +15093,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A496" s="40"/>
       <c r="B496" s="20"/>
       <c r="C496" s="13">
@@ -15095,7 +15111,7 @@
       <c r="J496" s="11"/>
       <c r="K496" s="20"/>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A497" s="40">
         <f>EDATE(A493,1)</f>
         <v>42614</v>
@@ -15116,7 +15132,7 @@
       <c r="J497" s="11"/>
       <c r="K497" s="20"/>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A498" s="40">
         <f t="shared" si="19"/>
         <v>42644</v>
@@ -15141,7 +15157,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A499" s="40"/>
       <c r="B499" s="20"/>
       <c r="C499" s="13">
@@ -15159,7 +15175,7 @@
       <c r="J499" s="11"/>
       <c r="K499" s="20"/>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A500" s="40">
         <f>EDATE(A498,1)</f>
         <v>42675</v>
@@ -15180,7 +15196,7 @@
       <c r="J500" s="11"/>
       <c r="K500" s="20"/>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A501" s="40">
         <f t="shared" si="19"/>
         <v>42705</v>
@@ -15205,7 +15221,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A502" s="40"/>
       <c r="B502" s="20"/>
       <c r="C502" s="13">
@@ -15223,7 +15239,7 @@
       <c r="J502" s="11"/>
       <c r="K502" s="20"/>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A503" s="52" t="s">
         <v>378</v>
       </c>
@@ -15241,7 +15257,7 @@
       <c r="J503" s="12"/>
       <c r="K503" s="15"/>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A504" s="40">
         <v>42736</v>
       </c>
@@ -15263,7 +15279,7 @@
       <c r="J504" s="11"/>
       <c r="K504" s="20"/>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A505" s="40"/>
       <c r="B505" s="20" t="s">
         <v>60</v>
@@ -15285,7 +15301,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A506" s="40"/>
       <c r="B506" s="20" t="s">
         <v>48</v>
@@ -15307,7 +15323,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A507" s="40"/>
       <c r="B507" s="20" t="s">
         <v>48</v>
@@ -15327,7 +15343,7 @@
       <c r="J507" s="11"/>
       <c r="K507" s="20"/>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A508" s="40"/>
       <c r="B508" s="20"/>
       <c r="C508" s="13">
@@ -15345,7 +15361,7 @@
       <c r="J508" s="11"/>
       <c r="K508" s="20"/>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A509" s="40">
         <f>EDATE(A504,1)</f>
         <v>42767</v>
@@ -15366,7 +15382,7 @@
       <c r="J509" s="11"/>
       <c r="K509" s="20"/>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A510" s="40">
         <f t="shared" ref="A510:A513" si="20">EDATE(A509,1)</f>
         <v>42795</v>
@@ -15391,7 +15407,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A511" s="40"/>
       <c r="B511" s="20"/>
       <c r="C511" s="13">
@@ -15409,7 +15425,7 @@
       <c r="J511" s="11"/>
       <c r="K511" s="20"/>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A512" s="40">
         <f>EDATE(A510,1)</f>
         <v>42826</v>
@@ -15430,7 +15446,7 @@
       <c r="J512" s="11"/>
       <c r="K512" s="20"/>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A513" s="40">
         <f t="shared" si="20"/>
         <v>42856</v>
@@ -15455,7 +15471,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A514" s="40"/>
       <c r="B514" s="20" t="s">
         <v>57</v>
@@ -15477,7 +15493,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A515" s="40"/>
       <c r="B515" s="20" t="s">
         <v>57</v>
@@ -15499,7 +15515,7 @@
         <v>42772</v>
       </c>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A516" s="40"/>
       <c r="B516" s="20" t="s">
         <v>45</v>
@@ -15521,7 +15537,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A517" s="40"/>
       <c r="B517" s="20"/>
       <c r="C517" s="13">
@@ -15539,7 +15555,7 @@
       <c r="J517" s="11"/>
       <c r="K517" s="20"/>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A518" s="40">
         <f>EDATE(A513,1)</f>
         <v>42887</v>
@@ -15564,7 +15580,7 @@
         <v>42984</v>
       </c>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A519" s="40"/>
       <c r="B519" s="20" t="s">
         <v>48</v>
@@ -15586,7 +15602,7 @@
         <v>42801</v>
       </c>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A520" s="40"/>
       <c r="B520" s="20"/>
       <c r="C520" s="13">
@@ -15604,7 +15620,7 @@
       <c r="J520" s="11"/>
       <c r="K520" s="20"/>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A521" s="40">
         <f>EDATE(A518,1)</f>
         <v>42917</v>
@@ -15629,7 +15645,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A522" s="40"/>
       <c r="B522" s="20" t="s">
         <v>45</v>
@@ -15651,7 +15667,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A523" s="40"/>
       <c r="B523" s="20" t="s">
         <v>48</v>
@@ -15673,7 +15689,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A524" s="40"/>
       <c r="B524" s="20"/>
       <c r="C524" s="13">
@@ -15691,7 +15707,7 @@
       <c r="J524" s="11"/>
       <c r="K524" s="20"/>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A525" s="40">
         <f>EDATE(A521,1)</f>
         <v>42948</v>
@@ -15712,7 +15728,7 @@
       <c r="J525" s="11"/>
       <c r="K525" s="20"/>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A526" s="40">
         <f>EDATE(A525,1)</f>
         <v>42979</v>
@@ -15737,7 +15753,7 @@
         <v>42834</v>
       </c>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A527" s="40"/>
       <c r="B527" s="20" t="s">
         <v>48</v>
@@ -15759,7 +15775,7 @@
         <v>42835</v>
       </c>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A528" s="40"/>
       <c r="B528" s="20" t="s">
         <v>48</v>
@@ -15781,7 +15797,7 @@
         <v>42777</v>
       </c>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A529" s="40"/>
       <c r="B529" s="20" t="s">
         <v>77</v>
@@ -15803,7 +15819,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A530" s="40"/>
       <c r="B530" s="20" t="s">
         <v>48</v>
@@ -15825,7 +15841,7 @@
         <v>42989</v>
       </c>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A531" s="40"/>
       <c r="B531" s="20"/>
       <c r="C531" s="13">
@@ -15843,7 +15859,7 @@
       <c r="J531" s="11"/>
       <c r="K531" s="20"/>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A532" s="40">
         <f>EDATE(A526,1)</f>
         <v>43009</v>
@@ -15864,7 +15880,7 @@
       <c r="J532" s="11"/>
       <c r="K532" s="20"/>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A533" s="40">
         <f>EDATE(A532,1)</f>
         <v>43040</v>
@@ -15889,7 +15905,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A534" s="40"/>
       <c r="B534" s="20"/>
       <c r="C534" s="13">
@@ -15907,7 +15923,7 @@
       <c r="J534" s="11"/>
       <c r="K534" s="20"/>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A535" s="40">
         <f>EDATE(A533,1)</f>
         <v>43070</v>
@@ -15932,7 +15948,7 @@
       <c r="J535" s="11"/>
       <c r="K535" s="20"/>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A536" s="48" t="s">
         <v>390</v>
       </c>
@@ -15950,7 +15966,7 @@
       <c r="J536" s="11"/>
       <c r="K536" s="20"/>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A537" s="40">
         <v>43101</v>
       </c>
@@ -15972,7 +15988,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A538" s="40"/>
       <c r="B538" s="20"/>
       <c r="C538" s="13">
@@ -15990,7 +16006,7 @@
       <c r="J538" s="11"/>
       <c r="K538" s="20"/>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A539" s="40">
         <f>EDATE(A537,1)</f>
         <v>43132</v>
@@ -16015,7 +16031,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A540" s="40"/>
       <c r="B540" s="20"/>
       <c r="C540" s="13">
@@ -16033,7 +16049,7 @@
       <c r="J540" s="11"/>
       <c r="K540" s="20"/>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A541" s="40">
         <f>EDATE(A539,1)</f>
         <v>43160</v>
@@ -16054,7 +16070,7 @@
       <c r="J541" s="11"/>
       <c r="K541" s="20"/>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A542" s="40">
         <f t="shared" ref="A542:A555" si="21">EDATE(A541,1)</f>
         <v>43191</v>
@@ -16079,7 +16095,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A543" s="40"/>
       <c r="B543" s="20" t="s">
         <v>48</v>
@@ -16101,7 +16117,7 @@
         <v>43378</v>
       </c>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A544" s="40"/>
       <c r="B544" s="20"/>
       <c r="C544" s="13">
@@ -16119,7 +16135,7 @@
       <c r="J544" s="11"/>
       <c r="K544" s="20"/>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A545" s="40">
         <f>EDATE(A542,1)</f>
         <v>43221</v>
@@ -16144,7 +16160,7 @@
       <c r="J545" s="11"/>
       <c r="K545" s="20"/>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A546" s="40">
         <f t="shared" si="21"/>
         <v>43252</v>
@@ -16167,7 +16183,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A547" s="40"/>
       <c r="B547" s="20" t="s">
         <v>48</v>
@@ -16189,7 +16205,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A548" s="40"/>
       <c r="B548" s="20" t="s">
         <v>48</v>
@@ -16211,7 +16227,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A549" s="40"/>
       <c r="B549" s="20" t="s">
         <v>398</v>
@@ -16233,7 +16249,7 @@
       <c r="J549" s="11"/>
       <c r="K549" s="20"/>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A550" s="40">
         <f>EDATE(A546,1)</f>
         <v>43282</v>
@@ -16258,7 +16274,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A551" s="40"/>
       <c r="B551" s="20" t="s">
         <v>53</v>
@@ -16280,7 +16296,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A552" s="40"/>
       <c r="B552" s="20" t="s">
         <v>401</v>
@@ -16302,7 +16318,7 @@
       <c r="J552" s="11"/>
       <c r="K552" s="20"/>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A553" s="40">
         <f>EDATE(A550,1)</f>
         <v>43313</v>
@@ -16327,7 +16343,7 @@
       <c r="J553" s="12"/>
       <c r="K553" s="15"/>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A554" s="40">
         <f t="shared" si="21"/>
         <v>43344</v>
@@ -16352,7 +16368,7 @@
       <c r="J554" s="11"/>
       <c r="K554" s="20"/>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A555" s="40">
         <f t="shared" si="21"/>
         <v>43374</v>
@@ -16377,7 +16393,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A556" s="40"/>
       <c r="B556" s="20" t="s">
         <v>68</v>
@@ -16399,7 +16415,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A557" s="40"/>
       <c r="B557" s="20"/>
       <c r="C557" s="13">
@@ -16417,7 +16433,7 @@
       <c r="J557" s="11"/>
       <c r="K557" s="20"/>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A558" s="40">
         <f>EDATE(A555,1)</f>
         <v>43405</v>
@@ -16438,7 +16454,7 @@
       <c r="J558" s="11"/>
       <c r="K558" s="20"/>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A559" s="40">
         <f>EDATE(A558,1)</f>
         <v>43435</v>
@@ -16463,7 +16479,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A560" s="40"/>
       <c r="B560" s="20"/>
       <c r="C560" s="13">
@@ -16481,7 +16497,7 @@
       <c r="J560" s="11"/>
       <c r="K560" s="20"/>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A561" s="48" t="s">
         <v>407</v>
       </c>
@@ -16499,7 +16515,7 @@
       <c r="J561" s="11"/>
       <c r="K561" s="20"/>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A562" s="40">
         <v>43466</v>
       </c>
@@ -16523,7 +16539,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A563" s="40"/>
       <c r="B563" s="20" t="s">
         <v>48</v>
@@ -16545,7 +16561,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A564" s="40"/>
       <c r="B564" s="20" t="s">
         <v>45</v>
@@ -16567,7 +16583,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A565" s="40"/>
       <c r="B565" s="20"/>
       <c r="C565" s="13">
@@ -16585,7 +16601,7 @@
       <c r="J565" s="11"/>
       <c r="K565" s="20"/>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A566" s="40">
         <f>EDATE(A562,1)</f>
         <v>43497</v>
@@ -16606,7 +16622,7 @@
       <c r="J566" s="11"/>
       <c r="K566" s="20"/>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A567" s="40">
         <f t="shared" ref="A567:A582" si="22">EDATE(A566,1)</f>
         <v>43525</v>
@@ -16627,7 +16643,7 @@
       <c r="J567" s="11"/>
       <c r="K567" s="20"/>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A568" s="40">
         <f t="shared" si="22"/>
         <v>43556</v>
@@ -16654,7 +16670,7 @@
         <v>43528</v>
       </c>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A569" s="40">
         <f t="shared" si="22"/>
         <v>43586</v>
@@ -16675,7 +16691,7 @@
       <c r="J569" s="11"/>
       <c r="K569" s="20"/>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A570" s="40">
         <f t="shared" si="22"/>
         <v>43617</v>
@@ -16700,7 +16716,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A571" s="40"/>
       <c r="B571" s="20"/>
       <c r="C571" s="13">
@@ -16718,7 +16734,7 @@
       <c r="J571" s="11"/>
       <c r="K571" s="20"/>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A572" s="40">
         <f>EDATE(A570,1)</f>
         <v>43647</v>
@@ -16739,7 +16755,7 @@
       <c r="J572" s="11"/>
       <c r="K572" s="20"/>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A573" s="40">
         <f t="shared" si="22"/>
         <v>43678</v>
@@ -16764,7 +16780,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A574" s="40"/>
       <c r="B574" s="20" t="s">
         <v>48</v>
@@ -16786,7 +16802,7 @@
         <v>43717</v>
       </c>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A575" s="40"/>
       <c r="B575" s="20"/>
       <c r="C575" s="13">
@@ -16804,7 +16820,7 @@
       <c r="J575" s="11"/>
       <c r="K575" s="20"/>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A576" s="40">
         <f>EDATE(A573,1)</f>
         <v>43709</v>
@@ -16829,7 +16845,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A577" s="40"/>
       <c r="B577" s="20" t="s">
         <v>112</v>
@@ -16849,7 +16865,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A578" s="40"/>
       <c r="B578" s="20" t="s">
         <v>51</v>
@@ -16871,7 +16887,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A579" s="40"/>
       <c r="B579" s="20"/>
       <c r="C579" s="13">
@@ -16889,7 +16905,7 @@
       <c r="J579" s="11"/>
       <c r="K579" s="20"/>
     </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A580" s="40">
         <f>EDATE(A576,1)</f>
         <v>43739</v>
@@ -16910,7 +16926,7 @@
       <c r="J580" s="11"/>
       <c r="K580" s="20"/>
     </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A581" s="40">
         <f t="shared" si="22"/>
         <v>43770</v>
@@ -16931,7 +16947,7 @@
       <c r="J581" s="11"/>
       <c r="K581" s="20"/>
     </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A582" s="40">
         <f t="shared" si="22"/>
         <v>43800</v>
@@ -16956,7 +16972,7 @@
         <v>43628</v>
       </c>
     </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A583" s="40"/>
       <c r="B583" s="20" t="s">
         <v>57</v>
@@ -16978,7 +16994,7 @@
         <v>43781</v>
       </c>
     </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A584" s="40"/>
       <c r="B584" s="20"/>
       <c r="C584" s="13">
@@ -16996,7 +17012,7 @@
       <c r="J584" s="11"/>
       <c r="K584" s="20"/>
     </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A585" s="48" t="s">
         <v>416</v>
       </c>
@@ -17014,7 +17030,7 @@
       <c r="J585" s="11"/>
       <c r="K585" s="20"/>
     </row>
-    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A586" s="40">
         <v>43831</v>
       </c>
@@ -17038,7 +17054,7 @@
         <v>44075</v>
       </c>
     </row>
-    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A587" s="40"/>
       <c r="B587" s="20" t="s">
         <v>417</v>
@@ -17058,7 +17074,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A588" s="40"/>
       <c r="B588" s="20"/>
       <c r="C588" s="13">
@@ -17076,7 +17092,7 @@
       <c r="J588" s="11"/>
       <c r="K588" s="20"/>
     </row>
-    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A589" s="40">
         <f>EDATE(A586,1)</f>
         <v>43862</v>
@@ -17097,7 +17113,7 @@
       <c r="J589" s="11"/>
       <c r="K589" s="20"/>
     </row>
-    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A590" s="40">
         <f t="shared" ref="A590:A600" si="23">EDATE(A589,1)</f>
         <v>43891</v>
@@ -17118,7 +17134,7 @@
       <c r="J590" s="11"/>
       <c r="K590" s="20"/>
     </row>
-    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A591" s="40">
         <f t="shared" si="23"/>
         <v>43922</v>
@@ -17139,7 +17155,7 @@
       <c r="J591" s="11"/>
       <c r="K591" s="20"/>
     </row>
-    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A592" s="40">
         <f t="shared" si="23"/>
         <v>43952</v>
@@ -17160,7 +17176,7 @@
       <c r="J592" s="11"/>
       <c r="K592" s="20"/>
     </row>
-    <row r="593" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A593" s="40">
         <f t="shared" si="23"/>
         <v>43983</v>
@@ -17181,7 +17197,7 @@
       <c r="J593" s="11"/>
       <c r="K593" s="20"/>
     </row>
-    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A594" s="40">
         <f t="shared" si="23"/>
         <v>44013</v>
@@ -17202,7 +17218,7 @@
       <c r="J594" s="11"/>
       <c r="K594" s="20"/>
     </row>
-    <row r="595" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A595" s="40">
         <f t="shared" si="23"/>
         <v>44044</v>
@@ -17223,7 +17239,7 @@
       <c r="J595" s="11"/>
       <c r="K595" s="20"/>
     </row>
-    <row r="596" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A596" s="40">
         <f t="shared" si="23"/>
         <v>44075</v>
@@ -17244,7 +17260,7 @@
       <c r="J596" s="11"/>
       <c r="K596" s="20"/>
     </row>
-    <row r="597" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A597" s="40">
         <f t="shared" si="23"/>
         <v>44105</v>
@@ -17267,7 +17283,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="598" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A598" s="40"/>
       <c r="B598" s="20"/>
       <c r="C598" s="13">
@@ -17285,7 +17301,7 @@
       <c r="J598" s="11"/>
       <c r="K598" s="20"/>
     </row>
-    <row r="599" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A599" s="40">
         <f>EDATE(A597,1)</f>
         <v>44136</v>
@@ -17306,7 +17322,7 @@
       <c r="J599" s="11"/>
       <c r="K599" s="20"/>
     </row>
-    <row r="600" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A600" s="40">
         <f t="shared" si="23"/>
         <v>44166</v>
@@ -17329,7 +17345,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="601" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A601" s="40"/>
       <c r="B601" s="20" t="s">
         <v>421</v>
@@ -17351,7 +17367,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="602" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A602" s="40"/>
       <c r="B602" s="20"/>
       <c r="C602" s="13">
@@ -17369,7 +17385,7 @@
       <c r="J602" s="11"/>
       <c r="K602" s="20"/>
     </row>
-    <row r="603" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A603" s="48" t="s">
         <v>423</v>
       </c>
@@ -17387,7 +17403,7 @@
       <c r="J603" s="11"/>
       <c r="K603" s="20"/>
     </row>
-    <row r="604" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A604" s="40">
         <v>44197</v>
       </c>
@@ -17407,7 +17423,7 @@
       <c r="J604" s="11"/>
       <c r="K604" s="20"/>
     </row>
-    <row r="605" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A605" s="40">
         <f>EDATE(A604,1)</f>
         <v>44228</v>
@@ -17428,7 +17444,7 @@
       <c r="J605" s="11"/>
       <c r="K605" s="20"/>
     </row>
-    <row r="606" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A606" s="40">
         <f t="shared" ref="A606:A617" si="24">EDATE(A605,1)</f>
         <v>44256</v>
@@ -17448,7 +17464,7 @@
       <c r="J606" s="11"/>
       <c r="K606" s="20"/>
     </row>
-    <row r="607" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A607" s="40"/>
       <c r="B607" s="20"/>
       <c r="C607" s="13">
@@ -17466,7 +17482,7 @@
       <c r="J607" s="11"/>
       <c r="K607" s="20"/>
     </row>
-    <row r="608" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A608" s="40">
         <f>EDATE(A606,1)</f>
         <v>44287</v>
@@ -17487,7 +17503,7 @@
       <c r="J608" s="11"/>
       <c r="K608" s="20"/>
     </row>
-    <row r="609" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A609" s="40">
         <f t="shared" si="24"/>
         <v>44317</v>
@@ -17508,7 +17524,7 @@
       <c r="J609" s="11"/>
       <c r="K609" s="20"/>
     </row>
-    <row r="610" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A610" s="40">
         <f t="shared" si="24"/>
         <v>44348</v>
@@ -17531,7 +17547,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="611" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A611" s="40"/>
       <c r="B611" s="20" t="s">
         <v>48</v>
@@ -17553,7 +17569,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="612" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A612" s="40"/>
       <c r="B612" s="20"/>
       <c r="C612" s="13">
@@ -17571,7 +17587,7 @@
       <c r="J612" s="11"/>
       <c r="K612" s="20"/>
     </row>
-    <row r="613" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A613" s="40">
         <f>EDATE(A610,1)</f>
         <v>44378</v>
@@ -17592,7 +17608,7 @@
       <c r="J613" s="11"/>
       <c r="K613" s="20"/>
     </row>
-    <row r="614" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A614" s="40">
         <f t="shared" si="24"/>
         <v>44409</v>
@@ -17613,7 +17629,7 @@
       <c r="J614" s="11"/>
       <c r="K614" s="20"/>
     </row>
-    <row r="615" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A615" s="40">
         <f t="shared" si="24"/>
         <v>44440</v>
@@ -17634,7 +17650,7 @@
       <c r="J615" s="11"/>
       <c r="K615" s="20"/>
     </row>
-    <row r="616" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A616" s="40">
         <f t="shared" si="24"/>
         <v>44470</v>
@@ -17655,7 +17671,7 @@
       <c r="J616" s="11"/>
       <c r="K616" s="20"/>
     </row>
-    <row r="617" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A617" s="40">
         <f t="shared" si="24"/>
         <v>44501</v>
@@ -17680,7 +17696,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="618" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A618" s="40"/>
       <c r="B618" s="20" t="s">
         <v>77</v>
@@ -17702,7 +17718,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="619" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A619" s="40"/>
       <c r="B619" s="20"/>
       <c r="C619" s="13">
@@ -17720,7 +17736,7 @@
       <c r="J619" s="11"/>
       <c r="K619" s="20"/>
     </row>
-    <row r="620" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A620" s="40">
         <f>EDATE(A617,1)</f>
         <v>44531</v>
@@ -17741,7 +17757,7 @@
       <c r="J620" s="11"/>
       <c r="K620" s="20"/>
     </row>
-    <row r="621" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A621" s="48" t="s">
         <v>428</v>
       </c>
@@ -17759,7 +17775,7 @@
       <c r="J621" s="11"/>
       <c r="K621" s="20"/>
     </row>
-    <row r="622" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A622" s="40">
         <v>44562</v>
       </c>
@@ -17779,7 +17795,7 @@
       <c r="J622" s="11"/>
       <c r="K622" s="20"/>
     </row>
-    <row r="623" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A623" s="40">
         <f>EDATE(A622,1)</f>
         <v>44593</v>
@@ -17800,7 +17816,7 @@
       <c r="J623" s="11"/>
       <c r="K623" s="20"/>
     </row>
-    <row r="624" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A624" s="40">
         <f t="shared" ref="A624:A638" si="25">EDATE(A623,1)</f>
         <v>44621</v>
@@ -17823,7 +17839,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="625" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A625" s="40"/>
       <c r="B625" s="20"/>
       <c r="C625" s="13">
@@ -17841,7 +17857,7 @@
       <c r="J625" s="11"/>
       <c r="K625" s="20"/>
     </row>
-    <row r="626" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A626" s="40">
         <f>EDATE(A624,1)</f>
         <v>44652</v>
@@ -17862,7 +17878,7 @@
       <c r="J626" s="11"/>
       <c r="K626" s="20"/>
     </row>
-    <row r="627" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A627" s="40">
         <f t="shared" si="25"/>
         <v>44682</v>
@@ -17883,7 +17899,7 @@
       <c r="J627" s="11"/>
       <c r="K627" s="20"/>
     </row>
-    <row r="628" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A628" s="40"/>
       <c r="B628" s="20" t="s">
         <v>48</v>
@@ -17905,7 +17921,7 @@
         <v>44597</v>
       </c>
     </row>
-    <row r="629" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A629" s="40"/>
       <c r="B629" s="20" t="s">
         <v>48</v>
@@ -17927,7 +17943,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="630" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A630" s="40"/>
       <c r="B630" s="20" t="s">
         <v>53</v>
@@ -17947,7 +17963,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="631" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A631" s="40">
         <f>EDATE(A627,1)</f>
         <v>44713</v>
@@ -17972,7 +17988,7 @@
         <v>44748</v>
       </c>
     </row>
-    <row r="632" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A632" s="40"/>
       <c r="B632" s="20" t="s">
         <v>48</v>
@@ -17994,7 +18010,7 @@
         <v>44748</v>
       </c>
     </row>
-    <row r="633" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A633" s="40"/>
       <c r="B633" s="20"/>
       <c r="C633" s="13">
@@ -18012,7 +18028,7 @@
       <c r="J633" s="11"/>
       <c r="K633" s="20"/>
     </row>
-    <row r="634" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A634" s="40">
         <f>EDATE(A631,1)</f>
         <v>44743</v>
@@ -18033,7 +18049,7 @@
       <c r="J634" s="11"/>
       <c r="K634" s="20"/>
     </row>
-    <row r="635" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A635" s="40">
         <f t="shared" si="25"/>
         <v>44774</v>
@@ -18058,7 +18074,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="636" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A636" s="40"/>
       <c r="B636" s="20"/>
       <c r="C636" s="13">
@@ -18076,7 +18092,7 @@
       <c r="J636" s="11"/>
       <c r="K636" s="20"/>
     </row>
-    <row r="637" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A637" s="40">
         <f>EDATE(A635,1)</f>
         <v>44805</v>
@@ -18097,7 +18113,7 @@
       <c r="J637" s="11"/>
       <c r="K637" s="20"/>
     </row>
-    <row r="638" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A638" s="40">
         <f t="shared" si="25"/>
         <v>44835</v>
@@ -18122,7 +18138,7 @@
         <v>44661</v>
       </c>
     </row>
-    <row r="639" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A639" s="40"/>
       <c r="B639" s="20" t="s">
         <v>434</v>
@@ -18146,7 +18162,7 @@
         <v>44844</v>
       </c>
     </row>
-    <row r="640" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A640" s="40"/>
       <c r="B640" s="20" t="s">
         <v>434</v>
@@ -18168,7 +18184,7 @@
         <v>44853</v>
       </c>
     </row>
-    <row r="641" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A641" s="40">
         <v>44866</v>
       </c>
@@ -18188,7 +18204,7 @@
       <c r="J641" s="11"/>
       <c r="K641" s="20"/>
     </row>
-    <row r="642" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A642" s="40">
         <v>44896</v>
       </c>
@@ -18214,7 +18230,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="643" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A643" s="48" t="s">
         <v>433</v>
       </c>
@@ -18232,7 +18248,7 @@
       <c r="J643" s="11"/>
       <c r="K643" s="20"/>
     </row>
-    <row r="644" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A644" s="40">
         <v>44927</v>
       </c>
@@ -18258,7 +18274,7 @@
         <v>44949</v>
       </c>
     </row>
-    <row r="645" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A645" s="40"/>
       <c r="B645" s="20" t="s">
         <v>437</v>
@@ -18280,7 +18296,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="646" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A646" s="40"/>
       <c r="B646" s="20" t="s">
         <v>434</v>
@@ -18302,7 +18318,7 @@
         <v>44944</v>
       </c>
     </row>
-    <row r="647" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A647" s="40">
         <v>44958</v>
       </c>
@@ -18326,7 +18342,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="648" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A648" s="40">
         <v>44986</v>
       </c>
@@ -18346,7 +18362,7 @@
       <c r="J648" s="11"/>
       <c r="K648" s="20"/>
     </row>
-    <row r="649" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A649" s="40">
         <v>45017</v>
       </c>
@@ -18366,20 +18382,22 @@
       <c r="J649" s="11"/>
       <c r="K649" s="20"/>
     </row>
-    <row r="650" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A650" s="40">
         <v>45047</v>
       </c>
       <c r="B650" s="15" t="s">
         <v>434</v>
       </c>
-      <c r="C650" s="42"/>
+      <c r="C650" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D650" s="43"/>
       <c r="E650" s="51"/>
       <c r="F650" s="15"/>
-      <c r="G650" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G650" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H650" s="43">
         <v>1</v>
@@ -18390,10 +18408,10 @@
         <v>45044</v>
       </c>
     </row>
-    <row r="651" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A651" s="40"/>
       <c r="B651" s="15" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C651" s="42"/>
       <c r="D651" s="43"/>
@@ -18409,13 +18427,13 @@
       <c r="I651" s="51"/>
       <c r="J651" s="12"/>
       <c r="K651" s="53" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="652" spans="1:11" x14ac:dyDescent="0.25">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="652" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A652" s="40"/>
       <c r="B652" s="15" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C652" s="42"/>
       <c r="D652" s="43"/>
@@ -18431,54 +18449,64 @@
       <c r="I652" s="51"/>
       <c r="J652" s="12"/>
       <c r="K652" s="53" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="653" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A653" s="40"/>
+      <c r="B653" s="15" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="653" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A653" s="40">
+      <c r="C653" s="42"/>
+      <c r="D653" s="43"/>
+      <c r="E653" s="51"/>
+      <c r="F653" s="15"/>
+      <c r="G653" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H653" s="43">
+        <v>4</v>
+      </c>
+      <c r="I653" s="51"/>
+      <c r="J653" s="12"/>
+      <c r="K653" s="53" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="654" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A654" s="40"/>
+      <c r="B654" s="15" t="s">
+        <v>437</v>
+      </c>
+      <c r="C654" s="42"/>
+      <c r="D654" s="43"/>
+      <c r="E654" s="51"/>
+      <c r="F654" s="15"/>
+      <c r="G654" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H654" s="43">
+        <v>2</v>
+      </c>
+      <c r="I654" s="51"/>
+      <c r="J654" s="12"/>
+      <c r="K654" s="53" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="655" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A655" s="40">
         <v>45078</v>
       </c>
-      <c r="B653" s="20" t="s">
-        <v>441</v>
-      </c>
-      <c r="C653" s="13"/>
-      <c r="D653" s="39"/>
-      <c r="E653" s="9"/>
-      <c r="F653" s="20"/>
-      <c r="G653" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H653" s="39"/>
-      <c r="I653" s="9"/>
-      <c r="J653" s="11"/>
-      <c r="K653" s="20"/>
-    </row>
-    <row r="654" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A654" s="40">
-        <v>45108</v>
-      </c>
-      <c r="B654" s="20"/>
-      <c r="C654" s="13"/>
-      <c r="D654" s="39"/>
-      <c r="E654" s="9"/>
-      <c r="F654" s="20"/>
-      <c r="G654" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H654" s="39"/>
-      <c r="I654" s="9"/>
-      <c r="J654" s="11"/>
-      <c r="K654" s="20"/>
-    </row>
-    <row r="655" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A655" s="40">
-        <v>45139</v>
-      </c>
-      <c r="B655" s="20"/>
+      <c r="B655" s="20" t="s">
+        <v>447</v>
+      </c>
       <c r="C655" s="13"/>
-      <c r="D655" s="39"/>
+      <c r="D655" s="39">
+        <v>3</v>
+      </c>
       <c r="E655" s="9"/>
       <c r="F655" s="20"/>
       <c r="G655" s="13" t="str">
@@ -18488,13 +18516,15 @@
       <c r="H655" s="39"/>
       <c r="I655" s="9"/>
       <c r="J655" s="11"/>
-      <c r="K655" s="20"/>
-    </row>
-    <row r="656" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A656" s="40">
-        <v>45170</v>
-      </c>
-      <c r="B656" s="20"/>
+      <c r="K655" s="20" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="656" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A656" s="40"/>
+      <c r="B656" s="20" t="s">
+        <v>437</v>
+      </c>
       <c r="C656" s="13"/>
       <c r="D656" s="39"/>
       <c r="E656" s="9"/>
@@ -18503,14 +18533,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H656" s="39"/>
+      <c r="H656" s="39">
+        <v>2</v>
+      </c>
       <c r="I656" s="9"/>
       <c r="J656" s="11"/>
-      <c r="K656" s="20"/>
-    </row>
-    <row r="657" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K656" s="20" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="657" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A657" s="40">
-        <v>45200</v>
+        <v>45108</v>
       </c>
       <c r="B657" s="20"/>
       <c r="C657" s="13"/>
@@ -18526,9 +18560,9 @@
       <c r="J657" s="11"/>
       <c r="K657" s="20"/>
     </row>
-    <row r="658" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A658" s="40">
-        <v>45231</v>
+        <v>45139</v>
       </c>
       <c r="B658" s="20"/>
       <c r="C658" s="13"/>
@@ -18544,9 +18578,9 @@
       <c r="J658" s="11"/>
       <c r="K658" s="20"/>
     </row>
-    <row r="659" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A659" s="40">
-        <v>45261</v>
+        <v>45170</v>
       </c>
       <c r="B659" s="20"/>
       <c r="C659" s="13"/>
@@ -18562,9 +18596,9 @@
       <c r="J659" s="11"/>
       <c r="K659" s="20"/>
     </row>
-    <row r="660" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A660" s="40">
-        <v>45292</v>
+        <v>45200</v>
       </c>
       <c r="B660" s="20"/>
       <c r="C660" s="13"/>
@@ -18580,9 +18614,9 @@
       <c r="J660" s="11"/>
       <c r="K660" s="20"/>
     </row>
-    <row r="661" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A661" s="40">
-        <v>45323</v>
+        <v>45231</v>
       </c>
       <c r="B661" s="20"/>
       <c r="C661" s="13"/>
@@ -18598,9 +18632,9 @@
       <c r="J661" s="11"/>
       <c r="K661" s="20"/>
     </row>
-    <row r="662" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A662" s="40">
-        <v>45352</v>
+        <v>45261</v>
       </c>
       <c r="B662" s="20"/>
       <c r="C662" s="13"/>
@@ -18616,9 +18650,9 @@
       <c r="J662" s="11"/>
       <c r="K662" s="20"/>
     </row>
-    <row r="663" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A663" s="40">
-        <v>45383</v>
+        <v>45292</v>
       </c>
       <c r="B663" s="20"/>
       <c r="C663" s="13"/>
@@ -18634,9 +18668,9 @@
       <c r="J663" s="11"/>
       <c r="K663" s="20"/>
     </row>
-    <row r="664" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A664" s="40">
-        <v>45413</v>
+        <v>45323</v>
       </c>
       <c r="B664" s="20"/>
       <c r="C664" s="13"/>
@@ -18652,9 +18686,9 @@
       <c r="J664" s="11"/>
       <c r="K664" s="20"/>
     </row>
-    <row r="665" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A665" s="40">
-        <v>45444</v>
+        <v>45352</v>
       </c>
       <c r="B665" s="20"/>
       <c r="C665" s="13"/>
@@ -18670,9 +18704,9 @@
       <c r="J665" s="11"/>
       <c r="K665" s="20"/>
     </row>
-    <row r="666" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A666" s="40">
-        <v>45474</v>
+        <v>45383</v>
       </c>
       <c r="B666" s="20"/>
       <c r="C666" s="13"/>
@@ -18688,9 +18722,9 @@
       <c r="J666" s="11"/>
       <c r="K666" s="20"/>
     </row>
-    <row r="667" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A667" s="40">
-        <v>45505</v>
+        <v>45413</v>
       </c>
       <c r="B667" s="20"/>
       <c r="C667" s="13"/>
@@ -18706,9 +18740,9 @@
       <c r="J667" s="11"/>
       <c r="K667" s="20"/>
     </row>
-    <row r="668" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A668" s="40">
-        <v>45536</v>
+        <v>45444</v>
       </c>
       <c r="B668" s="20"/>
       <c r="C668" s="13"/>
@@ -18724,9 +18758,9 @@
       <c r="J668" s="11"/>
       <c r="K668" s="20"/>
     </row>
-    <row r="669" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A669" s="40">
-        <v>45566</v>
+        <v>45474</v>
       </c>
       <c r="B669" s="20"/>
       <c r="C669" s="13"/>
@@ -18742,9 +18776,9 @@
       <c r="J669" s="11"/>
       <c r="K669" s="20"/>
     </row>
-    <row r="670" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A670" s="40">
-        <v>45597</v>
+        <v>45505</v>
       </c>
       <c r="B670" s="20"/>
       <c r="C670" s="13"/>
@@ -18760,9 +18794,9 @@
       <c r="J670" s="11"/>
       <c r="K670" s="20"/>
     </row>
-    <row r="671" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A671" s="40">
-        <v>45627</v>
+        <v>45536</v>
       </c>
       <c r="B671" s="20"/>
       <c r="C671" s="13"/>
@@ -18778,9 +18812,9 @@
       <c r="J671" s="11"/>
       <c r="K671" s="20"/>
     </row>
-    <row r="672" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A672" s="40">
-        <v>45658</v>
+        <v>45566</v>
       </c>
       <c r="B672" s="20"/>
       <c r="C672" s="13"/>
@@ -18796,9 +18830,9 @@
       <c r="J672" s="11"/>
       <c r="K672" s="20"/>
     </row>
-    <row r="673" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A673" s="40">
-        <v>45689</v>
+        <v>45597</v>
       </c>
       <c r="B673" s="20"/>
       <c r="C673" s="13"/>
@@ -18814,9 +18848,9 @@
       <c r="J673" s="11"/>
       <c r="K673" s="20"/>
     </row>
-    <row r="674" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A674" s="40">
-        <v>45717</v>
+        <v>45627</v>
       </c>
       <c r="B674" s="20"/>
       <c r="C674" s="13"/>
@@ -18832,9 +18866,9 @@
       <c r="J674" s="11"/>
       <c r="K674" s="20"/>
     </row>
-    <row r="675" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A675" s="40">
-        <v>45748</v>
+        <v>45658</v>
       </c>
       <c r="B675" s="20"/>
       <c r="C675" s="13"/>
@@ -18850,9 +18884,9 @@
       <c r="J675" s="11"/>
       <c r="K675" s="20"/>
     </row>
-    <row r="676" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A676" s="40">
-        <v>45778</v>
+        <v>45689</v>
       </c>
       <c r="B676" s="20"/>
       <c r="C676" s="13"/>
@@ -18868,9 +18902,9 @@
       <c r="J676" s="11"/>
       <c r="K676" s="20"/>
     </row>
-    <row r="677" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A677" s="40">
-        <v>45809</v>
+        <v>45717</v>
       </c>
       <c r="B677" s="20"/>
       <c r="C677" s="13"/>
@@ -18886,9 +18920,9 @@
       <c r="J677" s="11"/>
       <c r="K677" s="20"/>
     </row>
-    <row r="678" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A678" s="40">
-        <v>45839</v>
+        <v>45748</v>
       </c>
       <c r="B678" s="20"/>
       <c r="C678" s="13"/>
@@ -18904,9 +18938,9 @@
       <c r="J678" s="11"/>
       <c r="K678" s="20"/>
     </row>
-    <row r="679" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A679" s="40">
-        <v>45870</v>
+        <v>45778</v>
       </c>
       <c r="B679" s="20"/>
       <c r="C679" s="13"/>
@@ -18922,9 +18956,9 @@
       <c r="J679" s="11"/>
       <c r="K679" s="20"/>
     </row>
-    <row r="680" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A680" s="40">
-        <v>45901</v>
+        <v>45809</v>
       </c>
       <c r="B680" s="20"/>
       <c r="C680" s="13"/>
@@ -18940,9 +18974,9 @@
       <c r="J680" s="11"/>
       <c r="K680" s="20"/>
     </row>
-    <row r="681" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A681" s="40">
-        <v>45931</v>
+        <v>45839</v>
       </c>
       <c r="B681" s="20"/>
       <c r="C681" s="13"/>
@@ -18958,9 +18992,9 @@
       <c r="J681" s="11"/>
       <c r="K681" s="20"/>
     </row>
-    <row r="682" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A682" s="40">
-        <v>45962</v>
+        <v>45870</v>
       </c>
       <c r="B682" s="20"/>
       <c r="C682" s="13"/>
@@ -18976,9 +19010,9 @@
       <c r="J682" s="11"/>
       <c r="K682" s="20"/>
     </row>
-    <row r="683" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A683" s="40">
-        <v>45992</v>
+        <v>45901</v>
       </c>
       <c r="B683" s="20"/>
       <c r="C683" s="13"/>
@@ -18994,9 +19028,9 @@
       <c r="J683" s="11"/>
       <c r="K683" s="20"/>
     </row>
-    <row r="684" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A684" s="40">
-        <v>46023</v>
+        <v>45931</v>
       </c>
       <c r="B684" s="20"/>
       <c r="C684" s="13"/>
@@ -19012,9 +19046,9 @@
       <c r="J684" s="11"/>
       <c r="K684" s="20"/>
     </row>
-    <row r="685" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A685" s="40">
-        <v>46054</v>
+        <v>45962</v>
       </c>
       <c r="B685" s="20"/>
       <c r="C685" s="13"/>
@@ -19030,9 +19064,9 @@
       <c r="J685" s="11"/>
       <c r="K685" s="20"/>
     </row>
-    <row r="686" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A686" s="40">
-        <v>46082</v>
+        <v>45992</v>
       </c>
       <c r="B686" s="20"/>
       <c r="C686" s="13"/>
@@ -19048,9 +19082,9 @@
       <c r="J686" s="11"/>
       <c r="K686" s="20"/>
     </row>
-    <row r="687" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A687" s="40">
-        <v>46113</v>
+        <v>46023</v>
       </c>
       <c r="B687" s="20"/>
       <c r="C687" s="13"/>
@@ -19066,9 +19100,9 @@
       <c r="J687" s="11"/>
       <c r="K687" s="20"/>
     </row>
-    <row r="688" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A688" s="40">
-        <v>46143</v>
+        <v>46054</v>
       </c>
       <c r="B688" s="20"/>
       <c r="C688" s="13"/>
@@ -19084,9 +19118,9 @@
       <c r="J688" s="11"/>
       <c r="K688" s="20"/>
     </row>
-    <row r="689" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A689" s="40">
-        <v>46174</v>
+        <v>46082</v>
       </c>
       <c r="B689" s="20"/>
       <c r="C689" s="13"/>
@@ -19102,9 +19136,9 @@
       <c r="J689" s="11"/>
       <c r="K689" s="20"/>
     </row>
-    <row r="690" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A690" s="40">
-        <v>46204</v>
+        <v>46113</v>
       </c>
       <c r="B690" s="20"/>
       <c r="C690" s="13"/>
@@ -19120,9 +19154,9 @@
       <c r="J690" s="11"/>
       <c r="K690" s="20"/>
     </row>
-    <row r="691" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A691" s="40">
-        <v>46235</v>
+        <v>46143</v>
       </c>
       <c r="B691" s="20"/>
       <c r="C691" s="13"/>
@@ -19138,9 +19172,9 @@
       <c r="J691" s="11"/>
       <c r="K691" s="20"/>
     </row>
-    <row r="692" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A692" s="40">
-        <v>46266</v>
+        <v>46174</v>
       </c>
       <c r="B692" s="20"/>
       <c r="C692" s="13"/>
@@ -19156,9 +19190,9 @@
       <c r="J692" s="11"/>
       <c r="K692" s="20"/>
     </row>
-    <row r="693" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A693" s="40">
-        <v>46296</v>
+        <v>46204</v>
       </c>
       <c r="B693" s="20"/>
       <c r="C693" s="13"/>
@@ -19174,9 +19208,9 @@
       <c r="J693" s="11"/>
       <c r="K693" s="20"/>
     </row>
-    <row r="694" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A694" s="40">
-        <v>46327</v>
+        <v>46235</v>
       </c>
       <c r="B694" s="20"/>
       <c r="C694" s="13"/>
@@ -19192,9 +19226,9 @@
       <c r="J694" s="11"/>
       <c r="K694" s="20"/>
     </row>
-    <row r="695" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A695" s="40">
-        <v>46357</v>
+        <v>46266</v>
       </c>
       <c r="B695" s="20"/>
       <c r="C695" s="13"/>
@@ -19210,9 +19244,9 @@
       <c r="J695" s="11"/>
       <c r="K695" s="20"/>
     </row>
-    <row r="696" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A696" s="40">
-        <v>46388</v>
+        <v>46296</v>
       </c>
       <c r="B696" s="20"/>
       <c r="C696" s="13"/>
@@ -19228,9 +19262,9 @@
       <c r="J696" s="11"/>
       <c r="K696" s="20"/>
     </row>
-    <row r="697" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A697" s="40">
-        <v>46419</v>
+        <v>46327</v>
       </c>
       <c r="B697" s="20"/>
       <c r="C697" s="13"/>
@@ -19246,9 +19280,9 @@
       <c r="J697" s="11"/>
       <c r="K697" s="20"/>
     </row>
-    <row r="698" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A698" s="40">
-        <v>46447</v>
+        <v>46357</v>
       </c>
       <c r="B698" s="20"/>
       <c r="C698" s="13"/>
@@ -19264,9 +19298,9 @@
       <c r="J698" s="11"/>
       <c r="K698" s="20"/>
     </row>
-    <row r="699" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A699" s="40">
-        <v>46478</v>
+        <v>46388</v>
       </c>
       <c r="B699" s="20"/>
       <c r="C699" s="13"/>
@@ -19282,9 +19316,9 @@
       <c r="J699" s="11"/>
       <c r="K699" s="20"/>
     </row>
-    <row r="700" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A700" s="40">
-        <v>46508</v>
+        <v>46419</v>
       </c>
       <c r="B700" s="20"/>
       <c r="C700" s="13"/>
@@ -19300,9 +19334,9 @@
       <c r="J700" s="11"/>
       <c r="K700" s="20"/>
     </row>
-    <row r="701" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A701" s="40">
-        <v>46539</v>
+        <v>46447</v>
       </c>
       <c r="B701" s="20"/>
       <c r="C701" s="13"/>
@@ -19318,9 +19352,9 @@
       <c r="J701" s="11"/>
       <c r="K701" s="20"/>
     </row>
-    <row r="702" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A702" s="40">
-        <v>46569</v>
+        <v>46478</v>
       </c>
       <c r="B702" s="20"/>
       <c r="C702" s="13"/>
@@ -19336,9 +19370,9 @@
       <c r="J702" s="11"/>
       <c r="K702" s="20"/>
     </row>
-    <row r="703" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A703" s="40">
-        <v>46600</v>
+        <v>46508</v>
       </c>
       <c r="B703" s="20"/>
       <c r="C703" s="13"/>
@@ -19354,9 +19388,9 @@
       <c r="J703" s="11"/>
       <c r="K703" s="20"/>
     </row>
-    <row r="704" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A704" s="40">
-        <v>46631</v>
+        <v>46539</v>
       </c>
       <c r="B704" s="20"/>
       <c r="C704" s="13"/>
@@ -19372,9 +19406,9 @@
       <c r="J704" s="11"/>
       <c r="K704" s="20"/>
     </row>
-    <row r="705" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A705" s="40">
-        <v>46661</v>
+        <v>46569</v>
       </c>
       <c r="B705" s="20"/>
       <c r="C705" s="13"/>
@@ -19390,9 +19424,9 @@
       <c r="J705" s="11"/>
       <c r="K705" s="20"/>
     </row>
-    <row r="706" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A706" s="40">
-        <v>46692</v>
+        <v>46600</v>
       </c>
       <c r="B706" s="20"/>
       <c r="C706" s="13"/>
@@ -19408,9 +19442,9 @@
       <c r="J706" s="11"/>
       <c r="K706" s="20"/>
     </row>
-    <row r="707" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A707" s="40">
-        <v>46722</v>
+        <v>46631</v>
       </c>
       <c r="B707" s="20"/>
       <c r="C707" s="13"/>
@@ -19426,9 +19460,9 @@
       <c r="J707" s="11"/>
       <c r="K707" s="20"/>
     </row>
-    <row r="708" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A708" s="40">
-        <v>46753</v>
+        <v>46661</v>
       </c>
       <c r="B708" s="20"/>
       <c r="C708" s="13"/>
@@ -19444,9 +19478,9 @@
       <c r="J708" s="11"/>
       <c r="K708" s="20"/>
     </row>
-    <row r="709" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A709" s="40">
-        <v>46784</v>
+        <v>46692</v>
       </c>
       <c r="B709" s="20"/>
       <c r="C709" s="13"/>
@@ -19462,9 +19496,9 @@
       <c r="J709" s="11"/>
       <c r="K709" s="20"/>
     </row>
-    <row r="710" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A710" s="40">
-        <v>46813</v>
+        <v>46722</v>
       </c>
       <c r="B710" s="20"/>
       <c r="C710" s="13"/>
@@ -19480,9 +19514,9 @@
       <c r="J710" s="11"/>
       <c r="K710" s="20"/>
     </row>
-    <row r="711" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A711" s="40">
-        <v>46844</v>
+        <v>46753</v>
       </c>
       <c r="B711" s="20"/>
       <c r="C711" s="13"/>
@@ -19498,9 +19532,9 @@
       <c r="J711" s="11"/>
       <c r="K711" s="20"/>
     </row>
-    <row r="712" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A712" s="40">
-        <v>46874</v>
+        <v>46784</v>
       </c>
       <c r="B712" s="20"/>
       <c r="C712" s="13"/>
@@ -19516,9 +19550,9 @@
       <c r="J712" s="11"/>
       <c r="K712" s="20"/>
     </row>
-    <row r="713" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A713" s="40">
-        <v>46905</v>
+        <v>46813</v>
       </c>
       <c r="B713" s="20"/>
       <c r="C713" s="13"/>
@@ -19534,9 +19568,9 @@
       <c r="J713" s="11"/>
       <c r="K713" s="20"/>
     </row>
-    <row r="714" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A714" s="40">
-        <v>46935</v>
+        <v>46844</v>
       </c>
       <c r="B714" s="20"/>
       <c r="C714" s="13"/>
@@ -19552,9 +19586,9 @@
       <c r="J714" s="11"/>
       <c r="K714" s="20"/>
     </row>
-    <row r="715" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A715" s="40">
-        <v>46966</v>
+        <v>46874</v>
       </c>
       <c r="B715" s="20"/>
       <c r="C715" s="13"/>
@@ -19570,9 +19604,9 @@
       <c r="J715" s="11"/>
       <c r="K715" s="20"/>
     </row>
-    <row r="716" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A716" s="40">
-        <v>46997</v>
+        <v>46905</v>
       </c>
       <c r="B716" s="20"/>
       <c r="C716" s="13"/>
@@ -19588,9 +19622,9 @@
       <c r="J716" s="11"/>
       <c r="K716" s="20"/>
     </row>
-    <row r="717" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A717" s="40">
-        <v>47027</v>
+        <v>46935</v>
       </c>
       <c r="B717" s="20"/>
       <c r="C717" s="13"/>
@@ -19606,9 +19640,9 @@
       <c r="J717" s="11"/>
       <c r="K717" s="20"/>
     </row>
-    <row r="718" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A718" s="40">
-        <v>47058</v>
+        <v>46966</v>
       </c>
       <c r="B718" s="20"/>
       <c r="C718" s="13"/>
@@ -19624,9 +19658,9 @@
       <c r="J718" s="11"/>
       <c r="K718" s="20"/>
     </row>
-    <row r="719" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A719" s="40">
-        <v>47088</v>
+        <v>46997</v>
       </c>
       <c r="B719" s="20"/>
       <c r="C719" s="13"/>
@@ -19642,9 +19676,9 @@
       <c r="J719" s="11"/>
       <c r="K719" s="20"/>
     </row>
-    <row r="720" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A720" s="40">
-        <v>47119</v>
+        <v>47027</v>
       </c>
       <c r="B720" s="20"/>
       <c r="C720" s="13"/>
@@ -19660,9 +19694,9 @@
       <c r="J720" s="11"/>
       <c r="K720" s="20"/>
     </row>
-    <row r="721" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A721" s="40">
-        <v>47150</v>
+        <v>47058</v>
       </c>
       <c r="B721" s="20"/>
       <c r="C721" s="13"/>
@@ -19678,9 +19712,9 @@
       <c r="J721" s="11"/>
       <c r="K721" s="20"/>
     </row>
-    <row r="722" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A722" s="40">
-        <v>47178</v>
+        <v>47088</v>
       </c>
       <c r="B722" s="20"/>
       <c r="C722" s="13"/>
@@ -19696,9 +19730,9 @@
       <c r="J722" s="11"/>
       <c r="K722" s="20"/>
     </row>
-    <row r="723" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A723" s="40">
-        <v>47209</v>
+        <v>47119</v>
       </c>
       <c r="B723" s="20"/>
       <c r="C723" s="13"/>
@@ -19714,9 +19748,9 @@
       <c r="J723" s="11"/>
       <c r="K723" s="20"/>
     </row>
-    <row r="724" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A724" s="40">
-        <v>47239</v>
+        <v>47150</v>
       </c>
       <c r="B724" s="20"/>
       <c r="C724" s="13"/>
@@ -19732,9 +19766,9 @@
       <c r="J724" s="11"/>
       <c r="K724" s="20"/>
     </row>
-    <row r="725" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A725" s="40">
-        <v>47270</v>
+        <v>47178</v>
       </c>
       <c r="B725" s="20"/>
       <c r="C725" s="13"/>
@@ -19750,9 +19784,9 @@
       <c r="J725" s="11"/>
       <c r="K725" s="20"/>
     </row>
-    <row r="726" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A726" s="40">
-        <v>47300</v>
+        <v>47209</v>
       </c>
       <c r="B726" s="20"/>
       <c r="C726" s="13"/>
@@ -19768,9 +19802,9 @@
       <c r="J726" s="11"/>
       <c r="K726" s="20"/>
     </row>
-    <row r="727" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A727" s="40">
-        <v>47331</v>
+        <v>47239</v>
       </c>
       <c r="B727" s="20"/>
       <c r="C727" s="13"/>
@@ -19786,9 +19820,9 @@
       <c r="J727" s="11"/>
       <c r="K727" s="20"/>
     </row>
-    <row r="728" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A728" s="40">
-        <v>47362</v>
+        <v>47270</v>
       </c>
       <c r="B728" s="20"/>
       <c r="C728" s="13"/>
@@ -19804,9 +19838,9 @@
       <c r="J728" s="11"/>
       <c r="K728" s="20"/>
     </row>
-    <row r="729" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A729" s="40">
-        <v>47392</v>
+        <v>47300</v>
       </c>
       <c r="B729" s="20"/>
       <c r="C729" s="13"/>
@@ -19822,9 +19856,9 @@
       <c r="J729" s="11"/>
       <c r="K729" s="20"/>
     </row>
-    <row r="730" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A730" s="40">
-        <v>47423</v>
+        <v>47331</v>
       </c>
       <c r="B730" s="20"/>
       <c r="C730" s="13"/>
@@ -19840,9 +19874,9 @@
       <c r="J730" s="11"/>
       <c r="K730" s="20"/>
     </row>
-    <row r="731" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A731" s="40">
-        <v>47453</v>
+        <v>47362</v>
       </c>
       <c r="B731" s="20"/>
       <c r="C731" s="13"/>
@@ -19858,9 +19892,9 @@
       <c r="J731" s="11"/>
       <c r="K731" s="20"/>
     </row>
-    <row r="732" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A732" s="40">
-        <v>47484</v>
+        <v>47392</v>
       </c>
       <c r="B732" s="20"/>
       <c r="C732" s="13"/>
@@ -19876,9 +19910,9 @@
       <c r="J732" s="11"/>
       <c r="K732" s="20"/>
     </row>
-    <row r="733" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A733" s="40">
-        <v>47515</v>
+        <v>47423</v>
       </c>
       <c r="B733" s="20"/>
       <c r="C733" s="13"/>
@@ -19894,9 +19928,9 @@
       <c r="J733" s="11"/>
       <c r="K733" s="20"/>
     </row>
-    <row r="734" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A734" s="40">
-        <v>47543</v>
+        <v>47453</v>
       </c>
       <c r="B734" s="20"/>
       <c r="C734" s="13"/>
@@ -19912,9 +19946,9 @@
       <c r="J734" s="11"/>
       <c r="K734" s="20"/>
     </row>
-    <row r="735" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A735" s="40">
-        <v>47574</v>
+        <v>47484</v>
       </c>
       <c r="B735" s="20"/>
       <c r="C735" s="13"/>
@@ -19930,9 +19964,9 @@
       <c r="J735" s="11"/>
       <c r="K735" s="20"/>
     </row>
-    <row r="736" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A736" s="40">
-        <v>47604</v>
+        <v>47515</v>
       </c>
       <c r="B736" s="20"/>
       <c r="C736" s="13"/>
@@ -19948,9 +19982,9 @@
       <c r="J736" s="11"/>
       <c r="K736" s="20"/>
     </row>
-    <row r="737" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A737" s="40">
-        <v>47635</v>
+        <v>47543</v>
       </c>
       <c r="B737" s="20"/>
       <c r="C737" s="13"/>
@@ -19966,9 +20000,9 @@
       <c r="J737" s="11"/>
       <c r="K737" s="20"/>
     </row>
-    <row r="738" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A738" s="40">
-        <v>47665</v>
+        <v>47574</v>
       </c>
       <c r="B738" s="20"/>
       <c r="C738" s="13"/>
@@ -19984,9 +20018,9 @@
       <c r="J738" s="11"/>
       <c r="K738" s="20"/>
     </row>
-    <row r="739" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A739" s="40">
-        <v>47696</v>
+        <v>47604</v>
       </c>
       <c r="B739" s="20"/>
       <c r="C739" s="13"/>
@@ -20002,9 +20036,9 @@
       <c r="J739" s="11"/>
       <c r="K739" s="20"/>
     </row>
-    <row r="740" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A740" s="40">
-        <v>47727</v>
+        <v>47635</v>
       </c>
       <c r="B740" s="20"/>
       <c r="C740" s="13"/>
@@ -20020,9 +20054,9 @@
       <c r="J740" s="11"/>
       <c r="K740" s="20"/>
     </row>
-    <row r="741" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A741" s="40">
-        <v>47757</v>
+        <v>47665</v>
       </c>
       <c r="B741" s="20"/>
       <c r="C741" s="13"/>
@@ -20038,9 +20072,9 @@
       <c r="J741" s="11"/>
       <c r="K741" s="20"/>
     </row>
-    <row r="742" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A742" s="40">
-        <v>47788</v>
+        <v>47696</v>
       </c>
       <c r="B742" s="20"/>
       <c r="C742" s="13"/>
@@ -20056,9 +20090,9 @@
       <c r="J742" s="11"/>
       <c r="K742" s="20"/>
     </row>
-    <row r="743" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A743" s="40">
-        <v>47818</v>
+        <v>47727</v>
       </c>
       <c r="B743" s="20"/>
       <c r="C743" s="13"/>
@@ -20074,9 +20108,9 @@
       <c r="J743" s="11"/>
       <c r="K743" s="20"/>
     </row>
-    <row r="744" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A744" s="40">
-        <v>47849</v>
+        <v>47757</v>
       </c>
       <c r="B744" s="20"/>
       <c r="C744" s="13"/>
@@ -20092,9 +20126,9 @@
       <c r="J744" s="11"/>
       <c r="K744" s="20"/>
     </row>
-    <row r="745" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A745" s="40">
-        <v>47880</v>
+        <v>47788</v>
       </c>
       <c r="B745" s="20"/>
       <c r="C745" s="13"/>
@@ -20110,9 +20144,9 @@
       <c r="J745" s="11"/>
       <c r="K745" s="20"/>
     </row>
-    <row r="746" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A746" s="40">
-        <v>47908</v>
+        <v>47818</v>
       </c>
       <c r="B746" s="20"/>
       <c r="C746" s="13"/>
@@ -20128,9 +20162,9 @@
       <c r="J746" s="11"/>
       <c r="K746" s="20"/>
     </row>
-    <row r="747" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A747" s="40">
-        <v>47939</v>
+        <v>47849</v>
       </c>
       <c r="B747" s="20"/>
       <c r="C747" s="13"/>
@@ -20146,9 +20180,9 @@
       <c r="J747" s="11"/>
       <c r="K747" s="20"/>
     </row>
-    <row r="748" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A748" s="40">
-        <v>47969</v>
+        <v>47880</v>
       </c>
       <c r="B748" s="20"/>
       <c r="C748" s="13"/>
@@ -20164,9 +20198,9 @@
       <c r="J748" s="11"/>
       <c r="K748" s="20"/>
     </row>
-    <row r="749" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A749" s="40">
-        <v>48000</v>
+        <v>47908</v>
       </c>
       <c r="B749" s="20"/>
       <c r="C749" s="13"/>
@@ -20182,9 +20216,9 @@
       <c r="J749" s="11"/>
       <c r="K749" s="20"/>
     </row>
-    <row r="750" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A750" s="40">
-        <v>48030</v>
+        <v>47939</v>
       </c>
       <c r="B750" s="20"/>
       <c r="C750" s="13"/>
@@ -20200,9 +20234,9 @@
       <c r="J750" s="11"/>
       <c r="K750" s="20"/>
     </row>
-    <row r="751" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A751" s="40">
-        <v>48061</v>
+        <v>47969</v>
       </c>
       <c r="B751" s="20"/>
       <c r="C751" s="13"/>
@@ -20218,9 +20252,9 @@
       <c r="J751" s="11"/>
       <c r="K751" s="20"/>
     </row>
-    <row r="752" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A752" s="40">
-        <v>48092</v>
+        <v>48000</v>
       </c>
       <c r="B752" s="20"/>
       <c r="C752" s="13"/>
@@ -20236,9 +20270,9 @@
       <c r="J752" s="11"/>
       <c r="K752" s="20"/>
     </row>
-    <row r="753" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A753" s="40">
-        <v>48122</v>
+        <v>48030</v>
       </c>
       <c r="B753" s="20"/>
       <c r="C753" s="13"/>
@@ -20254,9 +20288,9 @@
       <c r="J753" s="11"/>
       <c r="K753" s="20"/>
     </row>
-    <row r="754" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A754" s="40">
-        <v>48153</v>
+        <v>48061</v>
       </c>
       <c r="B754" s="20"/>
       <c r="C754" s="13"/>
@@ -20272,9 +20306,9 @@
       <c r="J754" s="11"/>
       <c r="K754" s="20"/>
     </row>
-    <row r="755" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A755" s="40">
-        <v>48183</v>
+        <v>48092</v>
       </c>
       <c r="B755" s="20"/>
       <c r="C755" s="13"/>
@@ -20290,9 +20324,9 @@
       <c r="J755" s="11"/>
       <c r="K755" s="20"/>
     </row>
-    <row r="756" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A756" s="40">
-        <v>48214</v>
+        <v>48122</v>
       </c>
       <c r="B756" s="20"/>
       <c r="C756" s="13"/>
@@ -20308,9 +20342,9 @@
       <c r="J756" s="11"/>
       <c r="K756" s="20"/>
     </row>
-    <row r="757" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A757" s="40">
-        <v>48245</v>
+        <v>48153</v>
       </c>
       <c r="B757" s="20"/>
       <c r="C757" s="13"/>
@@ -20326,9 +20360,9 @@
       <c r="J757" s="11"/>
       <c r="K757" s="20"/>
     </row>
-    <row r="758" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A758" s="40">
-        <v>48274</v>
+        <v>48183</v>
       </c>
       <c r="B758" s="20"/>
       <c r="C758" s="13"/>
@@ -20344,9 +20378,9 @@
       <c r="J758" s="11"/>
       <c r="K758" s="20"/>
     </row>
-    <row r="759" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A759" s="40">
-        <v>48305</v>
+        <v>48214</v>
       </c>
       <c r="B759" s="20"/>
       <c r="C759" s="13"/>
@@ -20362,9 +20396,9 @@
       <c r="J759" s="11"/>
       <c r="K759" s="20"/>
     </row>
-    <row r="760" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A760" s="40">
-        <v>48335</v>
+        <v>48245</v>
       </c>
       <c r="B760" s="20"/>
       <c r="C760" s="13"/>
@@ -20380,9 +20414,9 @@
       <c r="J760" s="11"/>
       <c r="K760" s="20"/>
     </row>
-    <row r="761" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A761" s="40">
-        <v>48366</v>
+        <v>48274</v>
       </c>
       <c r="B761" s="20"/>
       <c r="C761" s="13"/>
@@ -20398,9 +20432,9 @@
       <c r="J761" s="11"/>
       <c r="K761" s="20"/>
     </row>
-    <row r="762" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A762" s="40">
-        <v>48396</v>
+        <v>48305</v>
       </c>
       <c r="B762" s="20"/>
       <c r="C762" s="13"/>
@@ -20416,9 +20450,9 @@
       <c r="J762" s="11"/>
       <c r="K762" s="20"/>
     </row>
-    <row r="763" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A763" s="40">
-        <v>48427</v>
+        <v>48335</v>
       </c>
       <c r="B763" s="20"/>
       <c r="C763" s="13"/>
@@ -20434,9 +20468,9 @@
       <c r="J763" s="11"/>
       <c r="K763" s="20"/>
     </row>
-    <row r="764" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A764" s="40">
-        <v>48458</v>
+        <v>48366</v>
       </c>
       <c r="B764" s="20"/>
       <c r="C764" s="13"/>
@@ -20451,6 +20485,60 @@
       <c r="I764" s="9"/>
       <c r="J764" s="11"/>
       <c r="K764" s="20"/>
+    </row>
+    <row r="765" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A765" s="40">
+        <v>48396</v>
+      </c>
+      <c r="B765" s="20"/>
+      <c r="C765" s="13"/>
+      <c r="D765" s="39"/>
+      <c r="E765" s="9"/>
+      <c r="F765" s="20"/>
+      <c r="G765" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H765" s="39"/>
+      <c r="I765" s="9"/>
+      <c r="J765" s="11"/>
+      <c r="K765" s="20"/>
+    </row>
+    <row r="766" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A766" s="40">
+        <v>48427</v>
+      </c>
+      <c r="B766" s="20"/>
+      <c r="C766" s="13"/>
+      <c r="D766" s="39"/>
+      <c r="E766" s="9"/>
+      <c r="F766" s="20"/>
+      <c r="G766" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H766" s="39"/>
+      <c r="I766" s="9"/>
+      <c r="J766" s="11"/>
+      <c r="K766" s="20"/>
+    </row>
+    <row r="767" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A767" s="40">
+        <v>48458</v>
+      </c>
+      <c r="B767" s="20"/>
+      <c r="C767" s="13"/>
+      <c r="D767" s="39"/>
+      <c r="E767" s="9"/>
+      <c r="F767" s="20"/>
+      <c r="G767" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H767" s="39"/>
+      <c r="I767" s="9"/>
+      <c r="J767" s="11"/>
+      <c r="K767" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -20467,10 +20555,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -20493,7 +20581,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -20501,21 +20589,21 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="66" t="s">
         <v>33</v>
       </c>
@@ -20528,7 +20616,7 @@
       <c r="K1" s="67"/>
       <c r="L1" s="67"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -20557,7 +20645,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3">
@@ -20583,17 +20671,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -20614,7 +20702,7 @@
       <c r="K6" s="67"/>
       <c r="L6" s="67"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -20641,7 +20729,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -20667,7 +20755,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -20693,7 +20781,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -20719,7 +20807,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -20745,7 +20833,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -20771,7 +20859,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -20797,7 +20885,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -20823,7 +20911,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -20843,7 +20931,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -20863,7 +20951,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -20883,7 +20971,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -20904,7 +20992,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -20925,7 +21013,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -20946,7 +21034,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -20967,7 +21055,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -20988,7 +21076,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -21009,7 +21097,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -21030,7 +21118,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -21051,7 +21139,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -21072,7 +21160,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -21093,7 +21181,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -21114,7 +21202,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -21135,7 +21223,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -21156,7 +21244,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -21177,7 +21265,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -21198,7 +21286,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -21219,7 +21307,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -21240,7 +21328,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -21261,7 +21349,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -21282,7 +21370,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -21303,7 +21391,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -21312,7 +21400,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -21321,7 +21409,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -21330,7 +21418,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -21339,7 +21427,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -21348,7 +21436,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -21357,7 +21445,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -21366,7 +21454,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -21375,7 +21463,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -21384,7 +21472,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -21393,7 +21481,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -21402,7 +21490,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -21411,7 +21499,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -21420,7 +21508,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -21429,7 +21517,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -21438,7 +21526,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -21447,7 +21535,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -21456,7 +21544,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -21465,7 +21553,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -21474,7 +21562,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -21483,7 +21571,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -21492,7 +21580,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -21501,7 +21589,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -21510,7 +21598,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -21519,7 +21607,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -21528,7 +21616,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -21537,7 +21625,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -21546,7 +21634,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -21555,7 +21643,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -21564,7 +21652,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/LANTING, AILEEN.xlsx
+++ b/REGULAR/LANTING, AILEEN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DAF994D-57D5-4ED2-B36A-5C56BBAF2061}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="451">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1385,12 +1384,15 @@
   </si>
   <si>
     <t>6/1,2/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -2275,7 +2277,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2318,7 +2320,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2382,7 +2384,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2442,7 +2444,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2508,7 +2510,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2571,7 +2573,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2669,7 +2671,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2728,7 +2730,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2793,7 +2795,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2836,7 +2838,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2911,7 +2913,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3097,7 +3099,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3163,7 +3165,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3221,7 +3223,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3287,7 +3289,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3343,7 +3345,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3418,7 +3420,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3461,7 +3463,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3527,7 +3529,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3583,7 +3585,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3681,7 +3683,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3744,7 +3746,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3793,7 +3795,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -3810,25 +3812,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K767" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K768" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3840,13 +3842,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" name="DAYS"/>
+    <tableColumn id="2" name="HOURS"/>
+    <tableColumn id="3" name="MINUTES"/>
+    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3855,14 +3857,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4166,7 +4168,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -4176,7 +4178,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4184,34 +4186,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K767"/>
+  <dimension ref="A2:K768"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1896" topLeftCell="A642" activePane="bottomLeft"/>
+      <pane ySplit="1890" topLeftCell="A641" activePane="bottomLeft"/>
       <selection activeCell="C5" sqref="C5"/>
-      <selection pane="bottomLeft" activeCell="B658" sqref="B658"/>
+      <selection pane="bottomLeft" activeCell="K658" sqref="K658"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -4232,7 +4234,7 @@
       <c r="J2" s="58"/>
       <c r="K2" s="59"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -4250,7 +4252,7 @@
       <c r="J3" s="60"/>
       <c r="K3" s="61"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -4268,7 +4270,7 @@
       <c r="J4" s="62"/>
       <c r="K4" s="63"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -4276,7 +4278,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -4289,7 +4291,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="56" t="s">
@@ -4306,7 +4308,7 @@
       <c r="J7" s="56"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -4341,7 +4343,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -4360,12 +4362,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>104.5</v>
+        <v>103.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>43</v>
       </c>
@@ -4387,7 +4389,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>36069</v>
       </c>
@@ -4407,7 +4409,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <f>EDATE(A11,1)</f>
         <v>36100</v>
@@ -4428,7 +4430,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <f>EDATE(A12,1)</f>
         <v>36130</v>
@@ -4449,7 +4451,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="48" t="s">
         <v>44</v>
       </c>
@@ -4467,7 +4469,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>35431</v>
       </c>
@@ -4487,7 +4489,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="41">
         <f>EDATE(A15,1)</f>
         <v>35462</v>
@@ -4508,7 +4510,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="41">
         <f t="shared" ref="A17:A22" si="0">EDATE(A16,1)</f>
         <v>35490</v>
@@ -4533,7 +4535,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40"/>
       <c r="B18" s="20"/>
       <c r="C18" s="13">
@@ -4551,7 +4553,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="41">
         <f>EDATE(A17,1)</f>
         <v>35521</v>
@@ -4572,7 +4574,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="41">
         <f t="shared" si="0"/>
         <v>35551</v>
@@ -4593,7 +4595,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="41">
         <f t="shared" si="0"/>
         <v>35582</v>
@@ -4614,7 +4616,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="41">
         <f t="shared" si="0"/>
         <v>35612</v>
@@ -4639,7 +4641,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40"/>
       <c r="B23" s="20"/>
       <c r="C23" s="13">
@@ -4657,7 +4659,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="41">
         <f>EDATE(A22,1)</f>
         <v>35643</v>
@@ -4682,7 +4684,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40"/>
       <c r="B25" s="20"/>
       <c r="C25" s="13">
@@ -4700,7 +4702,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="41">
         <f>EDATE(A24,1)</f>
         <v>35674</v>
@@ -4725,7 +4727,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40"/>
       <c r="B27" s="20" t="s">
         <v>51</v>
@@ -4747,7 +4749,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40"/>
       <c r="B28" s="20"/>
       <c r="C28" s="13">
@@ -4765,7 +4767,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="41">
         <f>EDATE(A26,1)</f>
         <v>35704</v>
@@ -4788,7 +4790,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40"/>
       <c r="B30" s="20" t="s">
         <v>48</v>
@@ -4810,7 +4812,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40"/>
       <c r="B31" s="20"/>
       <c r="C31" s="13">
@@ -4828,7 +4830,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="41">
         <f>EDATE(A29,1)</f>
         <v>35735</v>
@@ -4851,7 +4853,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40"/>
       <c r="B33" s="20" t="s">
         <v>48</v>
@@ -4873,7 +4875,7 @@
         <v>35622</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40"/>
       <c r="B34" s="20"/>
       <c r="C34" s="13">
@@ -4891,7 +4893,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="41">
         <f>EDATE(A32,1)</f>
         <v>35765</v>
@@ -4916,7 +4918,7 @@
         <v>35654</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40"/>
       <c r="B36" s="20" t="s">
         <v>58</v>
@@ -4938,7 +4940,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="48" t="s">
         <v>59</v>
       </c>
@@ -4956,7 +4958,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>35796</v>
       </c>
@@ -4980,7 +4982,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40"/>
       <c r="B39" s="20" t="s">
         <v>61</v>
@@ -5002,7 +5004,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <f>EDATE(A38,1)</f>
         <v>35827</v>
@@ -5027,7 +5029,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40"/>
       <c r="B41" s="20" t="s">
         <v>65</v>
@@ -5049,7 +5051,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <f>EDATE(A40,1)</f>
         <v>35855</v>
@@ -5074,7 +5076,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40"/>
       <c r="B43" s="20" t="s">
         <v>57</v>
@@ -5096,7 +5098,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40"/>
       <c r="B44" s="20"/>
       <c r="C44" s="13">
@@ -5114,7 +5116,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <f>EDATE(A42,1)</f>
         <v>35886</v>
@@ -5139,7 +5141,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40"/>
       <c r="B46" s="20" t="s">
         <v>57</v>
@@ -5161,7 +5163,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40"/>
       <c r="B47" s="20" t="s">
         <v>71</v>
@@ -5183,7 +5185,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <f>EDATE(A45,1)</f>
         <v>35916</v>
@@ -5208,7 +5210,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
         <f t="shared" ref="A49:A59" si="1">EDATE(A48,1)</f>
         <v>35947</v>
@@ -5229,7 +5231,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <f t="shared" si="1"/>
         <v>35977</v>
@@ -5256,7 +5258,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40"/>
       <c r="B51" s="20" t="s">
         <v>74</v>
@@ -5276,7 +5278,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <f>EDATE(A50,1)</f>
         <v>36008</v>
@@ -5301,7 +5303,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40"/>
       <c r="B53" s="20" t="s">
         <v>76</v>
@@ -5323,7 +5325,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <f>EDATE(A52,1)</f>
         <v>36039</v>
@@ -5344,7 +5346,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <f t="shared" si="1"/>
         <v>36069</v>
@@ -5369,7 +5371,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40"/>
       <c r="B56" s="20" t="s">
         <v>53</v>
@@ -5389,7 +5391,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40"/>
       <c r="B57" s="20" t="s">
         <v>79</v>
@@ -5411,7 +5413,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <f>EDATE(A55,1)</f>
         <v>36100</v>
@@ -5436,7 +5438,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <f t="shared" si="1"/>
         <v>36130</v>
@@ -5461,7 +5463,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40"/>
       <c r="B60" s="20" t="s">
         <v>83</v>
@@ -5483,7 +5485,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="48" t="s">
         <v>84</v>
       </c>
@@ -5501,7 +5503,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
         <v>36161</v>
       </c>
@@ -5525,7 +5527,7 @@
         <v>36373</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40"/>
       <c r="B63" s="20" t="s">
         <v>85</v>
@@ -5547,7 +5549,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <f>EDATE(A62,1)</f>
         <v>36192</v>
@@ -5572,7 +5574,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <f t="shared" ref="A65:A84" si="2">EDATE(A64,1)</f>
         <v>36220</v>
@@ -5597,7 +5599,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <f t="shared" si="2"/>
         <v>36251</v>
@@ -5622,7 +5624,7 @@
         <v>36498</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40"/>
       <c r="B67" s="20" t="s">
         <v>88</v>
@@ -5644,7 +5646,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <f>EDATE(A66,1)</f>
         <v>36281</v>
@@ -5669,7 +5671,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40"/>
       <c r="B69" s="20" t="s">
         <v>90</v>
@@ -5691,7 +5693,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <f>EDATE(A68,1)</f>
         <v>36312</v>
@@ -5716,7 +5718,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40"/>
       <c r="B71" s="20" t="s">
         <v>57</v>
@@ -5738,7 +5740,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40"/>
       <c r="B72" s="20" t="s">
         <v>53</v>
@@ -5758,7 +5760,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40"/>
       <c r="B73" s="20" t="s">
         <v>61</v>
@@ -5780,7 +5782,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <f>EDATE(A70,1)</f>
         <v>36342</v>
@@ -5805,7 +5807,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
         <f t="shared" si="2"/>
         <v>36373</v>
@@ -5830,7 +5832,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40"/>
       <c r="B76" s="20" t="s">
         <v>95</v>
@@ -5852,7 +5854,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <f>EDATE(A75,1)</f>
         <v>36404</v>
@@ -5877,7 +5879,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40"/>
       <c r="B78" s="20" t="s">
         <v>97</v>
@@ -5899,7 +5901,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <f>EDATE(A77,1)</f>
         <v>36434</v>
@@ -5924,7 +5926,7 @@
         <v>36260</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40"/>
       <c r="B80" s="20" t="s">
         <v>53</v>
@@ -5944,7 +5946,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40"/>
       <c r="B81" s="20" t="s">
         <v>48</v>
@@ -5966,7 +5968,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40"/>
       <c r="B82" s="20"/>
       <c r="C82" s="13">
@@ -5984,7 +5986,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <f>EDATE(A79,1)</f>
         <v>36465</v>
@@ -6009,7 +6011,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <f t="shared" si="2"/>
         <v>36495</v>
@@ -6034,7 +6036,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40"/>
       <c r="B85" s="20" t="s">
         <v>77</v>
@@ -6056,7 +6058,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40"/>
       <c r="B86" s="20" t="s">
         <v>103</v>
@@ -6078,7 +6080,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="48" t="s">
         <v>104</v>
       </c>
@@ -6096,7 +6098,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <v>36526</v>
       </c>
@@ -6120,7 +6122,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
         <f>EDATE(A88,1)</f>
         <v>36557</v>
@@ -6145,7 +6147,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <f t="shared" ref="A90:A103" si="3">EDATE(A89,1)</f>
         <v>36586</v>
@@ -6170,7 +6172,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40"/>
       <c r="B91" s="20" t="s">
         <v>107</v>
@@ -6192,7 +6194,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
         <f>EDATE(A90,1)</f>
         <v>36617</v>
@@ -6217,7 +6219,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40"/>
       <c r="B93" s="20" t="s">
         <v>107</v>
@@ -6239,7 +6241,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
         <f>EDATE(A92,1)</f>
         <v>36647</v>
@@ -6264,7 +6266,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
         <f t="shared" si="3"/>
         <v>36678</v>
@@ -6289,7 +6291,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
         <f t="shared" si="3"/>
         <v>36708</v>
@@ -6314,7 +6316,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
         <f t="shared" si="3"/>
         <v>36739</v>
@@ -6335,7 +6337,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
         <f>EDATE(A97,1)</f>
         <v>36770</v>
@@ -6358,7 +6360,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13">
@@ -6376,7 +6378,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
         <f>EDATE(A98,1)</f>
         <v>36800</v>
@@ -6399,7 +6401,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13">
@@ -6417,7 +6419,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
         <f>EDATE(A100,1)</f>
         <v>36831</v>
@@ -6438,7 +6440,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
         <f t="shared" si="3"/>
         <v>36861</v>
@@ -6463,7 +6465,7 @@
         <v>36842</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40"/>
       <c r="B104" s="20" t="s">
         <v>115</v>
@@ -6485,7 +6487,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40"/>
       <c r="B105" s="20" t="s">
         <v>51</v>
@@ -6507,7 +6509,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13">
@@ -6525,7 +6527,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="48" t="s">
         <v>118</v>
       </c>
@@ -6543,7 +6545,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
         <v>36892</v>
       </c>
@@ -6567,7 +6569,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13">
@@ -6585,7 +6587,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
         <f>EDATE(A108,1)</f>
         <v>36923</v>
@@ -6606,7 +6608,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
         <f t="shared" ref="A111:A125" si="4">EDATE(A110,1)</f>
         <v>36951</v>
@@ -6631,7 +6633,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13">
@@ -6649,7 +6651,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
         <f>EDATE(A111,1)</f>
         <v>36982</v>
@@ -6674,7 +6676,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13">
@@ -6692,7 +6694,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
         <f>EDATE(A113,1)</f>
         <v>37012</v>
@@ -6713,7 +6715,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
         <f t="shared" si="4"/>
         <v>37043</v>
@@ -6734,7 +6736,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
         <f t="shared" si="4"/>
         <v>37073</v>
@@ -6759,7 +6761,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13">
@@ -6777,7 +6779,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
         <f>EDATE(A117,1)</f>
         <v>37104</v>
@@ -6802,7 +6804,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13">
@@ -6820,7 +6822,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
         <f>EDATE(A119,1)</f>
         <v>37135</v>
@@ -6845,7 +6847,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40"/>
       <c r="B122" s="20" t="s">
         <v>125</v>
@@ -6865,7 +6867,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13">
@@ -6883,7 +6885,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
         <f>EDATE(A121,1)</f>
         <v>37165</v>
@@ -6904,7 +6906,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
         <f t="shared" si="4"/>
         <v>37196</v>
@@ -6929,7 +6931,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40"/>
       <c r="B126" s="20" t="s">
         <v>45</v>
@@ -6951,7 +6953,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40"/>
       <c r="B127" s="20" t="s">
         <v>77</v>
@@ -6973,7 +6975,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13">
@@ -6991,7 +6993,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40">
         <f>EDATE(A125,1)</f>
         <v>37226</v>
@@ -7016,7 +7018,7 @@
         <v>37207</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13">
@@ -7034,7 +7036,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="48" t="s">
         <v>130</v>
       </c>
@@ -7052,7 +7054,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40">
         <v>37257</v>
       </c>
@@ -7076,7 +7078,7 @@
         <v>37288</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40"/>
       <c r="B133" s="20" t="s">
         <v>48</v>
@@ -7098,7 +7100,7 @@
         <v>37500</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40"/>
       <c r="B134" s="20" t="s">
         <v>48</v>
@@ -7120,7 +7122,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40"/>
       <c r="B135" s="20"/>
       <c r="C135" s="13">
@@ -7138,7 +7140,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40">
         <f>EDATE(A132,1)</f>
         <v>37288</v>
@@ -7159,7 +7161,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40">
         <f t="shared" ref="A137:A155" si="5">EDATE(A136,1)</f>
         <v>37316</v>
@@ -7184,7 +7186,7 @@
         <v>37440</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40"/>
       <c r="B138" s="20" t="s">
         <v>48</v>
@@ -7206,7 +7208,7 @@
         <v>37563</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40"/>
       <c r="B139" s="20" t="s">
         <v>57</v>
@@ -7228,7 +7230,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40"/>
       <c r="B140" s="20" t="s">
         <v>125</v>
@@ -7248,7 +7250,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40"/>
       <c r="B141" s="20"/>
       <c r="C141" s="13">
@@ -7266,7 +7268,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40">
         <f>EDATE(A137,1)</f>
         <v>37347</v>
@@ -7287,7 +7289,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40">
         <f t="shared" si="5"/>
         <v>37377</v>
@@ -7308,7 +7310,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40">
         <f t="shared" si="5"/>
         <v>37408</v>
@@ -7329,7 +7331,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40">
         <f t="shared" si="5"/>
         <v>37438</v>
@@ -7350,7 +7352,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40">
         <f t="shared" si="5"/>
         <v>37469</v>
@@ -7375,7 +7377,7 @@
         <v>37598</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="40"/>
       <c r="B147" s="20"/>
       <c r="C147" s="13">
@@ -7393,7 +7395,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="40">
         <f>EDATE(A146,1)</f>
         <v>37500</v>
@@ -7418,7 +7420,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="40"/>
       <c r="B149" s="20" t="s">
         <v>48</v>
@@ -7440,7 +7442,7 @@
         <v>37416</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="40"/>
       <c r="B150" s="20" t="s">
         <v>57</v>
@@ -7460,7 +7462,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="40"/>
       <c r="B151" s="20"/>
       <c r="C151" s="13">
@@ -7478,7 +7480,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="40">
         <f>EDATE(A148,1)</f>
         <v>37530</v>
@@ -7503,7 +7505,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="40"/>
       <c r="B153" s="20"/>
       <c r="C153" s="13">
@@ -7521,7 +7523,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="40">
         <f>EDATE(A152,1)</f>
         <v>37561</v>
@@ -7542,7 +7544,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="40">
         <f t="shared" si="5"/>
         <v>37591</v>
@@ -7567,7 +7569,7 @@
         <v>37511</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="40"/>
       <c r="B156" s="20"/>
       <c r="C156" s="13">
@@ -7585,7 +7587,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="48" t="s">
         <v>137</v>
       </c>
@@ -7603,7 +7605,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="40">
         <v>37622</v>
       </c>
@@ -7627,7 +7629,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="40"/>
       <c r="B159" s="20"/>
       <c r="C159" s="13">
@@ -7645,7 +7647,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="40">
         <f>EDATE(A158,1)</f>
         <v>37653</v>
@@ -7666,7 +7668,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="40">
         <f t="shared" ref="A161:A174" si="6">EDATE(A160,1)</f>
         <v>37681</v>
@@ -7687,7 +7689,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="40">
         <f t="shared" si="6"/>
         <v>37712</v>
@@ -7708,7 +7710,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="40">
         <f t="shared" si="6"/>
         <v>37742</v>
@@ -7733,7 +7735,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="40"/>
       <c r="B164" s="20" t="s">
         <v>112</v>
@@ -7753,7 +7755,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="40"/>
       <c r="B165" s="20"/>
       <c r="C165" s="13">
@@ -7771,7 +7773,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="40">
         <f>EDATE(A163,1)</f>
         <v>37773</v>
@@ -7796,7 +7798,7 @@
         <v>37778</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="40"/>
       <c r="B167" s="20"/>
       <c r="C167" s="13">
@@ -7814,7 +7816,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="40">
         <f>EDATE(A166,1)</f>
         <v>37803</v>
@@ -7835,7 +7837,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="40">
         <f t="shared" si="6"/>
         <v>37834</v>
@@ -7858,7 +7860,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="40"/>
       <c r="B170" s="20"/>
       <c r="C170" s="13">
@@ -7876,7 +7878,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="40">
         <f>EDATE(A169,1)</f>
         <v>37865</v>
@@ -7897,7 +7899,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="40">
         <f t="shared" si="6"/>
         <v>37895</v>
@@ -7918,7 +7920,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="40">
         <f t="shared" si="6"/>
         <v>37926</v>
@@ -7939,7 +7941,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="40">
         <f t="shared" si="6"/>
         <v>37956</v>
@@ -7960,7 +7962,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="48" t="s">
         <v>143</v>
       </c>
@@ -7978,7 +7980,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="40">
         <v>37987</v>
       </c>
@@ -8002,7 +8004,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="40">
         <f>EDATE(A176,1)</f>
         <v>38018</v>
@@ -8027,7 +8029,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="40">
         <f t="shared" ref="A178:A185" si="7">EDATE(A177,1)</f>
         <v>38047</v>
@@ -8052,7 +8054,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="40"/>
       <c r="B179" s="20" t="s">
         <v>147</v>
@@ -8074,7 +8076,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="40">
         <f>EDATE(A178,1)</f>
         <v>38078</v>
@@ -8099,7 +8101,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="40">
         <f t="shared" si="7"/>
         <v>38108</v>
@@ -8124,7 +8126,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="40">
         <f t="shared" si="7"/>
         <v>38139</v>
@@ -8149,7 +8151,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="40">
         <f t="shared" si="7"/>
         <v>38169</v>
@@ -8174,7 +8176,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="40">
         <f t="shared" si="7"/>
         <v>38200</v>
@@ -8199,7 +8201,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="40">
         <f t="shared" si="7"/>
         <v>38231</v>
@@ -8222,7 +8224,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="40"/>
       <c r="B186" s="20" t="s">
         <v>152</v>
@@ -8244,7 +8246,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="40">
         <f>EDATE(A185,1)</f>
         <v>38261</v>
@@ -8269,7 +8271,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="40"/>
       <c r="B188" s="20" t="s">
         <v>155</v>
@@ -8291,7 +8293,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="40"/>
       <c r="B189" s="20" t="s">
         <v>157</v>
@@ -8313,7 +8315,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="40">
         <f>EDATE(A187,1)</f>
         <v>38292</v>
@@ -8336,7 +8338,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="40"/>
       <c r="B191" s="20" t="s">
         <v>159</v>
@@ -8358,7 +8360,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="40">
         <f>EDATE(A190,1)</f>
         <v>38322</v>
@@ -8383,7 +8385,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="40"/>
       <c r="B193" s="20"/>
       <c r="C193" s="13">
@@ -8401,7 +8403,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="48" t="s">
         <v>161</v>
       </c>
@@ -8419,7 +8421,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="40">
         <v>38353</v>
       </c>
@@ -8441,7 +8443,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="40"/>
       <c r="B196" s="20" t="s">
         <v>163</v>
@@ -8463,7 +8465,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="41">
         <f>EDATE(A195,1)</f>
         <v>38384</v>
@@ -8488,7 +8490,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="40"/>
       <c r="B198" s="20" t="s">
         <v>165</v>
@@ -8510,7 +8512,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="41">
         <f>EDATE(A197,1)</f>
         <v>38412</v>
@@ -8535,7 +8537,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="41">
         <f t="shared" ref="A200:A213" si="8">EDATE(A199,1)</f>
         <v>38443</v>
@@ -8560,7 +8562,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="41">
         <f t="shared" si="8"/>
         <v>38473</v>
@@ -8585,7 +8587,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="41">
         <f t="shared" si="8"/>
         <v>38504</v>
@@ -8610,7 +8612,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="41">
         <f t="shared" si="8"/>
         <v>38534</v>
@@ -8635,7 +8637,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="40"/>
       <c r="B204" s="20" t="s">
         <v>45</v>
@@ -8657,7 +8659,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="40"/>
       <c r="B205" s="20" t="s">
         <v>169</v>
@@ -8679,7 +8681,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="41">
         <f>EDATE(A203,1)</f>
         <v>38565</v>
@@ -8704,7 +8706,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="41">
         <f t="shared" si="8"/>
         <v>38596</v>
@@ -8729,7 +8731,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="40"/>
       <c r="B208" s="20" t="s">
         <v>112</v>
@@ -8749,7 +8751,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="40"/>
       <c r="B209" s="20"/>
       <c r="C209" s="13">
@@ -8767,7 +8769,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="40"/>
       <c r="B210" s="20" t="s">
         <v>175</v>
@@ -8787,7 +8789,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="41">
         <f>EDATE(A207,1)</f>
         <v>38626</v>
@@ -8812,7 +8814,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="20"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="41">
         <f t="shared" si="8"/>
         <v>38657</v>
@@ -8837,7 +8839,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="41">
         <f t="shared" si="8"/>
         <v>38687</v>
@@ -8862,7 +8864,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="40"/>
       <c r="B214" s="20" t="s">
         <v>180</v>
@@ -8884,7 +8886,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="40"/>
       <c r="B215" s="20" t="s">
         <v>181</v>
@@ -8904,7 +8906,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="48" t="s">
         <v>182</v>
       </c>
@@ -8922,7 +8924,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="40">
         <v>38718</v>
       </c>
@@ -8946,7 +8948,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="40"/>
       <c r="B218" s="20" t="s">
         <v>184</v>
@@ -8968,7 +8970,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="40">
         <f>EDATE(A217,1)</f>
         <v>38749</v>
@@ -8993,7 +8995,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="40">
         <f t="shared" ref="A220:A240" si="9">EDATE(A219,1)</f>
         <v>38777</v>
@@ -9018,7 +9020,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="40"/>
       <c r="B221" s="20" t="s">
         <v>187</v>
@@ -9040,7 +9042,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="40"/>
       <c r="B222" s="20" t="s">
         <v>189</v>
@@ -9062,7 +9064,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="40">
         <f>EDATE(A220,1)</f>
         <v>38808</v>
@@ -9087,7 +9089,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="40"/>
       <c r="B224" s="20" t="s">
         <v>178</v>
@@ -9109,7 +9111,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="40"/>
       <c r="B225" s="20" t="s">
         <v>192</v>
@@ -9131,7 +9133,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="40">
         <f>EDATE(A223,1)</f>
         <v>38838</v>
@@ -9156,7 +9158,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="40">
         <f t="shared" si="9"/>
         <v>38869</v>
@@ -9181,7 +9183,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="40">
         <f t="shared" si="9"/>
         <v>38899</v>
@@ -9206,7 +9208,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="40"/>
       <c r="B229" s="20" t="s">
         <v>196</v>
@@ -9228,7 +9230,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="40">
         <f>EDATE(A228,1)</f>
         <v>38930</v>
@@ -9251,7 +9253,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="40"/>
       <c r="B231" s="20" t="s">
         <v>178</v>
@@ -9273,7 +9275,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="40"/>
       <c r="B232" s="20" t="s">
         <v>48</v>
@@ -9295,7 +9297,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="40"/>
       <c r="B233" s="20" t="s">
         <v>48</v>
@@ -9317,7 +9319,7 @@
         <v>38725</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="40"/>
       <c r="B234" s="20" t="s">
         <v>45</v>
@@ -9339,7 +9341,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="40"/>
       <c r="B235" s="20" t="s">
         <v>48</v>
@@ -9361,7 +9363,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="40"/>
       <c r="B236" s="20" t="s">
         <v>53</v>
@@ -9381,7 +9383,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="40"/>
       <c r="B237" s="20" t="s">
         <v>203</v>
@@ -9403,7 +9405,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="40">
         <f>EDATE(A230,1)</f>
         <v>38961</v>
@@ -9428,7 +9430,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="40">
         <f t="shared" si="9"/>
         <v>38991</v>
@@ -9453,7 +9455,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="40">
         <f t="shared" si="9"/>
         <v>39022</v>
@@ -9478,7 +9480,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="40"/>
       <c r="B241" s="20" t="s">
         <v>207</v>
@@ -9500,7 +9502,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="40">
         <f>EDATE(A240,1)</f>
         <v>39052</v>
@@ -9525,7 +9527,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="48" t="s">
         <v>209</v>
       </c>
@@ -9543,7 +9545,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="40">
         <v>39083</v>
       </c>
@@ -9563,7 +9565,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="40">
         <f>EDATE(A244,1)</f>
         <v>39114</v>
@@ -9584,7 +9586,7 @@
       <c r="J245" s="11"/>
       <c r="K245" s="20"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="40">
         <f t="shared" ref="A246:A261" si="10">EDATE(A245,1)</f>
         <v>39142</v>
@@ -9605,7 +9607,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="40">
         <f t="shared" si="10"/>
         <v>39173</v>
@@ -9626,7 +9628,7 @@
       <c r="J247" s="11"/>
       <c r="K247" s="20"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="40">
         <f t="shared" si="10"/>
         <v>39203</v>
@@ -9647,7 +9649,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="40">
         <f t="shared" si="10"/>
         <v>39234</v>
@@ -9668,7 +9670,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="40">
         <f t="shared" si="10"/>
         <v>39264</v>
@@ -9691,7 +9693,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="40"/>
       <c r="B251" s="20" t="s">
         <v>48</v>
@@ -9713,7 +9715,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="40"/>
       <c r="B252" s="20" t="s">
         <v>48</v>
@@ -9735,7 +9737,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="40"/>
       <c r="B253" s="20"/>
       <c r="C253" s="13">
@@ -9753,7 +9755,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="40">
         <f>EDATE(A250,1)</f>
         <v>39295</v>
@@ -9778,7 +9780,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="40"/>
       <c r="B255" s="20"/>
       <c r="C255" s="13">
@@ -9796,7 +9798,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="40">
         <f>EDATE(A254,1)</f>
         <v>39326</v>
@@ -9821,7 +9823,7 @@
         <v>39091</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="40"/>
       <c r="B257" s="20" t="s">
         <v>178</v>
@@ -9843,7 +9845,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="40"/>
       <c r="B258" s="20" t="s">
         <v>53</v>
@@ -9863,7 +9865,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="40"/>
       <c r="B259" s="20"/>
       <c r="C259" s="13">
@@ -9881,7 +9883,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="40">
         <f>EDATE(A256,1)</f>
         <v>39356</v>
@@ -9906,7 +9908,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="40">
         <f t="shared" si="10"/>
         <v>39387</v>
@@ -9929,7 +9931,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="40"/>
       <c r="B262" s="20" t="s">
         <v>180</v>
@@ -9951,7 +9953,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="40"/>
       <c r="B263" s="20" t="s">
         <v>219</v>
@@ -9973,7 +9975,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="40">
         <f>EDATE(A261,1)</f>
         <v>39417</v>
@@ -9998,7 +10000,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="48" t="s">
         <v>221</v>
       </c>
@@ -10016,7 +10018,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="40">
         <v>39448</v>
       </c>
@@ -10040,7 +10042,7 @@
       <c r="J266" s="11"/>
       <c r="K266" s="20"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="40">
         <f>EDATE(A266,1)</f>
         <v>39479</v>
@@ -10065,7 +10067,7 @@
       <c r="J267" s="11"/>
       <c r="K267" s="20"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="40">
         <f t="shared" ref="A268:A281" si="11">EDATE(A267,1)</f>
         <v>39508</v>
@@ -10090,7 +10092,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="40"/>
       <c r="B269" s="20" t="s">
         <v>226</v>
@@ -10112,7 +10114,7 @@
       <c r="J269" s="11"/>
       <c r="K269" s="20"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="40">
         <f>EDATE(A268,1)</f>
         <v>39539</v>
@@ -10137,7 +10139,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="40"/>
       <c r="B271" s="20" t="s">
         <v>228</v>
@@ -10159,7 +10161,7 @@
       <c r="J271" s="11"/>
       <c r="K271" s="20"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="40">
         <f>EDATE(A270,1)</f>
         <v>39569</v>
@@ -10184,7 +10186,7 @@
       <c r="J272" s="12"/>
       <c r="K272" s="15"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="40">
         <f t="shared" si="11"/>
         <v>39600</v>
@@ -10209,7 +10211,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="40">
         <f t="shared" si="11"/>
         <v>39630</v>
@@ -10234,7 +10236,7 @@
         <v>39545</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="40"/>
       <c r="B275" s="20" t="s">
         <v>53</v>
@@ -10254,7 +10256,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="40"/>
       <c r="B276" s="20" t="s">
         <v>232</v>
@@ -10276,7 +10278,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="40">
         <f>EDATE(A274,1)</f>
         <v>39661</v>
@@ -10301,7 +10303,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="40">
         <f t="shared" si="11"/>
         <v>39692</v>
@@ -10324,7 +10326,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="40"/>
       <c r="B279" s="20" t="s">
         <v>235</v>
@@ -10346,7 +10348,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="40">
         <f>EDATE(A278,1)</f>
         <v>39722</v>
@@ -10371,7 +10373,7 @@
       <c r="J280" s="11"/>
       <c r="K280" s="20"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="40">
         <f t="shared" si="11"/>
         <v>39753</v>
@@ -10394,7 +10396,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="40"/>
       <c r="B282" s="20" t="s">
         <v>178</v>
@@ -10416,7 +10418,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="40"/>
       <c r="B283" s="20" t="s">
         <v>240</v>
@@ -10438,7 +10440,7 @@
       <c r="J283" s="11"/>
       <c r="K283" s="20"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="40">
         <f>EDATE(A281,1)</f>
         <v>39783</v>
@@ -10459,7 +10461,7 @@
       <c r="J284" s="11"/>
       <c r="K284" s="20"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="48" t="s">
         <v>222</v>
       </c>
@@ -10477,7 +10479,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="40">
         <v>39814</v>
       </c>
@@ -10501,7 +10503,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="40"/>
       <c r="B287" s="20" t="s">
         <v>155</v>
@@ -10521,7 +10523,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="20"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="40"/>
       <c r="B288" s="20" t="s">
         <v>180</v>
@@ -10543,7 +10545,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="40"/>
       <c r="B289" s="20" t="s">
         <v>53</v>
@@ -10563,7 +10565,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="40"/>
       <c r="B290" s="20" t="s">
         <v>48</v>
@@ -10585,7 +10587,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="40"/>
       <c r="B291" s="20" t="s">
         <v>45</v>
@@ -10607,7 +10609,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="40"/>
       <c r="B292" s="20" t="s">
         <v>53</v>
@@ -10627,7 +10629,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="40"/>
       <c r="B293" s="20" t="s">
         <v>48</v>
@@ -10649,7 +10651,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="40"/>
       <c r="B294" s="20" t="s">
         <v>248</v>
@@ -10671,7 +10673,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="41">
         <f>EDATE(A286,1)</f>
         <v>39845</v>
@@ -10696,7 +10698,7 @@
       <c r="J295" s="12"/>
       <c r="K295" s="15"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="41">
         <f t="shared" ref="A296:A310" si="12">EDATE(A295,1)</f>
         <v>39873</v>
@@ -10721,7 +10723,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="40"/>
       <c r="B297" s="20" t="s">
         <v>187</v>
@@ -10743,7 +10745,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="40"/>
       <c r="B298" s="20" t="s">
         <v>252</v>
@@ -10765,7 +10767,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="41">
         <f>EDATE(A296,1)</f>
         <v>39904</v>
@@ -10790,7 +10792,7 @@
       <c r="J299" s="11"/>
       <c r="K299" s="20"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="41">
         <f t="shared" si="12"/>
         <v>39934</v>
@@ -10815,7 +10817,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="40"/>
       <c r="B301" s="20" t="s">
         <v>254</v>
@@ -10837,7 +10839,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="41">
         <f>EDATE(A300,1)</f>
         <v>39965</v>
@@ -10862,7 +10864,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="20"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="41">
         <f t="shared" si="12"/>
         <v>39995</v>
@@ -10887,7 +10889,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="41">
         <f t="shared" si="12"/>
         <v>40026</v>
@@ -10912,7 +10914,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="41">
         <f t="shared" si="12"/>
         <v>40057</v>
@@ -10937,7 +10939,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="40"/>
       <c r="B306" s="20" t="s">
         <v>53</v>
@@ -10957,7 +10959,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="40"/>
       <c r="B307" s="20" t="s">
         <v>187</v>
@@ -10979,7 +10981,7 @@
         <v>40066</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="40"/>
       <c r="B308" s="20" t="s">
         <v>261</v>
@@ -11001,7 +11003,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="41">
         <f>EDATE(A305,1)</f>
         <v>40087</v>
@@ -11024,7 +11026,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="20"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="41">
         <f t="shared" si="12"/>
         <v>40118</v>
@@ -11049,7 +11051,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="40"/>
       <c r="B311" s="20" t="s">
         <v>264</v>
@@ -11071,7 +11073,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="20"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="41">
         <f>EDATE(A310,1)</f>
         <v>40148</v>
@@ -11096,7 +11098,7 @@
       <c r="J312" s="11"/>
       <c r="K312" s="20"/>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="52" t="s">
         <v>266</v>
       </c>
@@ -11114,7 +11116,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="41">
         <v>40179</v>
       </c>
@@ -11138,7 +11140,7 @@
       <c r="J314" s="11"/>
       <c r="K314" s="20"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="40">
         <f>EDATE(A314,1)</f>
         <v>40210</v>
@@ -11163,7 +11165,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="40">
         <f t="shared" ref="A316:A330" si="13">EDATE(A315,1)</f>
         <v>40238</v>
@@ -11188,7 +11190,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="40"/>
       <c r="B317" s="20" t="s">
         <v>270</v>
@@ -11210,7 +11212,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="40">
         <f>EDATE(A316,1)</f>
         <v>40269</v>
@@ -11235,7 +11237,7 @@
       <c r="J318" s="11"/>
       <c r="K318" s="20"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="40">
         <f t="shared" si="13"/>
         <v>40299</v>
@@ -11260,7 +11262,7 @@
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="40">
         <f t="shared" si="13"/>
         <v>40330</v>
@@ -11285,7 +11287,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="40"/>
       <c r="B321" s="20" t="s">
         <v>270</v>
@@ -11307,7 +11309,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="40">
         <f>EDATE(A320,1)</f>
         <v>40360</v>
@@ -11332,7 +11334,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="40">
         <f t="shared" si="13"/>
         <v>40391</v>
@@ -11357,7 +11359,7 @@
         <v>40337</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="40"/>
       <c r="B324" s="20" t="s">
         <v>275</v>
@@ -11379,7 +11381,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="40">
         <f>EDATE(A323,1)</f>
         <v>40422</v>
@@ -11402,7 +11404,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="40"/>
       <c r="B326" s="20" t="s">
         <v>178</v>
@@ -11424,7 +11426,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="40"/>
       <c r="B327" s="20" t="s">
         <v>53</v>
@@ -11444,7 +11446,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="40"/>
       <c r="B328" s="20" t="s">
         <v>279</v>
@@ -11466,7 +11468,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="40">
         <f>EDATE(A325,1)</f>
         <v>40452</v>
@@ -11491,7 +11493,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="40">
         <f t="shared" si="13"/>
         <v>40483</v>
@@ -11516,7 +11518,7 @@
         <v>40402</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="40"/>
       <c r="B331" s="20" t="s">
         <v>281</v>
@@ -11538,7 +11540,7 @@
       <c r="J331" s="11"/>
       <c r="K331" s="20"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="40">
         <f>EDATE(A330,1)</f>
         <v>40513</v>
@@ -11563,7 +11565,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="48" t="s">
         <v>283</v>
       </c>
@@ -11581,7 +11583,7 @@
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="40">
         <v>40544</v>
       </c>
@@ -11605,7 +11607,7 @@
         <v>40878</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="40"/>
       <c r="B335" s="20" t="s">
         <v>45</v>
@@ -11627,7 +11629,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="40"/>
       <c r="B336" s="20"/>
       <c r="C336" s="13">
@@ -11645,7 +11647,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="40">
         <f>EDATE(A334,1)</f>
         <v>40575</v>
@@ -11670,7 +11672,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="40"/>
       <c r="B338" s="20"/>
       <c r="C338" s="13">
@@ -11688,7 +11690,7 @@
       <c r="J338" s="11"/>
       <c r="K338" s="20"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="40">
         <f>EDATE(A337,1)</f>
         <v>40603</v>
@@ -11713,7 +11715,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="40"/>
       <c r="B340" s="20"/>
       <c r="C340" s="13">
@@ -11731,7 +11733,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="40">
         <f>EDATE(A339,1)</f>
         <v>40634</v>
@@ -11756,7 +11758,7 @@
         <v>40547</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="40"/>
       <c r="B342" s="20" t="s">
         <v>48</v>
@@ -11778,7 +11780,7 @@
         <v>40667</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="40"/>
       <c r="B343" s="20" t="s">
         <v>48</v>
@@ -11800,7 +11802,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="40"/>
       <c r="B344" s="20" t="s">
         <v>53</v>
@@ -11820,7 +11822,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="40"/>
       <c r="B345" s="20"/>
       <c r="C345" s="13">
@@ -11838,7 +11840,7 @@
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="40">
         <f>EDATE(A341,1)</f>
         <v>40664</v>
@@ -11863,7 +11865,7 @@
         <v>40579</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="40"/>
       <c r="B347" s="20" t="s">
         <v>155</v>
@@ -11885,7 +11887,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="40"/>
       <c r="B348" s="20"/>
       <c r="C348" s="13">
@@ -11903,7 +11905,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="40">
         <f>EDATE(A346,1)</f>
         <v>40695</v>
@@ -11924,7 +11926,7 @@
       <c r="J349" s="11"/>
       <c r="K349" s="20"/>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="40">
         <f t="shared" ref="A350:A352" si="14">EDATE(A349,1)</f>
         <v>40725</v>
@@ -11945,7 +11947,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="40">
         <f t="shared" si="14"/>
         <v>40756</v>
@@ -11966,7 +11968,7 @@
       <c r="J351" s="11"/>
       <c r="K351" s="20"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="40">
         <f t="shared" si="14"/>
         <v>40787</v>
@@ -11991,7 +11993,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="40"/>
       <c r="B353" s="20" t="s">
         <v>178</v>
@@ -12013,7 +12015,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="40"/>
       <c r="B354" s="20" t="s">
         <v>53</v>
@@ -12033,7 +12035,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="40"/>
       <c r="B355" s="20" t="s">
         <v>53</v>
@@ -12053,7 +12055,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="40"/>
       <c r="B356" s="20" t="s">
         <v>45</v>
@@ -12075,7 +12077,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="40"/>
       <c r="B357" s="20"/>
       <c r="C357" s="13">
@@ -12093,7 +12095,7 @@
       <c r="J357" s="11"/>
       <c r="K357" s="20"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="40">
         <f>EDATE(A352,1)</f>
         <v>40817</v>
@@ -12118,7 +12120,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="40"/>
       <c r="B359" s="20"/>
       <c r="C359" s="13">
@@ -12136,7 +12138,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="40">
         <f>EDATE(A358,1)</f>
         <v>40848</v>
@@ -12157,7 +12159,7 @@
       <c r="J360" s="11"/>
       <c r="K360" s="20"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="40">
         <f>EDATE(A360,1)</f>
         <v>40878</v>
@@ -12182,7 +12184,7 @@
         <v>40555</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="40"/>
       <c r="B362" s="20" t="s">
         <v>180</v>
@@ -12204,7 +12206,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="40"/>
       <c r="B363" s="20" t="s">
         <v>297</v>
@@ -12222,7 +12224,7 @@
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="40"/>
       <c r="B364" s="20" t="s">
         <v>48</v>
@@ -12244,7 +12246,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="40"/>
       <c r="B365" s="20" t="s">
         <v>48</v>
@@ -12266,7 +12268,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="41"/>
       <c r="B366" s="15"/>
       <c r="C366" s="13">
@@ -12284,7 +12286,7 @@
       <c r="J366" s="12"/>
       <c r="K366" s="15"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="48" t="s">
         <v>300</v>
       </c>
@@ -12302,7 +12304,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="40">
         <v>40909</v>
       </c>
@@ -12326,7 +12328,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="40"/>
       <c r="B369" s="20" t="s">
         <v>48</v>
@@ -12348,7 +12350,7 @@
         <v>41183</v>
       </c>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="40"/>
       <c r="B370" s="20" t="s">
         <v>53</v>
@@ -12368,7 +12370,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="40"/>
       <c r="B371" s="20" t="s">
         <v>53</v>
@@ -12388,7 +12390,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="40"/>
       <c r="B372" s="20"/>
       <c r="C372" s="13">
@@ -12406,7 +12408,7 @@
       <c r="J372" s="11"/>
       <c r="K372" s="20"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="40">
         <f>EDATE(A368,1)</f>
         <v>40940</v>
@@ -12431,7 +12433,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="40"/>
       <c r="B374" s="20"/>
       <c r="C374" s="13">
@@ -12449,7 +12451,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="40">
         <f>EDATE(A373,1)</f>
         <v>40969</v>
@@ -12474,7 +12476,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="40"/>
       <c r="B376" s="20" t="s">
         <v>178</v>
@@ -12496,7 +12498,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="40"/>
       <c r="B377" s="20"/>
       <c r="C377" s="13">
@@ -12514,7 +12516,7 @@
       <c r="J377" s="11"/>
       <c r="K377" s="20"/>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="40">
         <f>EDATE(A375,1)</f>
         <v>41000</v>
@@ -12539,7 +12541,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="40"/>
       <c r="B379" s="20"/>
       <c r="C379" s="13">
@@ -12557,7 +12559,7 @@
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="40">
         <f>EDATE(A378,1)</f>
         <v>41030</v>
@@ -12582,7 +12584,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="40"/>
       <c r="B381" s="20" t="s">
         <v>60</v>
@@ -12604,7 +12606,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="40"/>
       <c r="B382" s="20" t="s">
         <v>48</v>
@@ -12626,7 +12628,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="40"/>
       <c r="B383" s="20" t="s">
         <v>48</v>
@@ -12648,7 +12650,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="40"/>
       <c r="B384" s="20"/>
       <c r="C384" s="13">
@@ -12666,7 +12668,7 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="40">
         <f>EDATE(A380,1)</f>
         <v>41061</v>
@@ -12689,7 +12691,7 @@
       <c r="J385" s="11"/>
       <c r="K385" s="20"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="40"/>
       <c r="B386" s="20" t="s">
         <v>180</v>
@@ -12711,7 +12713,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="40"/>
       <c r="B387" s="20" t="s">
         <v>53</v>
@@ -12731,7 +12733,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="40"/>
       <c r="B388" s="20"/>
       <c r="C388" s="13">
@@ -12749,7 +12751,7 @@
       <c r="J388" s="11"/>
       <c r="K388" s="20"/>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="40">
         <f>EDATE(A385,1)</f>
         <v>41091</v>
@@ -12770,7 +12772,7 @@
       <c r="J389" s="11"/>
       <c r="K389" s="20"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="40">
         <f t="shared" ref="A390:A392" si="15">EDATE(A389,1)</f>
         <v>41122</v>
@@ -12791,7 +12793,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="40">
         <f t="shared" si="15"/>
         <v>41153</v>
@@ -12812,7 +12814,7 @@
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="40">
         <f t="shared" si="15"/>
         <v>41183</v>
@@ -12837,7 +12839,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="40"/>
       <c r="B393" s="20" t="s">
         <v>48</v>
@@ -12859,7 +12861,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="40"/>
       <c r="B394" s="20"/>
       <c r="C394" s="13">
@@ -12877,7 +12879,7 @@
       <c r="J394" s="11"/>
       <c r="K394" s="20"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="40">
         <f>EDATE(A392,1)</f>
         <v>41214</v>
@@ -12902,7 +12904,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="40"/>
       <c r="B396" s="20"/>
       <c r="C396" s="13">
@@ -12920,7 +12922,7 @@
       <c r="J396" s="11"/>
       <c r="K396" s="20"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="40">
         <f>EDATE(A395,1)</f>
         <v>41244</v>
@@ -12945,7 +12947,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="40"/>
       <c r="B398" s="20"/>
       <c r="C398" s="13">
@@ -12963,7 +12965,7 @@
       <c r="J398" s="11"/>
       <c r="K398" s="20"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="48" t="s">
         <v>318</v>
       </c>
@@ -12981,7 +12983,7 @@
       <c r="J399" s="11"/>
       <c r="K399" s="20"/>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="41">
         <v>41275</v>
       </c>
@@ -13005,7 +13007,7 @@
         <v>41518</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="40"/>
       <c r="B401" s="20"/>
       <c r="C401" s="42">
@@ -13023,7 +13025,7 @@
       <c r="J401" s="11"/>
       <c r="K401" s="20"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="40">
         <f>EDATE(A400,1)</f>
         <v>41306</v>
@@ -13044,7 +13046,7 @@
       <c r="J402" s="11"/>
       <c r="K402" s="20"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="40">
         <f t="shared" ref="A403:A425" si="16">EDATE(A402,1)</f>
         <v>41334</v>
@@ -13069,7 +13071,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="40"/>
       <c r="B404" s="20" t="s">
         <v>48</v>
@@ -13091,7 +13093,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="40"/>
       <c r="B405" s="20" t="s">
         <v>48</v>
@@ -13113,7 +13115,7 @@
         <v>41368</v>
       </c>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="40"/>
       <c r="B406" s="20" t="s">
         <v>48</v>
@@ -13135,7 +13137,7 @@
       <c r="J406" s="11"/>
       <c r="K406" s="20"/>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="40">
         <f>EDATE(A403,1)</f>
         <v>41365</v>
@@ -13158,7 +13160,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="40"/>
       <c r="B408" s="20" t="s">
         <v>45</v>
@@ -13178,7 +13180,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="40"/>
       <c r="B409" s="20"/>
       <c r="C409" s="42">
@@ -13196,7 +13198,7 @@
       <c r="J409" s="11"/>
       <c r="K409" s="20"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="40">
         <f>EDATE(A407,1)</f>
         <v>41395</v>
@@ -13221,7 +13223,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="40"/>
       <c r="B411" s="20"/>
       <c r="C411" s="42">
@@ -13239,7 +13241,7 @@
       <c r="J411" s="11"/>
       <c r="K411" s="20"/>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="40">
         <f>EDATE(A410,1)</f>
         <v>41426</v>
@@ -13264,7 +13266,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="40"/>
       <c r="B413" s="20"/>
       <c r="C413" s="42">
@@ -13282,7 +13284,7 @@
       <c r="J413" s="11"/>
       <c r="K413" s="20"/>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="40">
         <f>EDATE(A412,1)</f>
         <v>41456</v>
@@ -13307,7 +13309,7 @@
         <v>41585</v>
       </c>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="40"/>
       <c r="B415" s="20"/>
       <c r="C415" s="42">
@@ -13325,7 +13327,7 @@
       <c r="J415" s="11"/>
       <c r="K415" s="20"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="40">
         <f>EDATE(A414,1)</f>
         <v>41487</v>
@@ -13346,7 +13348,7 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="40">
         <f t="shared" si="16"/>
         <v>41518</v>
@@ -13371,7 +13373,7 @@
         <v>41556</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="40"/>
       <c r="B418" s="20" t="s">
         <v>178</v>
@@ -13393,7 +13395,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="40"/>
       <c r="B419" s="20" t="s">
         <v>112</v>
@@ -13413,7 +13415,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="40"/>
       <c r="B420" s="20" t="s">
         <v>48</v>
@@ -13433,7 +13435,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="40"/>
       <c r="B421" s="20"/>
       <c r="C421" s="42">
@@ -13451,7 +13453,7 @@
       <c r="J421" s="11"/>
       <c r="K421" s="20"/>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="40">
         <f>EDATE(A417,1)</f>
         <v>41548</v>
@@ -13476,7 +13478,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="40"/>
       <c r="B423" s="20"/>
       <c r="C423" s="42">
@@ -13494,7 +13496,7 @@
       <c r="J423" s="11"/>
       <c r="K423" s="20"/>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="40">
         <f>EDATE(A422,1)</f>
         <v>41579</v>
@@ -13515,7 +13517,7 @@
       <c r="J424" s="11"/>
       <c r="K424" s="20"/>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="40">
         <f t="shared" si="16"/>
         <v>41609</v>
@@ -13540,7 +13542,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="40"/>
       <c r="B426" s="20" t="s">
         <v>187</v>
@@ -13562,7 +13564,7 @@
       <c r="J426" s="11"/>
       <c r="K426" s="20"/>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="48" t="s">
         <v>330</v>
       </c>
@@ -13580,7 +13582,7 @@
       <c r="J427" s="11"/>
       <c r="K427" s="20"/>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="40">
         <v>41640</v>
       </c>
@@ -13604,7 +13606,7 @@
         <v>41671</v>
       </c>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="40"/>
       <c r="B429" s="20" t="s">
         <v>187</v>
@@ -13624,7 +13626,7 @@
       <c r="J429" s="11"/>
       <c r="K429" s="20"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="40"/>
       <c r="B430" s="20" t="s">
         <v>45</v>
@@ -13646,7 +13648,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="40"/>
       <c r="B431" s="20"/>
       <c r="C431" s="13">
@@ -13664,7 +13666,7 @@
       <c r="J431" s="11"/>
       <c r="K431" s="20"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="40">
         <f>EDATE(A428,1)</f>
         <v>41671</v>
@@ -13685,7 +13687,7 @@
       <c r="J432" s="11"/>
       <c r="K432" s="20"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="40">
         <f t="shared" ref="A433:A447" si="17">EDATE(A432,1)</f>
         <v>41699</v>
@@ -13710,7 +13712,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="40"/>
       <c r="B434" s="20"/>
       <c r="C434" s="13">
@@ -13728,7 +13730,7 @@
       <c r="J434" s="11"/>
       <c r="K434" s="20"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="40">
         <f>EDATE(A433,1)</f>
         <v>41730</v>
@@ -13749,7 +13751,7 @@
       <c r="J435" s="11"/>
       <c r="K435" s="20"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="40">
         <f t="shared" si="17"/>
         <v>41760</v>
@@ -13772,7 +13774,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="40"/>
       <c r="B437" s="20" t="s">
         <v>48</v>
@@ -13794,7 +13796,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="40"/>
       <c r="B438" s="20" t="s">
         <v>112</v>
@@ -13814,7 +13816,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="40"/>
       <c r="B439" s="20" t="s">
         <v>45</v>
@@ -13836,7 +13838,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="40"/>
       <c r="B440" s="20" t="s">
         <v>337</v>
@@ -13858,7 +13860,7 @@
       <c r="J440" s="11"/>
       <c r="K440" s="20"/>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="40">
         <f>EDATE(A436,1)</f>
         <v>41791</v>
@@ -13883,7 +13885,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="40"/>
       <c r="B442" s="20"/>
       <c r="C442" s="13">
@@ -13901,7 +13903,7 @@
       <c r="J442" s="11"/>
       <c r="K442" s="20"/>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="40">
         <f>EDATE(A441,1)</f>
         <v>41821</v>
@@ -13926,7 +13928,7 @@
       <c r="J443" s="11"/>
       <c r="K443" s="20"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="40">
         <f t="shared" si="17"/>
         <v>41852</v>
@@ -13951,7 +13953,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="40"/>
       <c r="B445" s="20" t="s">
         <v>341</v>
@@ -13973,7 +13975,7 @@
       <c r="J445" s="11"/>
       <c r="K445" s="20"/>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="40">
         <f>EDATE(A444,1)</f>
         <v>41883</v>
@@ -13998,7 +14000,7 @@
       <c r="J446" s="11"/>
       <c r="K446" s="20"/>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="40">
         <f t="shared" si="17"/>
         <v>41913</v>
@@ -14023,7 +14025,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="40"/>
       <c r="B448" s="20" t="s">
         <v>187</v>
@@ -14045,7 +14047,7 @@
         <v>41861</v>
       </c>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="40"/>
       <c r="B449" s="20" t="s">
         <v>344</v>
@@ -14067,7 +14069,7 @@
       <c r="J449" s="11"/>
       <c r="K449" s="20"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="40">
         <f>EDATE(A447,1)</f>
         <v>41944</v>
@@ -14092,7 +14094,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="40"/>
       <c r="B451" s="20" t="s">
         <v>48</v>
@@ -14114,7 +14116,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="40"/>
       <c r="B452" s="20" t="s">
         <v>347</v>
@@ -14136,7 +14138,7 @@
       <c r="J452" s="11"/>
       <c r="K452" s="20"/>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="40">
         <f>EDATE(A450,1)</f>
         <v>41974</v>
@@ -14161,7 +14163,7 @@
       <c r="J453" s="11"/>
       <c r="K453" s="20"/>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="48" t="s">
         <v>349</v>
       </c>
@@ -14179,7 +14181,7 @@
       <c r="J454" s="11"/>
       <c r="K454" s="20"/>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="40">
         <v>42005</v>
       </c>
@@ -14203,7 +14205,7 @@
         <v>42248</v>
       </c>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="40"/>
       <c r="B456" s="20" t="s">
         <v>350</v>
@@ -14225,7 +14227,7 @@
       <c r="J456" s="11"/>
       <c r="K456" s="20"/>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" s="40">
         <f>EDATE(A455,1)</f>
         <v>42036</v>
@@ -14250,7 +14252,7 @@
       <c r="J457" s="11"/>
       <c r="K457" s="20"/>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="40">
         <f t="shared" ref="A458:A475" si="18">EDATE(A457,1)</f>
         <v>42064</v>
@@ -14271,7 +14273,7 @@
       <c r="J458" s="11"/>
       <c r="K458" s="20"/>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="40">
         <f t="shared" si="18"/>
         <v>42095</v>
@@ -14296,7 +14298,7 @@
         <v>42159</v>
       </c>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="40"/>
       <c r="B460" s="20" t="s">
         <v>48</v>
@@ -14318,7 +14320,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" s="40"/>
       <c r="B461" s="20" t="s">
         <v>353</v>
@@ -14340,7 +14342,7 @@
       <c r="J461" s="11"/>
       <c r="K461" s="20"/>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="40">
         <f>EDATE(A459,1)</f>
         <v>42125</v>
@@ -14365,7 +14367,7 @@
         <v>42129</v>
       </c>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" s="40"/>
       <c r="B463" s="20" t="s">
         <v>112</v>
@@ -14385,7 +14387,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" s="40"/>
       <c r="B464" s="20" t="s">
         <v>155</v>
@@ -14407,7 +14409,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" s="40"/>
       <c r="B465" s="20" t="s">
         <v>45</v>
@@ -14429,7 +14431,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" s="40"/>
       <c r="B466" s="20" t="s">
         <v>48</v>
@@ -14451,7 +14453,7 @@
         <v>42041</v>
       </c>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" s="40"/>
       <c r="B467" s="20" t="s">
         <v>357</v>
@@ -14471,7 +14473,7 @@
       <c r="J467" s="11"/>
       <c r="K467" s="20"/>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" s="40">
         <f>EDATE(A462,1)</f>
         <v>42156</v>
@@ -14496,7 +14498,7 @@
       <c r="J468" s="11"/>
       <c r="K468" s="20"/>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" s="40">
         <f t="shared" si="18"/>
         <v>42186</v>
@@ -14521,7 +14523,7 @@
       <c r="J469" s="11"/>
       <c r="K469" s="20"/>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" s="40">
         <f t="shared" si="18"/>
         <v>42217</v>
@@ -14546,7 +14548,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" s="40"/>
       <c r="B471" s="20" t="s">
         <v>361</v>
@@ -14568,7 +14570,7 @@
       <c r="J471" s="11"/>
       <c r="K471" s="20"/>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" s="40">
         <f>EDATE(A470,1)</f>
         <v>42248</v>
@@ -14593,7 +14595,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" s="40"/>
       <c r="B473" s="20" t="s">
         <v>363</v>
@@ -14615,7 +14617,7 @@
       <c r="J473" s="11"/>
       <c r="K473" s="20"/>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" s="40">
         <f>EDATE(A472,1)</f>
         <v>42278</v>
@@ -14640,7 +14642,7 @@
       <c r="J474" s="11"/>
       <c r="K474" s="20"/>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" s="40">
         <f t="shared" si="18"/>
         <v>42309</v>
@@ -14665,7 +14667,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" s="40"/>
       <c r="B476" s="20" t="s">
         <v>53</v>
@@ -14685,7 +14687,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" s="40"/>
       <c r="B477" s="20" t="s">
         <v>77</v>
@@ -14707,7 +14709,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" s="40"/>
       <c r="B478" s="20" t="s">
         <v>48</v>
@@ -14729,7 +14731,7 @@
         <v>42228</v>
       </c>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" s="40"/>
       <c r="B479" s="20" t="s">
         <v>48</v>
@@ -14751,7 +14753,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" s="40"/>
       <c r="B480" s="20" t="s">
         <v>369</v>
@@ -14773,7 +14775,7 @@
       <c r="J480" s="11"/>
       <c r="K480" s="20"/>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481" s="40">
         <f>EDATE(A475,1)</f>
         <v>42339</v>
@@ -14798,7 +14800,7 @@
       <c r="J481" s="11"/>
       <c r="K481" s="20"/>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482" s="48" t="s">
         <v>371</v>
       </c>
@@ -14816,7 +14818,7 @@
       <c r="J482" s="11"/>
       <c r="K482" s="20"/>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" s="40">
         <v>42370</v>
       </c>
@@ -14840,7 +14842,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" s="40"/>
       <c r="B484" s="20" t="s">
         <v>125</v>
@@ -14860,7 +14862,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" s="40"/>
       <c r="B485" s="20" t="s">
         <v>68</v>
@@ -14880,7 +14882,7 @@
       <c r="J485" s="11"/>
       <c r="K485" s="20"/>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" s="40"/>
       <c r="B486" s="20"/>
       <c r="C486" s="13">
@@ -14898,7 +14900,7 @@
       <c r="J486" s="11"/>
       <c r="K486" s="20"/>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A487" s="40">
         <f>EDATE(A483,1)</f>
         <v>42401</v>
@@ -14919,7 +14921,7 @@
       <c r="J487" s="11"/>
       <c r="K487" s="20"/>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A488" s="40">
         <f t="shared" ref="A488:A501" si="19">EDATE(A487,1)</f>
         <v>42430</v>
@@ -14940,7 +14942,7 @@
       <c r="J488" s="11"/>
       <c r="K488" s="20"/>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A489" s="40">
         <f t="shared" si="19"/>
         <v>42461</v>
@@ -14961,7 +14963,7 @@
       <c r="J489" s="11"/>
       <c r="K489" s="20"/>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490" s="40">
         <f t="shared" si="19"/>
         <v>42491</v>
@@ -14982,7 +14984,7 @@
       <c r="J490" s="11"/>
       <c r="K490" s="20"/>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A491" s="40">
         <f t="shared" si="19"/>
         <v>42522</v>
@@ -15003,7 +15005,7 @@
       <c r="J491" s="11"/>
       <c r="K491" s="20"/>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A492" s="40">
         <f t="shared" si="19"/>
         <v>42552</v>
@@ -15024,7 +15026,7 @@
       <c r="J492" s="11"/>
       <c r="K492" s="20"/>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" s="40">
         <f t="shared" si="19"/>
         <v>42583</v>
@@ -15049,7 +15051,7 @@
         <v>42590</v>
       </c>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A494" s="40"/>
       <c r="B494" s="20" t="s">
         <v>48</v>
@@ -15071,7 +15073,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A495" s="40"/>
       <c r="B495" s="20" t="s">
         <v>155</v>
@@ -15093,7 +15095,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A496" s="40"/>
       <c r="B496" s="20"/>
       <c r="C496" s="13">
@@ -15111,7 +15113,7 @@
       <c r="J496" s="11"/>
       <c r="K496" s="20"/>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A497" s="40">
         <f>EDATE(A493,1)</f>
         <v>42614</v>
@@ -15132,7 +15134,7 @@
       <c r="J497" s="11"/>
       <c r="K497" s="20"/>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498" s="40">
         <f t="shared" si="19"/>
         <v>42644</v>
@@ -15157,7 +15159,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A499" s="40"/>
       <c r="B499" s="20"/>
       <c r="C499" s="13">
@@ -15175,7 +15177,7 @@
       <c r="J499" s="11"/>
       <c r="K499" s="20"/>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A500" s="40">
         <f>EDATE(A498,1)</f>
         <v>42675</v>
@@ -15196,7 +15198,7 @@
       <c r="J500" s="11"/>
       <c r="K500" s="20"/>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A501" s="40">
         <f t="shared" si="19"/>
         <v>42705</v>
@@ -15221,7 +15223,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A502" s="40"/>
       <c r="B502" s="20"/>
       <c r="C502" s="13">
@@ -15239,7 +15241,7 @@
       <c r="J502" s="11"/>
       <c r="K502" s="20"/>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A503" s="52" t="s">
         <v>378</v>
       </c>
@@ -15257,7 +15259,7 @@
       <c r="J503" s="12"/>
       <c r="K503" s="15"/>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A504" s="40">
         <v>42736</v>
       </c>
@@ -15279,7 +15281,7 @@
       <c r="J504" s="11"/>
       <c r="K504" s="20"/>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A505" s="40"/>
       <c r="B505" s="20" t="s">
         <v>60</v>
@@ -15301,7 +15303,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A506" s="40"/>
       <c r="B506" s="20" t="s">
         <v>48</v>
@@ -15323,7 +15325,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A507" s="40"/>
       <c r="B507" s="20" t="s">
         <v>48</v>
@@ -15343,7 +15345,7 @@
       <c r="J507" s="11"/>
       <c r="K507" s="20"/>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A508" s="40"/>
       <c r="B508" s="20"/>
       <c r="C508" s="13">
@@ -15361,7 +15363,7 @@
       <c r="J508" s="11"/>
       <c r="K508" s="20"/>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A509" s="40">
         <f>EDATE(A504,1)</f>
         <v>42767</v>
@@ -15382,7 +15384,7 @@
       <c r="J509" s="11"/>
       <c r="K509" s="20"/>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A510" s="40">
         <f t="shared" ref="A510:A513" si="20">EDATE(A509,1)</f>
         <v>42795</v>
@@ -15407,7 +15409,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A511" s="40"/>
       <c r="B511" s="20"/>
       <c r="C511" s="13">
@@ -15425,7 +15427,7 @@
       <c r="J511" s="11"/>
       <c r="K511" s="20"/>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A512" s="40">
         <f>EDATE(A510,1)</f>
         <v>42826</v>
@@ -15446,7 +15448,7 @@
       <c r="J512" s="11"/>
       <c r="K512" s="20"/>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A513" s="40">
         <f t="shared" si="20"/>
         <v>42856</v>
@@ -15471,7 +15473,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A514" s="40"/>
       <c r="B514" s="20" t="s">
         <v>57</v>
@@ -15493,7 +15495,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A515" s="40"/>
       <c r="B515" s="20" t="s">
         <v>57</v>
@@ -15515,7 +15517,7 @@
         <v>42772</v>
       </c>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A516" s="40"/>
       <c r="B516" s="20" t="s">
         <v>45</v>
@@ -15537,7 +15539,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A517" s="40"/>
       <c r="B517" s="20"/>
       <c r="C517" s="13">
@@ -15555,7 +15557,7 @@
       <c r="J517" s="11"/>
       <c r="K517" s="20"/>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A518" s="40">
         <f>EDATE(A513,1)</f>
         <v>42887</v>
@@ -15580,7 +15582,7 @@
         <v>42984</v>
       </c>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A519" s="40"/>
       <c r="B519" s="20" t="s">
         <v>48</v>
@@ -15602,7 +15604,7 @@
         <v>42801</v>
       </c>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A520" s="40"/>
       <c r="B520" s="20"/>
       <c r="C520" s="13">
@@ -15620,7 +15622,7 @@
       <c r="J520" s="11"/>
       <c r="K520" s="20"/>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A521" s="40">
         <f>EDATE(A518,1)</f>
         <v>42917</v>
@@ -15645,7 +15647,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A522" s="40"/>
       <c r="B522" s="20" t="s">
         <v>45</v>
@@ -15667,7 +15669,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A523" s="40"/>
       <c r="B523" s="20" t="s">
         <v>48</v>
@@ -15689,7 +15691,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A524" s="40"/>
       <c r="B524" s="20"/>
       <c r="C524" s="13">
@@ -15707,7 +15709,7 @@
       <c r="J524" s="11"/>
       <c r="K524" s="20"/>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A525" s="40">
         <f>EDATE(A521,1)</f>
         <v>42948</v>
@@ -15728,7 +15730,7 @@
       <c r="J525" s="11"/>
       <c r="K525" s="20"/>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A526" s="40">
         <f>EDATE(A525,1)</f>
         <v>42979</v>
@@ -15753,7 +15755,7 @@
         <v>42834</v>
       </c>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A527" s="40"/>
       <c r="B527" s="20" t="s">
         <v>48</v>
@@ -15775,7 +15777,7 @@
         <v>42835</v>
       </c>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A528" s="40"/>
       <c r="B528" s="20" t="s">
         <v>48</v>
@@ -15797,7 +15799,7 @@
         <v>42777</v>
       </c>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A529" s="40"/>
       <c r="B529" s="20" t="s">
         <v>77</v>
@@ -15819,7 +15821,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A530" s="40"/>
       <c r="B530" s="20" t="s">
         <v>48</v>
@@ -15841,7 +15843,7 @@
         <v>42989</v>
       </c>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A531" s="40"/>
       <c r="B531" s="20"/>
       <c r="C531" s="13">
@@ -15859,7 +15861,7 @@
       <c r="J531" s="11"/>
       <c r="K531" s="20"/>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A532" s="40">
         <f>EDATE(A526,1)</f>
         <v>43009</v>
@@ -15880,7 +15882,7 @@
       <c r="J532" s="11"/>
       <c r="K532" s="20"/>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A533" s="40">
         <f>EDATE(A532,1)</f>
         <v>43040</v>
@@ -15905,7 +15907,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A534" s="40"/>
       <c r="B534" s="20"/>
       <c r="C534" s="13">
@@ -15923,7 +15925,7 @@
       <c r="J534" s="11"/>
       <c r="K534" s="20"/>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A535" s="40">
         <f>EDATE(A533,1)</f>
         <v>43070</v>
@@ -15948,7 +15950,7 @@
       <c r="J535" s="11"/>
       <c r="K535" s="20"/>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A536" s="48" t="s">
         <v>390</v>
       </c>
@@ -15966,7 +15968,7 @@
       <c r="J536" s="11"/>
       <c r="K536" s="20"/>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A537" s="40">
         <v>43101</v>
       </c>
@@ -15988,7 +15990,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A538" s="40"/>
       <c r="B538" s="20"/>
       <c r="C538" s="13">
@@ -16006,7 +16008,7 @@
       <c r="J538" s="11"/>
       <c r="K538" s="20"/>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A539" s="40">
         <f>EDATE(A537,1)</f>
         <v>43132</v>
@@ -16031,7 +16033,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A540" s="40"/>
       <c r="B540" s="20"/>
       <c r="C540" s="13">
@@ -16049,7 +16051,7 @@
       <c r="J540" s="11"/>
       <c r="K540" s="20"/>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A541" s="40">
         <f>EDATE(A539,1)</f>
         <v>43160</v>
@@ -16070,7 +16072,7 @@
       <c r="J541" s="11"/>
       <c r="K541" s="20"/>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A542" s="40">
         <f t="shared" ref="A542:A555" si="21">EDATE(A541,1)</f>
         <v>43191</v>
@@ -16095,7 +16097,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A543" s="40"/>
       <c r="B543" s="20" t="s">
         <v>48</v>
@@ -16117,7 +16119,7 @@
         <v>43378</v>
       </c>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A544" s="40"/>
       <c r="B544" s="20"/>
       <c r="C544" s="13">
@@ -16135,7 +16137,7 @@
       <c r="J544" s="11"/>
       <c r="K544" s="20"/>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A545" s="40">
         <f>EDATE(A542,1)</f>
         <v>43221</v>
@@ -16160,7 +16162,7 @@
       <c r="J545" s="11"/>
       <c r="K545" s="20"/>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A546" s="40">
         <f t="shared" si="21"/>
         <v>43252</v>
@@ -16183,7 +16185,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A547" s="40"/>
       <c r="B547" s="20" t="s">
         <v>48</v>
@@ -16205,7 +16207,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A548" s="40"/>
       <c r="B548" s="20" t="s">
         <v>48</v>
@@ -16227,7 +16229,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A549" s="40"/>
       <c r="B549" s="20" t="s">
         <v>398</v>
@@ -16249,7 +16251,7 @@
       <c r="J549" s="11"/>
       <c r="K549" s="20"/>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A550" s="40">
         <f>EDATE(A546,1)</f>
         <v>43282</v>
@@ -16274,7 +16276,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A551" s="40"/>
       <c r="B551" s="20" t="s">
         <v>53</v>
@@ -16296,7 +16298,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A552" s="40"/>
       <c r="B552" s="20" t="s">
         <v>401</v>
@@ -16318,7 +16320,7 @@
       <c r="J552" s="11"/>
       <c r="K552" s="20"/>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A553" s="40">
         <f>EDATE(A550,1)</f>
         <v>43313</v>
@@ -16343,7 +16345,7 @@
       <c r="J553" s="12"/>
       <c r="K553" s="15"/>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A554" s="40">
         <f t="shared" si="21"/>
         <v>43344</v>
@@ -16368,7 +16370,7 @@
       <c r="J554" s="11"/>
       <c r="K554" s="20"/>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A555" s="40">
         <f t="shared" si="21"/>
         <v>43374</v>
@@ -16393,7 +16395,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A556" s="40"/>
       <c r="B556" s="20" t="s">
         <v>68</v>
@@ -16415,7 +16417,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A557" s="40"/>
       <c r="B557" s="20"/>
       <c r="C557" s="13">
@@ -16433,7 +16435,7 @@
       <c r="J557" s="11"/>
       <c r="K557" s="20"/>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A558" s="40">
         <f>EDATE(A555,1)</f>
         <v>43405</v>
@@ -16454,7 +16456,7 @@
       <c r="J558" s="11"/>
       <c r="K558" s="20"/>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A559" s="40">
         <f>EDATE(A558,1)</f>
         <v>43435</v>
@@ -16479,7 +16481,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A560" s="40"/>
       <c r="B560" s="20"/>
       <c r="C560" s="13">
@@ -16497,7 +16499,7 @@
       <c r="J560" s="11"/>
       <c r="K560" s="20"/>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A561" s="48" t="s">
         <v>407</v>
       </c>
@@ -16515,7 +16517,7 @@
       <c r="J561" s="11"/>
       <c r="K561" s="20"/>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A562" s="40">
         <v>43466</v>
       </c>
@@ -16539,7 +16541,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A563" s="40"/>
       <c r="B563" s="20" t="s">
         <v>48</v>
@@ -16561,7 +16563,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A564" s="40"/>
       <c r="B564" s="20" t="s">
         <v>45</v>
@@ -16583,7 +16585,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A565" s="40"/>
       <c r="B565" s="20"/>
       <c r="C565" s="13">
@@ -16601,7 +16603,7 @@
       <c r="J565" s="11"/>
       <c r="K565" s="20"/>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A566" s="40">
         <f>EDATE(A562,1)</f>
         <v>43497</v>
@@ -16622,7 +16624,7 @@
       <c r="J566" s="11"/>
       <c r="K566" s="20"/>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A567" s="40">
         <f t="shared" ref="A567:A582" si="22">EDATE(A566,1)</f>
         <v>43525</v>
@@ -16643,7 +16645,7 @@
       <c r="J567" s="11"/>
       <c r="K567" s="20"/>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A568" s="40">
         <f t="shared" si="22"/>
         <v>43556</v>
@@ -16670,7 +16672,7 @@
         <v>43528</v>
       </c>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A569" s="40">
         <f t="shared" si="22"/>
         <v>43586</v>
@@ -16691,7 +16693,7 @@
       <c r="J569" s="11"/>
       <c r="K569" s="20"/>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A570" s="40">
         <f t="shared" si="22"/>
         <v>43617</v>
@@ -16716,7 +16718,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A571" s="40"/>
       <c r="B571" s="20"/>
       <c r="C571" s="13">
@@ -16734,7 +16736,7 @@
       <c r="J571" s="11"/>
       <c r="K571" s="20"/>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A572" s="40">
         <f>EDATE(A570,1)</f>
         <v>43647</v>
@@ -16755,7 +16757,7 @@
       <c r="J572" s="11"/>
       <c r="K572" s="20"/>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A573" s="40">
         <f t="shared" si="22"/>
         <v>43678</v>
@@ -16780,7 +16782,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A574" s="40"/>
       <c r="B574" s="20" t="s">
         <v>48</v>
@@ -16802,7 +16804,7 @@
         <v>43717</v>
       </c>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A575" s="40"/>
       <c r="B575" s="20"/>
       <c r="C575" s="13">
@@ -16820,7 +16822,7 @@
       <c r="J575" s="11"/>
       <c r="K575" s="20"/>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A576" s="40">
         <f>EDATE(A573,1)</f>
         <v>43709</v>
@@ -16845,7 +16847,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A577" s="40"/>
       <c r="B577" s="20" t="s">
         <v>112</v>
@@ -16865,7 +16867,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A578" s="40"/>
       <c r="B578" s="20" t="s">
         <v>51</v>
@@ -16887,7 +16889,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A579" s="40"/>
       <c r="B579" s="20"/>
       <c r="C579" s="13">
@@ -16905,7 +16907,7 @@
       <c r="J579" s="11"/>
       <c r="K579" s="20"/>
     </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A580" s="40">
         <f>EDATE(A576,1)</f>
         <v>43739</v>
@@ -16926,7 +16928,7 @@
       <c r="J580" s="11"/>
       <c r="K580" s="20"/>
     </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A581" s="40">
         <f t="shared" si="22"/>
         <v>43770</v>
@@ -16947,7 +16949,7 @@
       <c r="J581" s="11"/>
       <c r="K581" s="20"/>
     </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A582" s="40">
         <f t="shared" si="22"/>
         <v>43800</v>
@@ -16972,7 +16974,7 @@
         <v>43628</v>
       </c>
     </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A583" s="40"/>
       <c r="B583" s="20" t="s">
         <v>57</v>
@@ -16994,7 +16996,7 @@
         <v>43781</v>
       </c>
     </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A584" s="40"/>
       <c r="B584" s="20"/>
       <c r="C584" s="13">
@@ -17012,7 +17014,7 @@
       <c r="J584" s="11"/>
       <c r="K584" s="20"/>
     </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A585" s="48" t="s">
         <v>416</v>
       </c>
@@ -17030,7 +17032,7 @@
       <c r="J585" s="11"/>
       <c r="K585" s="20"/>
     </row>
-    <row r="586" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A586" s="40">
         <v>43831</v>
       </c>
@@ -17054,7 +17056,7 @@
         <v>44075</v>
       </c>
     </row>
-    <row r="587" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A587" s="40"/>
       <c r="B587" s="20" t="s">
         <v>417</v>
@@ -17074,7 +17076,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="588" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A588" s="40"/>
       <c r="B588" s="20"/>
       <c r="C588" s="13">
@@ -17092,7 +17094,7 @@
       <c r="J588" s="11"/>
       <c r="K588" s="20"/>
     </row>
-    <row r="589" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A589" s="40">
         <f>EDATE(A586,1)</f>
         <v>43862</v>
@@ -17113,7 +17115,7 @@
       <c r="J589" s="11"/>
       <c r="K589" s="20"/>
     </row>
-    <row r="590" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A590" s="40">
         <f t="shared" ref="A590:A600" si="23">EDATE(A589,1)</f>
         <v>43891</v>
@@ -17134,7 +17136,7 @@
       <c r="J590" s="11"/>
       <c r="K590" s="20"/>
     </row>
-    <row r="591" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A591" s="40">
         <f t="shared" si="23"/>
         <v>43922</v>
@@ -17155,7 +17157,7 @@
       <c r="J591" s="11"/>
       <c r="K591" s="20"/>
     </row>
-    <row r="592" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A592" s="40">
         <f t="shared" si="23"/>
         <v>43952</v>
@@ -17176,7 +17178,7 @@
       <c r="J592" s="11"/>
       <c r="K592" s="20"/>
     </row>
-    <row r="593" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A593" s="40">
         <f t="shared" si="23"/>
         <v>43983</v>
@@ -17197,7 +17199,7 @@
       <c r="J593" s="11"/>
       <c r="K593" s="20"/>
     </row>
-    <row r="594" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A594" s="40">
         <f t="shared" si="23"/>
         <v>44013</v>
@@ -17218,7 +17220,7 @@
       <c r="J594" s="11"/>
       <c r="K594" s="20"/>
     </row>
-    <row r="595" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A595" s="40">
         <f t="shared" si="23"/>
         <v>44044</v>
@@ -17239,7 +17241,7 @@
       <c r="J595" s="11"/>
       <c r="K595" s="20"/>
     </row>
-    <row r="596" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A596" s="40">
         <f t="shared" si="23"/>
         <v>44075</v>
@@ -17260,7 +17262,7 @@
       <c r="J596" s="11"/>
       <c r="K596" s="20"/>
     </row>
-    <row r="597" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A597" s="40">
         <f t="shared" si="23"/>
         <v>44105</v>
@@ -17283,7 +17285,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="598" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A598" s="40"/>
       <c r="B598" s="20"/>
       <c r="C598" s="13">
@@ -17301,7 +17303,7 @@
       <c r="J598" s="11"/>
       <c r="K598" s="20"/>
     </row>
-    <row r="599" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A599" s="40">
         <f>EDATE(A597,1)</f>
         <v>44136</v>
@@ -17322,7 +17324,7 @@
       <c r="J599" s="11"/>
       <c r="K599" s="20"/>
     </row>
-    <row r="600" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A600" s="40">
         <f t="shared" si="23"/>
         <v>44166</v>
@@ -17345,7 +17347,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="601" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A601" s="40"/>
       <c r="B601" s="20" t="s">
         <v>421</v>
@@ -17367,7 +17369,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="602" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A602" s="40"/>
       <c r="B602" s="20"/>
       <c r="C602" s="13">
@@ -17385,7 +17387,7 @@
       <c r="J602" s="11"/>
       <c r="K602" s="20"/>
     </row>
-    <row r="603" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A603" s="48" t="s">
         <v>423</v>
       </c>
@@ -17403,7 +17405,7 @@
       <c r="J603" s="11"/>
       <c r="K603" s="20"/>
     </row>
-    <row r="604" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A604" s="40">
         <v>44197</v>
       </c>
@@ -17423,7 +17425,7 @@
       <c r="J604" s="11"/>
       <c r="K604" s="20"/>
     </row>
-    <row r="605" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A605" s="40">
         <f>EDATE(A604,1)</f>
         <v>44228</v>
@@ -17444,7 +17446,7 @@
       <c r="J605" s="11"/>
       <c r="K605" s="20"/>
     </row>
-    <row r="606" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A606" s="40">
         <f t="shared" ref="A606:A617" si="24">EDATE(A605,1)</f>
         <v>44256</v>
@@ -17464,7 +17466,7 @@
       <c r="J606" s="11"/>
       <c r="K606" s="20"/>
     </row>
-    <row r="607" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A607" s="40"/>
       <c r="B607" s="20"/>
       <c r="C607" s="13">
@@ -17482,7 +17484,7 @@
       <c r="J607" s="11"/>
       <c r="K607" s="20"/>
     </row>
-    <row r="608" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A608" s="40">
         <f>EDATE(A606,1)</f>
         <v>44287</v>
@@ -17503,7 +17505,7 @@
       <c r="J608" s="11"/>
       <c r="K608" s="20"/>
     </row>
-    <row r="609" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A609" s="40">
         <f t="shared" si="24"/>
         <v>44317</v>
@@ -17524,7 +17526,7 @@
       <c r="J609" s="11"/>
       <c r="K609" s="20"/>
     </row>
-    <row r="610" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A610" s="40">
         <f t="shared" si="24"/>
         <v>44348</v>
@@ -17547,7 +17549,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="611" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A611" s="40"/>
       <c r="B611" s="20" t="s">
         <v>48</v>
@@ -17569,7 +17571,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="612" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A612" s="40"/>
       <c r="B612" s="20"/>
       <c r="C612" s="13">
@@ -17587,7 +17589,7 @@
       <c r="J612" s="11"/>
       <c r="K612" s="20"/>
     </row>
-    <row r="613" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A613" s="40">
         <f>EDATE(A610,1)</f>
         <v>44378</v>
@@ -17608,7 +17610,7 @@
       <c r="J613" s="11"/>
       <c r="K613" s="20"/>
     </row>
-    <row r="614" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A614" s="40">
         <f t="shared" si="24"/>
         <v>44409</v>
@@ -17629,7 +17631,7 @@
       <c r="J614" s="11"/>
       <c r="K614" s="20"/>
     </row>
-    <row r="615" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A615" s="40">
         <f t="shared" si="24"/>
         <v>44440</v>
@@ -17650,7 +17652,7 @@
       <c r="J615" s="11"/>
       <c r="K615" s="20"/>
     </row>
-    <row r="616" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A616" s="40">
         <f t="shared" si="24"/>
         <v>44470</v>
@@ -17671,7 +17673,7 @@
       <c r="J616" s="11"/>
       <c r="K616" s="20"/>
     </row>
-    <row r="617" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A617" s="40">
         <f t="shared" si="24"/>
         <v>44501</v>
@@ -17696,7 +17698,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="618" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A618" s="40"/>
       <c r="B618" s="20" t="s">
         <v>77</v>
@@ -17718,7 +17720,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="619" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A619" s="40"/>
       <c r="B619" s="20"/>
       <c r="C619" s="13">
@@ -17736,7 +17738,7 @@
       <c r="J619" s="11"/>
       <c r="K619" s="20"/>
     </row>
-    <row r="620" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A620" s="40">
         <f>EDATE(A617,1)</f>
         <v>44531</v>
@@ -17757,7 +17759,7 @@
       <c r="J620" s="11"/>
       <c r="K620" s="20"/>
     </row>
-    <row r="621" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A621" s="48" t="s">
         <v>428</v>
       </c>
@@ -17775,7 +17777,7 @@
       <c r="J621" s="11"/>
       <c r="K621" s="20"/>
     </row>
-    <row r="622" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A622" s="40">
         <v>44562</v>
       </c>
@@ -17795,7 +17797,7 @@
       <c r="J622" s="11"/>
       <c r="K622" s="20"/>
     </row>
-    <row r="623" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A623" s="40">
         <f>EDATE(A622,1)</f>
         <v>44593</v>
@@ -17816,7 +17818,7 @@
       <c r="J623" s="11"/>
       <c r="K623" s="20"/>
     </row>
-    <row r="624" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A624" s="40">
         <f t="shared" ref="A624:A638" si="25">EDATE(A623,1)</f>
         <v>44621</v>
@@ -17839,7 +17841,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="625" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A625" s="40"/>
       <c r="B625" s="20"/>
       <c r="C625" s="13">
@@ -17857,7 +17859,7 @@
       <c r="J625" s="11"/>
       <c r="K625" s="20"/>
     </row>
-    <row r="626" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A626" s="40">
         <f>EDATE(A624,1)</f>
         <v>44652</v>
@@ -17878,7 +17880,7 @@
       <c r="J626" s="11"/>
       <c r="K626" s="20"/>
     </row>
-    <row r="627" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A627" s="40">
         <f t="shared" si="25"/>
         <v>44682</v>
@@ -17899,7 +17901,7 @@
       <c r="J627" s="11"/>
       <c r="K627" s="20"/>
     </row>
-    <row r="628" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A628" s="40"/>
       <c r="B628" s="20" t="s">
         <v>48</v>
@@ -17921,7 +17923,7 @@
         <v>44597</v>
       </c>
     </row>
-    <row r="629" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A629" s="40"/>
       <c r="B629" s="20" t="s">
         <v>48</v>
@@ -17943,7 +17945,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="630" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A630" s="40"/>
       <c r="B630" s="20" t="s">
         <v>53</v>
@@ -17963,7 +17965,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="631" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A631" s="40">
         <f>EDATE(A627,1)</f>
         <v>44713</v>
@@ -17988,7 +17990,7 @@
         <v>44748</v>
       </c>
     </row>
-    <row r="632" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A632" s="40"/>
       <c r="B632" s="20" t="s">
         <v>48</v>
@@ -18010,7 +18012,7 @@
         <v>44748</v>
       </c>
     </row>
-    <row r="633" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A633" s="40"/>
       <c r="B633" s="20"/>
       <c r="C633" s="13">
@@ -18028,7 +18030,7 @@
       <c r="J633" s="11"/>
       <c r="K633" s="20"/>
     </row>
-    <row r="634" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A634" s="40">
         <f>EDATE(A631,1)</f>
         <v>44743</v>
@@ -18049,7 +18051,7 @@
       <c r="J634" s="11"/>
       <c r="K634" s="20"/>
     </row>
-    <row r="635" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A635" s="40">
         <f t="shared" si="25"/>
         <v>44774</v>
@@ -18074,7 +18076,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="636" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A636" s="40"/>
       <c r="B636" s="20"/>
       <c r="C636" s="13">
@@ -18092,7 +18094,7 @@
       <c r="J636" s="11"/>
       <c r="K636" s="20"/>
     </row>
-    <row r="637" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A637" s="40">
         <f>EDATE(A635,1)</f>
         <v>44805</v>
@@ -18113,7 +18115,7 @@
       <c r="J637" s="11"/>
       <c r="K637" s="20"/>
     </row>
-    <row r="638" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A638" s="40">
         <f t="shared" si="25"/>
         <v>44835</v>
@@ -18138,7 +18140,7 @@
         <v>44661</v>
       </c>
     </row>
-    <row r="639" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A639" s="40"/>
       <c r="B639" s="20" t="s">
         <v>434</v>
@@ -18162,7 +18164,7 @@
         <v>44844</v>
       </c>
     </row>
-    <row r="640" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A640" s="40"/>
       <c r="B640" s="20" t="s">
         <v>434</v>
@@ -18184,7 +18186,7 @@
         <v>44853</v>
       </c>
     </row>
-    <row r="641" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A641" s="40">
         <v>44866</v>
       </c>
@@ -18204,7 +18206,7 @@
       <c r="J641" s="11"/>
       <c r="K641" s="20"/>
     </row>
-    <row r="642" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A642" s="40">
         <v>44896</v>
       </c>
@@ -18230,7 +18232,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="643" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A643" s="48" t="s">
         <v>433</v>
       </c>
@@ -18248,7 +18250,7 @@
       <c r="J643" s="11"/>
       <c r="K643" s="20"/>
     </row>
-    <row r="644" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A644" s="40">
         <v>44927</v>
       </c>
@@ -18274,7 +18276,7 @@
         <v>44949</v>
       </c>
     </row>
-    <row r="645" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A645" s="40"/>
       <c r="B645" s="20" t="s">
         <v>437</v>
@@ -18296,7 +18298,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="646" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A646" s="40"/>
       <c r="B646" s="20" t="s">
         <v>434</v>
@@ -18318,7 +18320,7 @@
         <v>44944</v>
       </c>
     </row>
-    <row r="647" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A647" s="40">
         <v>44958</v>
       </c>
@@ -18342,7 +18344,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="648" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A648" s="40">
         <v>44986</v>
       </c>
@@ -18362,7 +18364,7 @@
       <c r="J648" s="11"/>
       <c r="K648" s="20"/>
     </row>
-    <row r="649" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A649" s="40">
         <v>45017</v>
       </c>
@@ -18382,7 +18384,7 @@
       <c r="J649" s="11"/>
       <c r="K649" s="20"/>
     </row>
-    <row r="650" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A650" s="40">
         <v>45047</v>
       </c>
@@ -18408,7 +18410,7 @@
         <v>45044</v>
       </c>
     </row>
-    <row r="651" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A651" s="40"/>
       <c r="B651" s="15" t="s">
         <v>441</v>
@@ -18430,7 +18432,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="652" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A652" s="40"/>
       <c r="B652" s="15" t="s">
         <v>441</v>
@@ -18452,7 +18454,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="653" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A653" s="40"/>
       <c r="B653" s="15" t="s">
         <v>444</v>
@@ -18474,7 +18476,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="654" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A654" s="40"/>
       <c r="B654" s="15" t="s">
         <v>437</v>
@@ -18496,7 +18498,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="655" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A655" s="40">
         <v>45078</v>
       </c>
@@ -18520,7 +18522,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="656" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A656" s="40"/>
       <c r="B656" s="20" t="s">
         <v>437</v>
@@ -18542,11 +18544,11 @@
         <v>449</v>
       </c>
     </row>
-    <row r="657" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A657" s="40">
-        <v>45108</v>
-      </c>
-      <c r="B657" s="20"/>
+    <row r="657" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A657" s="40"/>
+      <c r="B657" s="20" t="s">
+        <v>434</v>
+      </c>
       <c r="C657" s="13"/>
       <c r="D657" s="39"/>
       <c r="E657" s="9"/>
@@ -18555,14 +18557,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H657" s="39"/>
+      <c r="H657" s="39">
+        <v>1</v>
+      </c>
       <c r="I657" s="9"/>
       <c r="J657" s="11"/>
-      <c r="K657" s="20"/>
-    </row>
-    <row r="658" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K657" s="49">
+        <v>45093</v>
+      </c>
+    </row>
+    <row r="658" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A658" s="40">
-        <v>45139</v>
+        <v>45108</v>
       </c>
       <c r="B658" s="20"/>
       <c r="C658" s="13"/>
@@ -18576,11 +18582,13 @@
       <c r="H658" s="39"/>
       <c r="I658" s="9"/>
       <c r="J658" s="11"/>
-      <c r="K658" s="20"/>
-    </row>
-    <row r="659" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K658" s="20" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="659" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A659" s="40">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B659" s="20"/>
       <c r="C659" s="13"/>
@@ -18596,9 +18604,9 @@
       <c r="J659" s="11"/>
       <c r="K659" s="20"/>
     </row>
-    <row r="660" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A660" s="40">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B660" s="20"/>
       <c r="C660" s="13"/>
@@ -18614,9 +18622,9 @@
       <c r="J660" s="11"/>
       <c r="K660" s="20"/>
     </row>
-    <row r="661" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A661" s="40">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B661" s="20"/>
       <c r="C661" s="13"/>
@@ -18632,9 +18640,9 @@
       <c r="J661" s="11"/>
       <c r="K661" s="20"/>
     </row>
-    <row r="662" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A662" s="40">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B662" s="20"/>
       <c r="C662" s="13"/>
@@ -18650,9 +18658,9 @@
       <c r="J662" s="11"/>
       <c r="K662" s="20"/>
     </row>
-    <row r="663" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A663" s="40">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B663" s="20"/>
       <c r="C663" s="13"/>
@@ -18668,9 +18676,9 @@
       <c r="J663" s="11"/>
       <c r="K663" s="20"/>
     </row>
-    <row r="664" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A664" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B664" s="20"/>
       <c r="C664" s="13"/>
@@ -18686,9 +18694,9 @@
       <c r="J664" s="11"/>
       <c r="K664" s="20"/>
     </row>
-    <row r="665" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A665" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B665" s="20"/>
       <c r="C665" s="13"/>
@@ -18704,9 +18712,9 @@
       <c r="J665" s="11"/>
       <c r="K665" s="20"/>
     </row>
-    <row r="666" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A666" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B666" s="20"/>
       <c r="C666" s="13"/>
@@ -18722,9 +18730,9 @@
       <c r="J666" s="11"/>
       <c r="K666" s="20"/>
     </row>
-    <row r="667" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A667" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B667" s="20"/>
       <c r="C667" s="13"/>
@@ -18740,9 +18748,9 @@
       <c r="J667" s="11"/>
       <c r="K667" s="20"/>
     </row>
-    <row r="668" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A668" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B668" s="20"/>
       <c r="C668" s="13"/>
@@ -18758,9 +18766,9 @@
       <c r="J668" s="11"/>
       <c r="K668" s="20"/>
     </row>
-    <row r="669" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A669" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B669" s="20"/>
       <c r="C669" s="13"/>
@@ -18776,9 +18784,9 @@
       <c r="J669" s="11"/>
       <c r="K669" s="20"/>
     </row>
-    <row r="670" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A670" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B670" s="20"/>
       <c r="C670" s="13"/>
@@ -18794,9 +18802,9 @@
       <c r="J670" s="11"/>
       <c r="K670" s="20"/>
     </row>
-    <row r="671" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A671" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B671" s="20"/>
       <c r="C671" s="13"/>
@@ -18812,9 +18820,9 @@
       <c r="J671" s="11"/>
       <c r="K671" s="20"/>
     </row>
-    <row r="672" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A672" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B672" s="20"/>
       <c r="C672" s="13"/>
@@ -18830,9 +18838,9 @@
       <c r="J672" s="11"/>
       <c r="K672" s="20"/>
     </row>
-    <row r="673" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A673" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B673" s="20"/>
       <c r="C673" s="13"/>
@@ -18848,9 +18856,9 @@
       <c r="J673" s="11"/>
       <c r="K673" s="20"/>
     </row>
-    <row r="674" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A674" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B674" s="20"/>
       <c r="C674" s="13"/>
@@ -18866,9 +18874,9 @@
       <c r="J674" s="11"/>
       <c r="K674" s="20"/>
     </row>
-    <row r="675" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A675" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B675" s="20"/>
       <c r="C675" s="13"/>
@@ -18884,9 +18892,9 @@
       <c r="J675" s="11"/>
       <c r="K675" s="20"/>
     </row>
-    <row r="676" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A676" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B676" s="20"/>
       <c r="C676" s="13"/>
@@ -18902,9 +18910,9 @@
       <c r="J676" s="11"/>
       <c r="K676" s="20"/>
     </row>
-    <row r="677" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A677" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B677" s="20"/>
       <c r="C677" s="13"/>
@@ -18920,9 +18928,9 @@
       <c r="J677" s="11"/>
       <c r="K677" s="20"/>
     </row>
-    <row r="678" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A678" s="40">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B678" s="20"/>
       <c r="C678" s="13"/>
@@ -18938,9 +18946,9 @@
       <c r="J678" s="11"/>
       <c r="K678" s="20"/>
     </row>
-    <row r="679" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A679" s="40">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B679" s="20"/>
       <c r="C679" s="13"/>
@@ -18956,9 +18964,9 @@
       <c r="J679" s="11"/>
       <c r="K679" s="20"/>
     </row>
-    <row r="680" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A680" s="40">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B680" s="20"/>
       <c r="C680" s="13"/>
@@ -18974,9 +18982,9 @@
       <c r="J680" s="11"/>
       <c r="K680" s="20"/>
     </row>
-    <row r="681" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A681" s="40">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B681" s="20"/>
       <c r="C681" s="13"/>
@@ -18992,9 +19000,9 @@
       <c r="J681" s="11"/>
       <c r="K681" s="20"/>
     </row>
-    <row r="682" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A682" s="40">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B682" s="20"/>
       <c r="C682" s="13"/>
@@ -19010,9 +19018,9 @@
       <c r="J682" s="11"/>
       <c r="K682" s="20"/>
     </row>
-    <row r="683" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A683" s="40">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B683" s="20"/>
       <c r="C683" s="13"/>
@@ -19028,9 +19036,9 @@
       <c r="J683" s="11"/>
       <c r="K683" s="20"/>
     </row>
-    <row r="684" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A684" s="40">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B684" s="20"/>
       <c r="C684" s="13"/>
@@ -19046,9 +19054,9 @@
       <c r="J684" s="11"/>
       <c r="K684" s="20"/>
     </row>
-    <row r="685" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A685" s="40">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B685" s="20"/>
       <c r="C685" s="13"/>
@@ -19064,9 +19072,9 @@
       <c r="J685" s="11"/>
       <c r="K685" s="20"/>
     </row>
-    <row r="686" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A686" s="40">
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="B686" s="20"/>
       <c r="C686" s="13"/>
@@ -19082,9 +19090,9 @@
       <c r="J686" s="11"/>
       <c r="K686" s="20"/>
     </row>
-    <row r="687" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A687" s="40">
-        <v>46023</v>
+        <v>45992</v>
       </c>
       <c r="B687" s="20"/>
       <c r="C687" s="13"/>
@@ -19100,9 +19108,9 @@
       <c r="J687" s="11"/>
       <c r="K687" s="20"/>
     </row>
-    <row r="688" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A688" s="40">
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="B688" s="20"/>
       <c r="C688" s="13"/>
@@ -19118,9 +19126,9 @@
       <c r="J688" s="11"/>
       <c r="K688" s="20"/>
     </row>
-    <row r="689" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A689" s="40">
-        <v>46082</v>
+        <v>46054</v>
       </c>
       <c r="B689" s="20"/>
       <c r="C689" s="13"/>
@@ -19136,9 +19144,9 @@
       <c r="J689" s="11"/>
       <c r="K689" s="20"/>
     </row>
-    <row r="690" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A690" s="40">
-        <v>46113</v>
+        <v>46082</v>
       </c>
       <c r="B690" s="20"/>
       <c r="C690" s="13"/>
@@ -19154,9 +19162,9 @@
       <c r="J690" s="11"/>
       <c r="K690" s="20"/>
     </row>
-    <row r="691" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A691" s="40">
-        <v>46143</v>
+        <v>46113</v>
       </c>
       <c r="B691" s="20"/>
       <c r="C691" s="13"/>
@@ -19172,9 +19180,9 @@
       <c r="J691" s="11"/>
       <c r="K691" s="20"/>
     </row>
-    <row r="692" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A692" s="40">
-        <v>46174</v>
+        <v>46143</v>
       </c>
       <c r="B692" s="20"/>
       <c r="C692" s="13"/>
@@ -19190,9 +19198,9 @@
       <c r="J692" s="11"/>
       <c r="K692" s="20"/>
     </row>
-    <row r="693" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A693" s="40">
-        <v>46204</v>
+        <v>46174</v>
       </c>
       <c r="B693" s="20"/>
       <c r="C693" s="13"/>
@@ -19208,9 +19216,9 @@
       <c r="J693" s="11"/>
       <c r="K693" s="20"/>
     </row>
-    <row r="694" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A694" s="40">
-        <v>46235</v>
+        <v>46204</v>
       </c>
       <c r="B694" s="20"/>
       <c r="C694" s="13"/>
@@ -19226,9 +19234,9 @@
       <c r="J694" s="11"/>
       <c r="K694" s="20"/>
     </row>
-    <row r="695" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A695" s="40">
-        <v>46266</v>
+        <v>46235</v>
       </c>
       <c r="B695" s="20"/>
       <c r="C695" s="13"/>
@@ -19244,9 +19252,9 @@
       <c r="J695" s="11"/>
       <c r="K695" s="20"/>
     </row>
-    <row r="696" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A696" s="40">
-        <v>46296</v>
+        <v>46266</v>
       </c>
       <c r="B696" s="20"/>
       <c r="C696" s="13"/>
@@ -19262,9 +19270,9 @@
       <c r="J696" s="11"/>
       <c r="K696" s="20"/>
     </row>
-    <row r="697" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A697" s="40">
-        <v>46327</v>
+        <v>46296</v>
       </c>
       <c r="B697" s="20"/>
       <c r="C697" s="13"/>
@@ -19280,9 +19288,9 @@
       <c r="J697" s="11"/>
       <c r="K697" s="20"/>
     </row>
-    <row r="698" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A698" s="40">
-        <v>46357</v>
+        <v>46327</v>
       </c>
       <c r="B698" s="20"/>
       <c r="C698" s="13"/>
@@ -19298,9 +19306,9 @@
       <c r="J698" s="11"/>
       <c r="K698" s="20"/>
     </row>
-    <row r="699" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A699" s="40">
-        <v>46388</v>
+        <v>46357</v>
       </c>
       <c r="B699" s="20"/>
       <c r="C699" s="13"/>
@@ -19316,9 +19324,9 @@
       <c r="J699" s="11"/>
       <c r="K699" s="20"/>
     </row>
-    <row r="700" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A700" s="40">
-        <v>46419</v>
+        <v>46388</v>
       </c>
       <c r="B700" s="20"/>
       <c r="C700" s="13"/>
@@ -19334,9 +19342,9 @@
       <c r="J700" s="11"/>
       <c r="K700" s="20"/>
     </row>
-    <row r="701" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A701" s="40">
-        <v>46447</v>
+        <v>46419</v>
       </c>
       <c r="B701" s="20"/>
       <c r="C701" s="13"/>
@@ -19352,9 +19360,9 @@
       <c r="J701" s="11"/>
       <c r="K701" s="20"/>
     </row>
-    <row r="702" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A702" s="40">
-        <v>46478</v>
+        <v>46447</v>
       </c>
       <c r="B702" s="20"/>
       <c r="C702" s="13"/>
@@ -19370,9 +19378,9 @@
       <c r="J702" s="11"/>
       <c r="K702" s="20"/>
     </row>
-    <row r="703" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A703" s="40">
-        <v>46508</v>
+        <v>46478</v>
       </c>
       <c r="B703" s="20"/>
       <c r="C703" s="13"/>
@@ -19388,9 +19396,9 @@
       <c r="J703" s="11"/>
       <c r="K703" s="20"/>
     </row>
-    <row r="704" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A704" s="40">
-        <v>46539</v>
+        <v>46508</v>
       </c>
       <c r="B704" s="20"/>
       <c r="C704" s="13"/>
@@ -19406,9 +19414,9 @@
       <c r="J704" s="11"/>
       <c r="K704" s="20"/>
     </row>
-    <row r="705" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A705" s="40">
-        <v>46569</v>
+        <v>46539</v>
       </c>
       <c r="B705" s="20"/>
       <c r="C705" s="13"/>
@@ -19424,9 +19432,9 @@
       <c r="J705" s="11"/>
       <c r="K705" s="20"/>
     </row>
-    <row r="706" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A706" s="40">
-        <v>46600</v>
+        <v>46569</v>
       </c>
       <c r="B706" s="20"/>
       <c r="C706" s="13"/>
@@ -19442,9 +19450,9 @@
       <c r="J706" s="11"/>
       <c r="K706" s="20"/>
     </row>
-    <row r="707" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A707" s="40">
-        <v>46631</v>
+        <v>46600</v>
       </c>
       <c r="B707" s="20"/>
       <c r="C707" s="13"/>
@@ -19460,9 +19468,9 @@
       <c r="J707" s="11"/>
       <c r="K707" s="20"/>
     </row>
-    <row r="708" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A708" s="40">
-        <v>46661</v>
+        <v>46631</v>
       </c>
       <c r="B708" s="20"/>
       <c r="C708" s="13"/>
@@ -19478,9 +19486,9 @@
       <c r="J708" s="11"/>
       <c r="K708" s="20"/>
     </row>
-    <row r="709" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A709" s="40">
-        <v>46692</v>
+        <v>46661</v>
       </c>
       <c r="B709" s="20"/>
       <c r="C709" s="13"/>
@@ -19496,9 +19504,9 @@
       <c r="J709" s="11"/>
       <c r="K709" s="20"/>
     </row>
-    <row r="710" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A710" s="40">
-        <v>46722</v>
+        <v>46692</v>
       </c>
       <c r="B710" s="20"/>
       <c r="C710" s="13"/>
@@ -19514,9 +19522,9 @@
       <c r="J710" s="11"/>
       <c r="K710" s="20"/>
     </row>
-    <row r="711" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A711" s="40">
-        <v>46753</v>
+        <v>46722</v>
       </c>
       <c r="B711" s="20"/>
       <c r="C711" s="13"/>
@@ -19532,9 +19540,9 @@
       <c r="J711" s="11"/>
       <c r="K711" s="20"/>
     </row>
-    <row r="712" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A712" s="40">
-        <v>46784</v>
+        <v>46753</v>
       </c>
       <c r="B712" s="20"/>
       <c r="C712" s="13"/>
@@ -19550,9 +19558,9 @@
       <c r="J712" s="11"/>
       <c r="K712" s="20"/>
     </row>
-    <row r="713" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A713" s="40">
-        <v>46813</v>
+        <v>46784</v>
       </c>
       <c r="B713" s="20"/>
       <c r="C713" s="13"/>
@@ -19568,9 +19576,9 @@
       <c r="J713" s="11"/>
       <c r="K713" s="20"/>
     </row>
-    <row r="714" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A714" s="40">
-        <v>46844</v>
+        <v>46813</v>
       </c>
       <c r="B714" s="20"/>
       <c r="C714" s="13"/>
@@ -19586,9 +19594,9 @@
       <c r="J714" s="11"/>
       <c r="K714" s="20"/>
     </row>
-    <row r="715" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A715" s="40">
-        <v>46874</v>
+        <v>46844</v>
       </c>
       <c r="B715" s="20"/>
       <c r="C715" s="13"/>
@@ -19604,9 +19612,9 @@
       <c r="J715" s="11"/>
       <c r="K715" s="20"/>
     </row>
-    <row r="716" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A716" s="40">
-        <v>46905</v>
+        <v>46874</v>
       </c>
       <c r="B716" s="20"/>
       <c r="C716" s="13"/>
@@ -19622,9 +19630,9 @@
       <c r="J716" s="11"/>
       <c r="K716" s="20"/>
     </row>
-    <row r="717" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A717" s="40">
-        <v>46935</v>
+        <v>46905</v>
       </c>
       <c r="B717" s="20"/>
       <c r="C717" s="13"/>
@@ -19640,9 +19648,9 @@
       <c r="J717" s="11"/>
       <c r="K717" s="20"/>
     </row>
-    <row r="718" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A718" s="40">
-        <v>46966</v>
+        <v>46935</v>
       </c>
       <c r="B718" s="20"/>
       <c r="C718" s="13"/>
@@ -19658,9 +19666,9 @@
       <c r="J718" s="11"/>
       <c r="K718" s="20"/>
     </row>
-    <row r="719" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A719" s="40">
-        <v>46997</v>
+        <v>46966</v>
       </c>
       <c r="B719" s="20"/>
       <c r="C719" s="13"/>
@@ -19676,9 +19684,9 @@
       <c r="J719" s="11"/>
       <c r="K719" s="20"/>
     </row>
-    <row r="720" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A720" s="40">
-        <v>47027</v>
+        <v>46997</v>
       </c>
       <c r="B720" s="20"/>
       <c r="C720" s="13"/>
@@ -19694,9 +19702,9 @@
       <c r="J720" s="11"/>
       <c r="K720" s="20"/>
     </row>
-    <row r="721" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A721" s="40">
-        <v>47058</v>
+        <v>47027</v>
       </c>
       <c r="B721" s="20"/>
       <c r="C721" s="13"/>
@@ -19712,9 +19720,9 @@
       <c r="J721" s="11"/>
       <c r="K721" s="20"/>
     </row>
-    <row r="722" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A722" s="40">
-        <v>47088</v>
+        <v>47058</v>
       </c>
       <c r="B722" s="20"/>
       <c r="C722" s="13"/>
@@ -19730,9 +19738,9 @@
       <c r="J722" s="11"/>
       <c r="K722" s="20"/>
     </row>
-    <row r="723" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A723" s="40">
-        <v>47119</v>
+        <v>47088</v>
       </c>
       <c r="B723" s="20"/>
       <c r="C723" s="13"/>
@@ -19748,9 +19756,9 @@
       <c r="J723" s="11"/>
       <c r="K723" s="20"/>
     </row>
-    <row r="724" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A724" s="40">
-        <v>47150</v>
+        <v>47119</v>
       </c>
       <c r="B724" s="20"/>
       <c r="C724" s="13"/>
@@ -19766,9 +19774,9 @@
       <c r="J724" s="11"/>
       <c r="K724" s="20"/>
     </row>
-    <row r="725" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A725" s="40">
-        <v>47178</v>
+        <v>47150</v>
       </c>
       <c r="B725" s="20"/>
       <c r="C725" s="13"/>
@@ -19784,9 +19792,9 @@
       <c r="J725" s="11"/>
       <c r="K725" s="20"/>
     </row>
-    <row r="726" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A726" s="40">
-        <v>47209</v>
+        <v>47178</v>
       </c>
       <c r="B726" s="20"/>
       <c r="C726" s="13"/>
@@ -19802,9 +19810,9 @@
       <c r="J726" s="11"/>
       <c r="K726" s="20"/>
     </row>
-    <row r="727" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A727" s="40">
-        <v>47239</v>
+        <v>47209</v>
       </c>
       <c r="B727" s="20"/>
       <c r="C727" s="13"/>
@@ -19820,9 +19828,9 @@
       <c r="J727" s="11"/>
       <c r="K727" s="20"/>
     </row>
-    <row r="728" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A728" s="40">
-        <v>47270</v>
+        <v>47239</v>
       </c>
       <c r="B728" s="20"/>
       <c r="C728" s="13"/>
@@ -19838,9 +19846,9 @@
       <c r="J728" s="11"/>
       <c r="K728" s="20"/>
     </row>
-    <row r="729" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A729" s="40">
-        <v>47300</v>
+        <v>47270</v>
       </c>
       <c r="B729" s="20"/>
       <c r="C729" s="13"/>
@@ -19856,9 +19864,9 @@
       <c r="J729" s="11"/>
       <c r="K729" s="20"/>
     </row>
-    <row r="730" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A730" s="40">
-        <v>47331</v>
+        <v>47300</v>
       </c>
       <c r="B730" s="20"/>
       <c r="C730" s="13"/>
@@ -19874,9 +19882,9 @@
       <c r="J730" s="11"/>
       <c r="K730" s="20"/>
     </row>
-    <row r="731" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A731" s="40">
-        <v>47362</v>
+        <v>47331</v>
       </c>
       <c r="B731" s="20"/>
       <c r="C731" s="13"/>
@@ -19892,9 +19900,9 @@
       <c r="J731" s="11"/>
       <c r="K731" s="20"/>
     </row>
-    <row r="732" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A732" s="40">
-        <v>47392</v>
+        <v>47362</v>
       </c>
       <c r="B732" s="20"/>
       <c r="C732" s="13"/>
@@ -19910,9 +19918,9 @@
       <c r="J732" s="11"/>
       <c r="K732" s="20"/>
     </row>
-    <row r="733" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A733" s="40">
-        <v>47423</v>
+        <v>47392</v>
       </c>
       <c r="B733" s="20"/>
       <c r="C733" s="13"/>
@@ -19928,9 +19936,9 @@
       <c r="J733" s="11"/>
       <c r="K733" s="20"/>
     </row>
-    <row r="734" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A734" s="40">
-        <v>47453</v>
+        <v>47423</v>
       </c>
       <c r="B734" s="20"/>
       <c r="C734" s="13"/>
@@ -19946,9 +19954,9 @@
       <c r="J734" s="11"/>
       <c r="K734" s="20"/>
     </row>
-    <row r="735" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A735" s="40">
-        <v>47484</v>
+        <v>47453</v>
       </c>
       <c r="B735" s="20"/>
       <c r="C735" s="13"/>
@@ -19964,9 +19972,9 @@
       <c r="J735" s="11"/>
       <c r="K735" s="20"/>
     </row>
-    <row r="736" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A736" s="40">
-        <v>47515</v>
+        <v>47484</v>
       </c>
       <c r="B736" s="20"/>
       <c r="C736" s="13"/>
@@ -19982,9 +19990,9 @@
       <c r="J736" s="11"/>
       <c r="K736" s="20"/>
     </row>
-    <row r="737" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A737" s="40">
-        <v>47543</v>
+        <v>47515</v>
       </c>
       <c r="B737" s="20"/>
       <c r="C737" s="13"/>
@@ -20000,9 +20008,9 @@
       <c r="J737" s="11"/>
       <c r="K737" s="20"/>
     </row>
-    <row r="738" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A738" s="40">
-        <v>47574</v>
+        <v>47543</v>
       </c>
       <c r="B738" s="20"/>
       <c r="C738" s="13"/>
@@ -20018,9 +20026,9 @@
       <c r="J738" s="11"/>
       <c r="K738" s="20"/>
     </row>
-    <row r="739" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A739" s="40">
-        <v>47604</v>
+        <v>47574</v>
       </c>
       <c r="B739" s="20"/>
       <c r="C739" s="13"/>
@@ -20036,9 +20044,9 @@
       <c r="J739" s="11"/>
       <c r="K739" s="20"/>
     </row>
-    <row r="740" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A740" s="40">
-        <v>47635</v>
+        <v>47604</v>
       </c>
       <c r="B740" s="20"/>
       <c r="C740" s="13"/>
@@ -20054,9 +20062,9 @@
       <c r="J740" s="11"/>
       <c r="K740" s="20"/>
     </row>
-    <row r="741" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A741" s="40">
-        <v>47665</v>
+        <v>47635</v>
       </c>
       <c r="B741" s="20"/>
       <c r="C741" s="13"/>
@@ -20072,9 +20080,9 @@
       <c r="J741" s="11"/>
       <c r="K741" s="20"/>
     </row>
-    <row r="742" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A742" s="40">
-        <v>47696</v>
+        <v>47665</v>
       </c>
       <c r="B742" s="20"/>
       <c r="C742" s="13"/>
@@ -20090,9 +20098,9 @@
       <c r="J742" s="11"/>
       <c r="K742" s="20"/>
     </row>
-    <row r="743" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A743" s="40">
-        <v>47727</v>
+        <v>47696</v>
       </c>
       <c r="B743" s="20"/>
       <c r="C743" s="13"/>
@@ -20108,9 +20116,9 @@
       <c r="J743" s="11"/>
       <c r="K743" s="20"/>
     </row>
-    <row r="744" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A744" s="40">
-        <v>47757</v>
+        <v>47727</v>
       </c>
       <c r="B744" s="20"/>
       <c r="C744" s="13"/>
@@ -20126,9 +20134,9 @@
       <c r="J744" s="11"/>
       <c r="K744" s="20"/>
     </row>
-    <row r="745" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A745" s="40">
-        <v>47788</v>
+        <v>47757</v>
       </c>
       <c r="B745" s="20"/>
       <c r="C745" s="13"/>
@@ -20144,9 +20152,9 @@
       <c r="J745" s="11"/>
       <c r="K745" s="20"/>
     </row>
-    <row r="746" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A746" s="40">
-        <v>47818</v>
+        <v>47788</v>
       </c>
       <c r="B746" s="20"/>
       <c r="C746" s="13"/>
@@ -20162,9 +20170,9 @@
       <c r="J746" s="11"/>
       <c r="K746" s="20"/>
     </row>
-    <row r="747" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A747" s="40">
-        <v>47849</v>
+        <v>47818</v>
       </c>
       <c r="B747" s="20"/>
       <c r="C747" s="13"/>
@@ -20180,9 +20188,9 @@
       <c r="J747" s="11"/>
       <c r="K747" s="20"/>
     </row>
-    <row r="748" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A748" s="40">
-        <v>47880</v>
+        <v>47849</v>
       </c>
       <c r="B748" s="20"/>
       <c r="C748" s="13"/>
@@ -20198,9 +20206,9 @@
       <c r="J748" s="11"/>
       <c r="K748" s="20"/>
     </row>
-    <row r="749" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A749" s="40">
-        <v>47908</v>
+        <v>47880</v>
       </c>
       <c r="B749" s="20"/>
       <c r="C749" s="13"/>
@@ -20216,9 +20224,9 @@
       <c r="J749" s="11"/>
       <c r="K749" s="20"/>
     </row>
-    <row r="750" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A750" s="40">
-        <v>47939</v>
+        <v>47908</v>
       </c>
       <c r="B750" s="20"/>
       <c r="C750" s="13"/>
@@ -20234,9 +20242,9 @@
       <c r="J750" s="11"/>
       <c r="K750" s="20"/>
     </row>
-    <row r="751" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A751" s="40">
-        <v>47969</v>
+        <v>47939</v>
       </c>
       <c r="B751" s="20"/>
       <c r="C751" s="13"/>
@@ -20252,9 +20260,9 @@
       <c r="J751" s="11"/>
       <c r="K751" s="20"/>
     </row>
-    <row r="752" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A752" s="40">
-        <v>48000</v>
+        <v>47969</v>
       </c>
       <c r="B752" s="20"/>
       <c r="C752" s="13"/>
@@ -20270,9 +20278,9 @@
       <c r="J752" s="11"/>
       <c r="K752" s="20"/>
     </row>
-    <row r="753" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A753" s="40">
-        <v>48030</v>
+        <v>48000</v>
       </c>
       <c r="B753" s="20"/>
       <c r="C753" s="13"/>
@@ -20288,9 +20296,9 @@
       <c r="J753" s="11"/>
       <c r="K753" s="20"/>
     </row>
-    <row r="754" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A754" s="40">
-        <v>48061</v>
+        <v>48030</v>
       </c>
       <c r="B754" s="20"/>
       <c r="C754" s="13"/>
@@ -20306,9 +20314,9 @@
       <c r="J754" s="11"/>
       <c r="K754" s="20"/>
     </row>
-    <row r="755" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A755" s="40">
-        <v>48092</v>
+        <v>48061</v>
       </c>
       <c r="B755" s="20"/>
       <c r="C755" s="13"/>
@@ -20324,9 +20332,9 @@
       <c r="J755" s="11"/>
       <c r="K755" s="20"/>
     </row>
-    <row r="756" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A756" s="40">
-        <v>48122</v>
+        <v>48092</v>
       </c>
       <c r="B756" s="20"/>
       <c r="C756" s="13"/>
@@ -20342,9 +20350,9 @@
       <c r="J756" s="11"/>
       <c r="K756" s="20"/>
     </row>
-    <row r="757" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A757" s="40">
-        <v>48153</v>
+        <v>48122</v>
       </c>
       <c r="B757" s="20"/>
       <c r="C757" s="13"/>
@@ -20360,9 +20368,9 @@
       <c r="J757" s="11"/>
       <c r="K757" s="20"/>
     </row>
-    <row r="758" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A758" s="40">
-        <v>48183</v>
+        <v>48153</v>
       </c>
       <c r="B758" s="20"/>
       <c r="C758" s="13"/>
@@ -20378,9 +20386,9 @@
       <c r="J758" s="11"/>
       <c r="K758" s="20"/>
     </row>
-    <row r="759" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A759" s="40">
-        <v>48214</v>
+        <v>48183</v>
       </c>
       <c r="B759" s="20"/>
       <c r="C759" s="13"/>
@@ -20396,9 +20404,9 @@
       <c r="J759" s="11"/>
       <c r="K759" s="20"/>
     </row>
-    <row r="760" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A760" s="40">
-        <v>48245</v>
+        <v>48214</v>
       </c>
       <c r="B760" s="20"/>
       <c r="C760" s="13"/>
@@ -20414,9 +20422,9 @@
       <c r="J760" s="11"/>
       <c r="K760" s="20"/>
     </row>
-    <row r="761" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A761" s="40">
-        <v>48274</v>
+        <v>48245</v>
       </c>
       <c r="B761" s="20"/>
       <c r="C761" s="13"/>
@@ -20432,9 +20440,9 @@
       <c r="J761" s="11"/>
       <c r="K761" s="20"/>
     </row>
-    <row r="762" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A762" s="40">
-        <v>48305</v>
+        <v>48274</v>
       </c>
       <c r="B762" s="20"/>
       <c r="C762" s="13"/>
@@ -20450,9 +20458,9 @@
       <c r="J762" s="11"/>
       <c r="K762" s="20"/>
     </row>
-    <row r="763" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A763" s="40">
-        <v>48335</v>
+        <v>48305</v>
       </c>
       <c r="B763" s="20"/>
       <c r="C763" s="13"/>
@@ -20468,9 +20476,9 @@
       <c r="J763" s="11"/>
       <c r="K763" s="20"/>
     </row>
-    <row r="764" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A764" s="40">
-        <v>48366</v>
+        <v>48335</v>
       </c>
       <c r="B764" s="20"/>
       <c r="C764" s="13"/>
@@ -20486,9 +20494,9 @@
       <c r="J764" s="11"/>
       <c r="K764" s="20"/>
     </row>
-    <row r="765" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A765" s="40">
-        <v>48396</v>
+        <v>48366</v>
       </c>
       <c r="B765" s="20"/>
       <c r="C765" s="13"/>
@@ -20504,9 +20512,9 @@
       <c r="J765" s="11"/>
       <c r="K765" s="20"/>
     </row>
-    <row r="766" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A766" s="40">
-        <v>48427</v>
+        <v>48396</v>
       </c>
       <c r="B766" s="20"/>
       <c r="C766" s="13"/>
@@ -20522,9 +20530,9 @@
       <c r="J766" s="11"/>
       <c r="K766" s="20"/>
     </row>
-    <row r="767" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A767" s="40">
-        <v>48458</v>
+        <v>48427</v>
       </c>
       <c r="B767" s="20"/>
       <c r="C767" s="13"/>
@@ -20539,6 +20547,24 @@
       <c r="I767" s="9"/>
       <c r="J767" s="11"/>
       <c r="K767" s="20"/>
+    </row>
+    <row r="768" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A768" s="40">
+        <v>48458</v>
+      </c>
+      <c r="B768" s="20"/>
+      <c r="C768" s="13"/>
+      <c r="D768" s="39"/>
+      <c r="E768" s="9"/>
+      <c r="F768" s="20"/>
+      <c r="G768" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H768" s="39"/>
+      <c r="I768" s="9"/>
+      <c r="J768" s="11"/>
+      <c r="K768" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -20555,10 +20581,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -20581,7 +20607,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -20589,21 +20615,21 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="66" t="s">
         <v>33</v>
       </c>
@@ -20616,7 +20642,7 @@
       <c r="K1" s="67"/>
       <c r="L1" s="67"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -20645,7 +20671,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3">
@@ -20671,17 +20697,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -20702,7 +20728,7 @@
       <c r="K6" s="67"/>
       <c r="L6" s="67"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -20729,7 +20755,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -20755,7 +20781,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -20781,7 +20807,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -20807,7 +20833,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -20833,7 +20859,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -20859,7 +20885,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -20885,7 +20911,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -20911,7 +20937,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -20931,7 +20957,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -20951,7 +20977,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -20971,7 +20997,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -20992,7 +21018,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -21013,7 +21039,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -21034,7 +21060,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -21055,7 +21081,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -21076,7 +21102,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -21097,7 +21123,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -21118,7 +21144,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -21139,7 +21165,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -21160,7 +21186,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -21181,7 +21207,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -21202,7 +21228,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -21223,7 +21249,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -21244,7 +21270,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -21265,7 +21291,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -21286,7 +21312,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -21307,7 +21333,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -21328,7 +21354,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -21349,7 +21375,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -21370,7 +21396,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -21391,7 +21417,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -21400,7 +21426,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -21409,7 +21435,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -21418,7 +21444,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -21427,7 +21453,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -21436,7 +21462,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -21445,7 +21471,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -21454,7 +21480,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -21463,7 +21489,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -21472,7 +21498,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -21481,7 +21507,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -21490,7 +21516,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -21499,7 +21525,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -21508,7 +21534,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -21517,7 +21543,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -21526,7 +21552,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -21535,7 +21561,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -21544,7 +21570,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -21553,7 +21579,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -21562,7 +21588,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -21571,7 +21597,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -21580,7 +21606,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -21589,7 +21615,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -21598,7 +21624,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -21607,7 +21633,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -21616,7 +21642,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -21625,7 +21651,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -21634,7 +21660,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -21643,7 +21669,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -21652,7 +21678,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/LANTING, AILEEN.xlsx
+++ b/REGULAR/LANTING, AILEEN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="451">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1386,7 +1386,7 @@
     <t>6/1,2/2023</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>7/11-12/2023</t>
   </si>
 </sst>
 </file>
@@ -2277,7 +2277,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2320,7 +2320,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2384,7 +2384,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2444,7 +2444,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2510,7 +2510,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2573,7 +2573,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2671,7 +2671,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2730,7 +2730,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2795,7 +2795,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2838,7 +2838,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2913,7 +2913,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3099,7 +3099,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3165,7 +3165,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3223,7 +3223,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3289,7 +3289,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3345,7 +3345,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3420,7 +3420,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3463,7 +3463,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3529,7 +3529,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3585,7 +3585,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3683,7 +3683,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3746,7 +3746,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4195,7 +4195,7 @@
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1890" topLeftCell="A641" activePane="bottomLeft"/>
       <selection activeCell="C5" sqref="C5"/>
-      <selection pane="bottomLeft" activeCell="K658" sqref="K658"/>
+      <selection pane="bottomLeft" activeCell="I658" sqref="I658"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4362,7 +4362,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>103.5</v>
+        <v>101.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -18570,7 +18570,9 @@
       <c r="A658" s="40">
         <v>45108</v>
       </c>
-      <c r="B658" s="20"/>
+      <c r="B658" s="20" t="s">
+        <v>437</v>
+      </c>
       <c r="C658" s="13"/>
       <c r="D658" s="39"/>
       <c r="E658" s="9"/>
@@ -18579,7 +18581,9 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H658" s="39"/>
+      <c r="H658" s="39">
+        <v>2</v>
+      </c>
       <c r="I658" s="9"/>
       <c r="J658" s="11"/>
       <c r="K658" s="20" t="s">
